--- a/Results/Results_arm_ankle_l3o.xlsx
+++ b/Results/Results_arm_ankle_l3o.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="851">
   <si>
     <t>selected_batch</t>
   </si>
@@ -82,246 +82,2971 @@
     <t>0_11</t>
   </si>
   <si>
-    <t>[340. 314. 318.]</t>
-  </si>
-  <si>
-    <t>[322. 309. 348.]</t>
-  </si>
-  <si>
-    <t>[323. 302. 344.]</t>
-  </si>
-  <si>
-    <t>[319. 320. 346.]</t>
-  </si>
-  <si>
-    <t>[321. 312. 315.]</t>
-  </si>
-  <si>
-    <t>[308. 306. 329.]</t>
-  </si>
-  <si>
-    <t>[313. 327. 332.]</t>
-  </si>
-  <si>
-    <t>[342. 300. 304.]</t>
-  </si>
-  <si>
-    <t>[330. 324. 325.]</t>
-  </si>
-  <si>
-    <t>[317. 310. 307.]</t>
-  </si>
-  <si>
-    <t>[333. 331. 328.]</t>
-  </si>
-  <si>
-    <t>[309. 335. 304. 333. 327. 332.]</t>
-  </si>
-  <si>
-    <t>[340. 344. 306. 301. 330. 308.]</t>
-  </si>
-  <si>
-    <t>[340. 328. 327. 307. 342. 324.]</t>
-  </si>
-  <si>
-    <t>[327. 340. 302. 307. 306. 304.]</t>
-  </si>
-  <si>
-    <t>[306. 332. 344. 346. 307. 331.]</t>
-  </si>
-  <si>
-    <t>[320. 323. 304. 313. 346. 322.]</t>
-  </si>
-  <si>
-    <t>[304. 300. 344. 330. 309. 312.]</t>
-  </si>
-  <si>
-    <t>[301. 329. 315. 331. 327. 310.]</t>
-  </si>
-  <si>
-    <t>[318. 329. 333. 310. 340. 312.]</t>
-  </si>
-  <si>
-    <t>[315. 314. 312. 325. 323. 318.]</t>
-  </si>
-  <si>
-    <t>[327. 302. 309. 317. 330. 307.]</t>
-  </si>
-  <si>
-    <t>[0.8193408250808716, 0.8888370394706726, 0.9053171873092651, 0.90982586145401, 0.9172885417938232, 0.9225746393203735, 0.927860677242279, 0.9286380410194397, 0.9331467747688293, 0.9406094551086426, 0.9455845952033997, 0.947139322757721, 0.9524253606796265, 0.9510261416435242, 0.9569340944290161, 0.9502487778663635, 0.9536691308021545, 0.9584888219833374, 0.9633084535598755, 0.9640858173370361, 0.9639303684234619, 0.9706156849861145, 0.9707711338996887, 0.9709266424179077, 0.9740360975265503, 0.9698383212089539, 0.9741915464401245, 0.9737251400947571, 0.9743469953536987, 0.9749689102172852, 0.9814987778663635, 0.97947758436203, 0.9797885417938232, 0.9787002205848694, 0.9766790866851807, 0.981809675693512, 0.9847636818885803, 0.9839863181114197, 0.9849191308021545, 0.983208954334259, 0.9835199117660522, 0.97947758436203]</t>
-  </si>
-  <si>
-    <t>[0.8283489942550659, 0.8876305222511292, 0.9058573842048645, 0.9131126999855042, 0.9191293716430664, 0.9239072799682617, 0.9355866312980652, 0.9302778244018555, 0.9247920513153076, 0.9424880743026733, 0.9458503127098083, 0.9442576766014099, 0.9456733465194702, 0.9575296640396118, 0.9557600617408752, 0.9529286623001099, 0.9575296640396118, 0.9594761729240417, 0.9628384113311768, 0.9686781167984009, 0.9685011506080627, 0.9635462760925293, 0.9720403552055359, 0.969916820526123, 0.9715094566345215, 0.9782339334487915, 0.9716864228248596, 0.9759334921836853, 0.9761103987693787, 0.9775261282920837, 0.9764643311500549, 0.9762873649597168, 0.9782339334487915]</t>
-  </si>
-  <si>
-    <t>[0.8474329710006714, 0.8937681913375854, 0.8992573618888855, 0.9137875437736511, 0.9157248735427856, 0.9242815375328064, 0.9275104999542236, 0.9329996705055237, 0.937035858631134, 0.9375202059745789, 0.9439780712127686, 0.9504358768463135, 0.9552792906761169, 0.9549564123153687, 0.9604455828666687, 0.9591540098190308, 0.9625443816184998, 0.9654504656791687, 0.962382972240448]</t>
-  </si>
-  <si>
-    <t>[0.8327181339263916, 0.8968120813369751, 0.8999999761581421, 0.9105704426765442, 0.9182885885238647, 0.9266778230667114, 0.9308724999427795, 0.9365772008895874, 0.9401006698608398, 0.9395973086357117, 0.9454697966575623, 0.9478188157081604, 0.9525167942047119, 0.9538590312004089, 0.956879198551178, 0.963087260723114, 0.9604026675224304, 0.9679530262947083, 0.9657717943191528, 0.9686241745948792, 0.9704697728157043, 0.9718120694160461, 0.9770134091377258, 0.9750000238418579, 0.9758388996124268, 0.9682886004447937, 0.9780201315879822, 0.979362428188324, 0.9808725118637085, 0.9802013635635376, 0.9810402393341064]</t>
-  </si>
-  <si>
-    <t>[0.8292198181152344, 0.8797416090965271, 0.892827570438385, 0.9045884013175964, 0.9070730209350586, 0.9108828902244568, 0.9226437211036682, 0.9267848134040833, 0.9291038513183594, 0.9360609650611877, 0.9393738508224487, 0.9426867365837097, 0.9445088505744934, 0.9509690403938293, 0.9557727575302124, 0.9519628882408142, 0.9566009640693665, 0.9569322466850281, 0.9652144908905029, 0.9580917954444885, 0.9655457735061646, 0.9600794911384583, 0.9690243601799011, 0.9705151319503784, 0.9705151319503784, 0.9705151319503784, 0.9759814739227295]</t>
-  </si>
-  <si>
-    <t>[0.8221621513366699, 0.8929729461669922, 0.9023423194885254, 0.9126126170158386, 0.9181982278823853, 0.9225225448608398, 0.930990993976593, 0.9367567300796509, 0.9410811066627502, 0.9464864730834961, 0.9455856084823608, 0.954954981803894, 0.954054057598114, 0.954954981803894, 0.9563964009284973, 0.9664865136146545, 0.9688288569450378, 0.9688288569450378, 0.9673873782157898, 0.9684684872627258, 0.9686486721038818, 0.9745945930480957, 0.9715315103530884, 0.976036012172699, 0.977657675743103]</t>
-  </si>
-  <si>
-    <t>[0.8163021206855774, 0.8820915818214417, 0.8928571343421936, 0.9037935733795166, 0.9140464663505554, 0.9234449863433838, 0.9196856021881104, 0.9287422895431519, 0.9284005761146545, 0.9362611174583435, 0.9376281499862671, 0.9448052048683167, 0.9477101564407349, 0.9466848969459534, 0.9514696002006531, 0.9565960168838501, 0.9646275043487549, 0.9595010280609131, 0.9608680605888367, 0.9651401042938232, 0.967361569404602, 0.9639439582824707, 0.9661654233932495, 0.973171591758728, 0.9716336131095886, 0.9688995480537415]</t>
-  </si>
-  <si>
-    <t>[0.8201249837875366, 0.8853995203971863, 0.9013482332229614, 0.9085826873779297, 0.9120355248451233, 0.920256495475769, 0.9217362999916077, 0.9289707541465759, 0.9302861094474792, 0.9353830814361572, 0.9380137920379639, 0.9417954683303833, 0.9491943717002869, 0.9467280507087708, 0.9343965649604797, 0.9498520493507385, 0.9577441811561584, 0.9590595364570618, 0.9587306976318359, 0.9651430249214172, 0.9634988307952881, 0.9661295413970947, 0.9690890908241272, 0.954784631729126, 0.9495232105255127, 0.9653074741363525]</t>
-  </si>
-  <si>
-    <t>[0.835645854473114, 0.8926329612731934, 0.901883065700531, 0.9184010624885559, 0.9162537455558777, 0.9155929684638977, 0.930789589881897, 0.93227618932724, 0.9433432221412659, 0.941030740737915, 0.9461513161659241, 0.9408655166625977, 0.9479683041572571, 0.9487941861152649, 0.9570531845092773, 0.9501156210899353, 0.9618434309959412, 0.965972900390625, 0.9674595594406128, 0.9583746194839478]</t>
-  </si>
-  <si>
-    <t>[0.8322800397872925, 0.8859180212020874, 0.9123318791389465, 0.9103872776031494, 0.9243234395980835, 0.9278885126113892, 0.9265921115875244, 0.9348565936088562, 0.9306433200836182, 0.9473342895507812, 0.9494409561157227, 0.9468481540679932, 0.9520336985588074, 0.9520336985588074, 0.9567331075668335, 0.9607843160629272, 0.957867443561554]</t>
-  </si>
-  <si>
-    <t>[0.8446158766746521, 0.8940491080284119, 0.9061712622642517, 0.9039672613143921, 0.9176637530326843, 0.9206548929214478, 0.9275818467140198, 0.9334068298339844, 0.9371851682662964, 0.941908061504364, 0.9414357542991638, 0.9537153840065002, 0.9480478763580322, 0.9518262147903442, 0.9543451070785522, 0.9620591998100281, 0.9641057848930359]</t>
-  </si>
-  <si>
-    <t>[0.9084645509719849, 0.9202755689620972, 0.9251968264579773, 0.9251968264579773, 0.9202755689620972, 0.9212598204612732, 0.9232283234596252, 0.9212598204612732, 0.9271653294563293, 0.9330708384513855, 0.9271653294563293, 0.9320865869522095, 0.9281495809555054, 0.9222440719604492, 0.9271653294563293, 0.9291338324546814, 0.9320865869522095, 0.9281495809555054, 0.9251968264579773, 0.9232283234596252, 0.9281495809555054, 0.9261810779571533, 0.9340550899505615, 0.9330708384513855, 0.9251968264579773, 0.9222440719604492, 0.9379921555519104, 0.9360235929489136, 0.9301180839538574, 0.9192913174629211, 0.9281495809555054, 0.9291338324546814, 0.9183070659637451, 0.9301180839538574, 0.9261810779571533, 0.9212598204612732, 0.9311023354530334, 0.9212598204612732, 0.9183070659637451, 0.9320865869522095, 0.9370078444480896, 0.9291338324546814]</t>
-  </si>
-  <si>
-    <t>[0.900130569934845, 0.9157963395118713, 0.9131853580474854, 0.9066579341888428, 0.917754590511322, 0.91253262758255, 0.87532639503479, 0.9171018004417419, 0.9007833003997803, 0.8942558765411377, 0.8903394341468811, 0.9112271666526794, 0.9171018004417419, 0.9099216461181641, 0.9007833003997803, 0.8962141275405884, 0.8838120102882385, 0.9210183024406433, 0.9014360308647156, 0.9027414917945862, 0.9171018004417419, 0.9171018004417419, 0.8812010288238525, 0.91253262758255, 0.9079634547233582, 0.8798955678939819, 0.8909921646118164, 0.9105744361877441, 0.8890339136123657, 0.9040470123291016, 0.8968668580055237, 0.8838120102882385, 0.8844647407531738]</t>
-  </si>
-  <si>
-    <t>[0.895901620388031, 0.9163934588432312, 0.908196747303009, 0.9237704873085022, 0.9196721315383911, 0.9139344096183777, 0.9106557369232178, 0.9122951030731201, 0.8852459192276001, 0.9147540926933289, 0.9188524484634399, 0.9196721315383911, 0.9049180150032043, 0.9204918146133423, 0.8999999761581421, 0.9090163707733154, 0.91557377576828, 0.9057376980781555, 0.9040983319282532]</t>
-  </si>
-  <si>
-    <t>[0.8910969495773315, 0.9157392978668213, 0.9189189076423645, 0.9038155674934387, 0.9157392978668213, 0.9125596284866333, 0.9197138547897339, 0.9157392978668213, 0.9141494631767273, 0.9236884117126465, 0.9244832992553711, 0.8998410105705261, 0.9157392978668213, 0.9141494631767273, 0.9213036298751831, 0.9308425784111023, 0.9101749062538147, 0.9165341854095459, 0.9189189076423645, 0.9260731339454651, 0.9292528033256531, 0.9268680214881897, 0.9181240200996399, 0.9205087423324585, 0.9181240200996399, 0.9228934645652771, 0.9101749062538147, 0.9085850715637207, 0.9077901244163513, 0.9125596284866333, 0.9109697937965393]</t>
-  </si>
-  <si>
-    <t>[0.9100968241691589, 0.9163208603858948, 0.9273858666419983, 0.932226836681366, 0.9405255913734436, 0.9336099624633789, 0.9349930882453918, 0.9370677471160889, 0.9363762140274048, 0.9225449562072754, 0.9294605851173401, 0.9426002502441406, 0.9405255913734436, 0.9377593398094177, 0.93291836977005, 0.9280774593353271, 0.9412171244621277, 0.9301521182060242, 0.9336099624633789, 0.9391424655914307, 0.9391424655914307, 0.9419087171554565, 0.9405255913734436, 0.9384508728981018, 0.9363762140274048, 0.9398339986801147, 0.9419087171554565]</t>
-  </si>
-  <si>
-    <t>[0.881232500076294, 0.8655462265014648, 0.8817927241325378, 0.8722689151763916, 0.881232500076294, 0.8823529481887817, 0.8873949646949768, 0.8829131722450256, 0.886274516582489, 0.8896358609199524, 0.8750700354576111, 0.886274516582489, 0.8873949646949768, 0.8801120519638062, 0.8694677948951721, 0.8784313797950745, 0.8705882430076599, 0.8845938444137573, 0.8745098114013672, 0.8655462265014648, 0.8778711557388306, 0.8677871227264404, 0.8834733963012695, 0.88067227602005, 0.8722689151763916]</t>
-  </si>
-  <si>
-    <t>[0.9028213024139404, 0.9178683161735535, 0.9109717607498169, 0.9159874320030212, 0.899059534072876, 0.9153605103492737, 0.9141066074371338, 0.9128526449203491, 0.8965517282485962, 0.9153605103492737, 0.9184952974319458, 0.9109717607498169, 0.9153605103492737, 0.9178683161735535, 0.9078369736671448, 0.9109717607498169, 0.9072100520133972, 0.9153605103492737, 0.9034482836723328, 0.9040752053260803, 0.9184952974319458, 0.9065830707550049, 0.9109717607498169, 0.882758617401123, 0.9090909361839294, 0.9141066074371338]</t>
-  </si>
-  <si>
-    <t>[0.8751248717308044, 0.8581418395042419, 0.8621378540992737, 0.8681318759918213, 0.8861138820648193, 0.8301698565483093, 0.8771228790283203, 0.8491508364677429, 0.863136887550354, 0.8741258978843689, 0.8901098966598511, 0.8781218528747559, 0.8641358613967896, 0.8461538553237915, 0.8661338686943054, 0.8761239051818848, 0.8751248717308044, 0.8561438322067261, 0.8901098966598511, 0.8421578407287598, 0.8511488437652588, 0.8731268644332886, 0.8491508364677429, 0.8491508364677429, 0.8621378540992737, 0.8621378540992737]</t>
-  </si>
-  <si>
-    <t>[0.8974789977073669, 0.8957983255386353, 0.9134453535079956, 0.9184873700141907, 0.9210084080696106, 0.916806697845459, 0.9092437028884888, 0.9142857193946838, 0.9159663915634155, 0.9042016863822937, 0.9033613204956055, 0.8957983255386353, 0.9067226648330688, 0.9100840091705322, 0.9184873700141907, 0.889915943145752, 0.9058823585510254, 0.9050419926643372, 0.9100840091705322, 0.9084033370018005]</t>
-  </si>
-  <si>
-    <t>[0.8717488646507263, 0.8950672745704651, 0.8753363490104675, 0.8825111985206604, 0.8780269026756287, 0.8717488646507263, 0.8717488646507263, 0.8735426068305969, 0.8878923654556274, 0.8726457357406616, 0.8726457357406616, 0.8878923654556274, 0.878923773765564, 0.8798206448554993, 0.8681614398956299, 0.8771300315856934, 0.878923773765564]</t>
-  </si>
-  <si>
-    <t>[0.9028716087341309, 0.9070945978164673, 0.900337815284729, 0.8766891956329346, 0.8927364945411682, 0.8902027010917664, 0.8682432174682617, 0.8834459185600281, 0.869087815284729, 0.8657094836235046, 0.869087815284729, 0.8479729890823364, 0.8513513803482056, 0.8699324131011963, 0.8826013803482056, 0.8783783912658691, 0.8665540814399719]</t>
-  </si>
-  <si>
-    <t>[[243   0  17]
- [ 17  82   4]
- [ 26   1 184]]</t>
-  </si>
-  <si>
-    <t>[[508   3  45]
- [  6  56   3]
- [ 36   3 179]]</t>
-  </si>
-  <si>
-    <t>[[294   1   6]
- [  2  18   0]
- [ 98  10 179]]</t>
-  </si>
-  <si>
-    <t>[[393   4  33]
- [  6  95  10]
- [ 52   1 210]]</t>
-  </si>
-  <si>
-    <t>[[304   7  22]
- [  2  46   4]
- [  9   0 145]]</t>
-  </si>
-  <si>
-    <t>[[364   0  13]
- [ 11  69   1]
- [ 12   4 213]]</t>
-  </si>
-  <si>
-    <t>[[300   2  17]
- [  2  15   2]
- [  9   1 227]]</t>
-  </si>
-  <si>
-    <t>[[640   1  14]
- [  9  61   7]
- [ 47   0 160]]</t>
-  </si>
-  <si>
-    <t>[[579   3   5]
- [ 10   5   1]
- [ 49   0 126]]</t>
-  </si>
-  <si>
-    <t>[[361   1  20]
- [  7 101   4]
- [ 47   0 195]]</t>
-  </si>
-  <si>
-    <t>[[266   1  21]
- [ 16  46   0]
- [ 11   0 125]]</t>
+    <t>0_12</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>1_7</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>1_9</t>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_11</t>
+  </si>
+  <si>
+    <t>1_12</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>2_8</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>2_10</t>
+  </si>
+  <si>
+    <t>2_11</t>
+  </si>
+  <si>
+    <t>2_12</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>3_10</t>
+  </si>
+  <si>
+    <t>3_11</t>
+  </si>
+  <si>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>4_7</t>
+  </si>
+  <si>
+    <t>4_8</t>
+  </si>
+  <si>
+    <t>4_9</t>
+  </si>
+  <si>
+    <t>4_10</t>
+  </si>
+  <si>
+    <t>4_11</t>
+  </si>
+  <si>
+    <t>4_12</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>5_6</t>
+  </si>
+  <si>
+    <t>5_7</t>
+  </si>
+  <si>
+    <t>5_8</t>
+  </si>
+  <si>
+    <t>5_9</t>
+  </si>
+  <si>
+    <t>5_10</t>
+  </si>
+  <si>
+    <t>5_11</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>6_7</t>
+  </si>
+  <si>
+    <t>6_8</t>
+  </si>
+  <si>
+    <t>6_9</t>
+  </si>
+  <si>
+    <t>6_10</t>
+  </si>
+  <si>
+    <t>6_11</t>
+  </si>
+  <si>
+    <t>6_12</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>7_7</t>
+  </si>
+  <si>
+    <t>7_8</t>
+  </si>
+  <si>
+    <t>7_9</t>
+  </si>
+  <si>
+    <t>7_10</t>
+  </si>
+  <si>
+    <t>7_11</t>
+  </si>
+  <si>
+    <t>7_12</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>8_6</t>
+  </si>
+  <si>
+    <t>8_7</t>
+  </si>
+  <si>
+    <t>8_8</t>
+  </si>
+  <si>
+    <t>8_9</t>
+  </si>
+  <si>
+    <t>8_10</t>
+  </si>
+  <si>
+    <t>8_11</t>
+  </si>
+  <si>
+    <t>8_12</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>9_5</t>
+  </si>
+  <si>
+    <t>9_6</t>
+  </si>
+  <si>
+    <t>9_7</t>
+  </si>
+  <si>
+    <t>9_8</t>
+  </si>
+  <si>
+    <t>9_9</t>
+  </si>
+  <si>
+    <t>9_10</t>
+  </si>
+  <si>
+    <t>9_11</t>
+  </si>
+  <si>
+    <t>9_12</t>
+  </si>
+  <si>
+    <t>[333. 332. 323.]</t>
+  </si>
+  <si>
+    <t>[317. 314. 340.]</t>
+  </si>
+  <si>
+    <t>[330. 308. 326.]</t>
+  </si>
+  <si>
+    <t>[310. 306. 344.]</t>
+  </si>
+  <si>
+    <t>[301. 304. 322.]</t>
+  </si>
+  <si>
+    <t>[327. 300. 328.]</t>
+  </si>
+  <si>
+    <t>[305. 313. 331.]</t>
+  </si>
+  <si>
+    <t>[307. 324. 302.]</t>
+  </si>
+  <si>
+    <t>[312. 342. 319.]</t>
+  </si>
+  <si>
+    <t>[335. 309. 315.]</t>
+  </si>
+  <si>
+    <t>[346. 318. 321.]</t>
+  </si>
+  <si>
+    <t>[329. 320. 348.]</t>
+  </si>
+  <si>
+    <t>[321. 326. 332.]</t>
+  </si>
+  <si>
+    <t>[323. 327. 312.]</t>
+  </si>
+  <si>
+    <t>[300. 329. 324.]</t>
+  </si>
+  <si>
+    <t>[328. 306. 322.]</t>
+  </si>
+  <si>
+    <t>[317. 308. 307.]</t>
+  </si>
+  <si>
+    <t>[319. 330. 313.]</t>
+  </si>
+  <si>
+    <t>[320. 335. 315.]</t>
+  </si>
+  <si>
+    <t>[342. 304. 333.]</t>
+  </si>
+  <si>
+    <t>[331. 301. 318.]</t>
+  </si>
+  <si>
+    <t>[305. 344. 310.]</t>
+  </si>
+  <si>
+    <t>[302. 346. 309.]</t>
+  </si>
+  <si>
+    <t>[348. 340. 314.]</t>
+  </si>
+  <si>
+    <t>[344. 324. 301.]</t>
+  </si>
+  <si>
+    <t>[323. 326. 335.]</t>
+  </si>
+  <si>
+    <t>[318. 340. 308.]</t>
+  </si>
+  <si>
+    <t>[317. 302. 300.]</t>
+  </si>
+  <si>
+    <t>[331. 312. 309.]</t>
+  </si>
+  <si>
+    <t>[332. 329. 314.]</t>
+  </si>
+  <si>
+    <t>[310. 304. 315.]</t>
+  </si>
+  <si>
+    <t>[333. 322. 321.]</t>
+  </si>
+  <si>
+    <t>[346. 348. 342.]</t>
+  </si>
+  <si>
+    <t>[328. 320. 327.]</t>
+  </si>
+  <si>
+    <t>[307. 313. 319.]</t>
+  </si>
+  <si>
+    <t>[306. 330. 305.]</t>
+  </si>
+  <si>
+    <t>[329. 317. 344.]</t>
+  </si>
+  <si>
+    <t>[340. 314. 310.]</t>
+  </si>
+  <si>
+    <t>[300. 326. 321.]</t>
+  </si>
+  <si>
+    <t>[301. 335. 312.]</t>
+  </si>
+  <si>
+    <t>[330. 318. 327.]</t>
+  </si>
+  <si>
+    <t>[323. 315. 346.]</t>
+  </si>
+  <si>
+    <t>[307. 342. 302.]</t>
+  </si>
+  <si>
+    <t>[309. 332. 306.]</t>
+  </si>
+  <si>
+    <t>[331. 313. 319.]</t>
+  </si>
+  <si>
+    <t>[328. 320. 333.]</t>
+  </si>
+  <si>
+    <t>[305. 324. 304.]</t>
+  </si>
+  <si>
+    <t>[322. 308. 348.]</t>
+  </si>
+  <si>
+    <t>[319. 320. 323.]</t>
+  </si>
+  <si>
+    <t>[342. 346. 302.]</t>
+  </si>
+  <si>
+    <t>[327. 308. 317.]</t>
+  </si>
+  <si>
+    <t>[333. 328. 310.]</t>
+  </si>
+  <si>
+    <t>[307. 300. 331.]</t>
+  </si>
+  <si>
+    <t>[313. 309. 344.]</t>
+  </si>
+  <si>
+    <t>[312. 340. 329.]</t>
+  </si>
+  <si>
+    <t>[318. 332. 304.]</t>
+  </si>
+  <si>
+    <t>[305. 324. 315.]</t>
+  </si>
+  <si>
+    <t>[330. 306. 348.]</t>
+  </si>
+  <si>
+    <t>[314. 301. 335.]</t>
+  </si>
+  <si>
+    <t>[321. 322. 326.]</t>
+  </si>
+  <si>
+    <t>[317. 320. 314.]</t>
+  </si>
+  <si>
+    <t>[333. 313. 307.]</t>
+  </si>
+  <si>
+    <t>[310. 300. 330.]</t>
+  </si>
+  <si>
+    <t>[328. 312. 323.]</t>
+  </si>
+  <si>
+    <t>[322. 340. 302.]</t>
+  </si>
+  <si>
+    <t>[335. 327. 319.]</t>
+  </si>
+  <si>
+    <t>[315. 329. 331.]</t>
+  </si>
+  <si>
+    <t>[346. 344. 342.]</t>
+  </si>
+  <si>
+    <t>[306. 301. 348.]</t>
+  </si>
+  <si>
+    <t>[309. 321. 318.]</t>
+  </si>
+  <si>
+    <t>[326. 324. 305.]</t>
+  </si>
+  <si>
+    <t>[304. 308. 332.]</t>
+  </si>
+  <si>
+    <t>[300. 320. 308.]</t>
+  </si>
+  <si>
+    <t>[310. 301. 332.]</t>
+  </si>
+  <si>
+    <t>[317. 326. 313.]</t>
+  </si>
+  <si>
+    <t>[344. 314. 321.]</t>
+  </si>
+  <si>
+    <t>[331. 329. 323.]</t>
+  </si>
+  <si>
+    <t>[348. 335. 315.]</t>
+  </si>
+  <si>
+    <t>[319. 340. 307.]</t>
+  </si>
+  <si>
+    <t>[324. 342. 302.]</t>
+  </si>
+  <si>
+    <t>[304. 346. 305.]</t>
+  </si>
+  <si>
+    <t>[312. 330. 318.]</t>
+  </si>
+  <si>
+    <t>[306. 322. 327.]</t>
+  </si>
+  <si>
+    <t>[328. 309. 333.]</t>
+  </si>
+  <si>
+    <t>[305. 320. 346.]</t>
+  </si>
+  <si>
+    <t>[332. 335. 344.]</t>
+  </si>
+  <si>
+    <t>[317. 326. 329.]</t>
+  </si>
+  <si>
+    <t>[307. 312. 322.]</t>
+  </si>
+  <si>
+    <t>[314. 300. 342.]</t>
+  </si>
+  <si>
+    <t>[319. 309. 324.]</t>
+  </si>
+  <si>
+    <t>[340. 328. 323.]</t>
+  </si>
+  <si>
+    <t>[321. 306. 315.]</t>
+  </si>
+  <si>
+    <t>[348. 330. 308.]</t>
+  </si>
+  <si>
+    <t>[302. 310. 331.]</t>
+  </si>
+  <si>
+    <t>[333. 327. 301.]</t>
+  </si>
+  <si>
+    <t>[318. 313. 304.]</t>
+  </si>
+  <si>
+    <t>[315. 340. 304.]</t>
+  </si>
+  <si>
+    <t>[323. 330. 329.]</t>
+  </si>
+  <si>
+    <t>[300. 326. 302.]</t>
+  </si>
+  <si>
+    <t>[319. 320. 312.]</t>
+  </si>
+  <si>
+    <t>[307. 306. 332.]</t>
+  </si>
+  <si>
+    <t>[335. 333. 317.]</t>
+  </si>
+  <si>
+    <t>[308. 313. 321.]</t>
+  </si>
+  <si>
+    <t>[310. 342. 331.]</t>
+  </si>
+  <si>
+    <t>[348. 346. 344.]</t>
+  </si>
+  <si>
+    <t>[301. 328. 327.]</t>
+  </si>
+  <si>
+    <t>[309. 305. 314.]</t>
+  </si>
+  <si>
+    <t>[318. 322. 324.]</t>
+  </si>
+  <si>
+    <t>[348. 330. 326.]</t>
+  </si>
+  <si>
+    <t>[335. 308. 324.]</t>
+  </si>
+  <si>
+    <t>[307. 301. 344.]</t>
+  </si>
+  <si>
+    <t>[322. 318. 321.]</t>
+  </si>
+  <si>
+    <t>[329. 300. 302.]</t>
+  </si>
+  <si>
+    <t>[327. 332. 317.]</t>
+  </si>
+  <si>
+    <t>[313. 320. 314.]</t>
+  </si>
+  <si>
+    <t>[346. 315. 310.]</t>
+  </si>
+  <si>
+    <t>[328. 312. 304.]</t>
+  </si>
+  <si>
+    <t>[333. 306. 331.]</t>
+  </si>
+  <si>
+    <t>[340. 319. 305.]</t>
+  </si>
+  <si>
+    <t>[309. 323. 342.]</t>
+  </si>
+  <si>
+    <t>[322. 330. 310. 319. 346. 342.]</t>
+  </si>
+  <si>
+    <t>[309. 331. 335. 328. 319. 342.]</t>
+  </si>
+  <si>
+    <t>[322. 310. 332. 319. 344. 335.]</t>
+  </si>
+  <si>
+    <t>[327. 342. 326. 346. 308. 323.]</t>
+  </si>
+  <si>
+    <t>[348. 313. 327. 315. 309. 320.]</t>
+  </si>
+  <si>
+    <t>[319. 304. 320. 332. 301. 330.]</t>
+  </si>
+  <si>
+    <t>[342. 309. 318. 314. 326. 329.]</t>
+  </si>
+  <si>
+    <t>[327. 342. 322. 300. 323. 340.]</t>
+  </si>
+  <si>
+    <t>[310. 306. 301. 313. 307. 314.]</t>
+  </si>
+  <si>
+    <t>[305. 342. 301. 327. 300. 318.]</t>
+  </si>
+  <si>
+    <t>[323. 319. 330. 312. 344. 317.]</t>
+  </si>
+  <si>
+    <t>[321. 326. 304. 332. 322. 324.]</t>
+  </si>
+  <si>
+    <t>[323. 346. 312. 328. 331. 329.]</t>
+  </si>
+  <si>
+    <t>[332. 302. 331. 330. 315. 342.]</t>
+  </si>
+  <si>
+    <t>[331. 306. 304. 340. 335. 342.]</t>
+  </si>
+  <si>
+    <t>[330. 332. 326. 302. 331. 318.]</t>
+  </si>
+  <si>
+    <t>[322. 310. 344. 346. 313. 329.]</t>
+  </si>
+  <si>
+    <t>[304. 328. 317. 318. 332. 329.]</t>
+  </si>
+  <si>
+    <t>[348. 301. 333. 331. 307. 323.]</t>
+  </si>
+  <si>
+    <t>[320. 307. 340. 312. 322. 327.]</t>
+  </si>
+  <si>
+    <t>[312. 309. 305. 327. 335. 317.]</t>
+  </si>
+  <si>
+    <t>[323. 300. 308. 302. 342. 306.]</t>
+  </si>
+  <si>
+    <t>[310. 307. 317. 314. 318. 324.]</t>
+  </si>
+  <si>
+    <t>[331. 324. 342. 300. 307. 328.]</t>
+  </si>
+  <si>
+    <t>[306. 322. 332. 342. 321. 302.]</t>
+  </si>
+  <si>
+    <t>[324. 313. 332. 320. 308. 333.]</t>
+  </si>
+  <si>
+    <t>[320. 305. 342. 332. 315. 323.]</t>
+  </si>
+  <si>
+    <t>[326. 304. 340. 327. 329. 307.]</t>
+  </si>
+  <si>
+    <t>[328. 324. 318. 342. 313. 319.]</t>
+  </si>
+  <si>
+    <t>[300. 315. 319. 327. 313. 342.]</t>
+  </si>
+  <si>
+    <t>[344. 331. 300. 332. 340. 324.]</t>
+  </si>
+  <si>
+    <t>[323. 302. 315. 326. 306. 329.]</t>
+  </si>
+  <si>
+    <t>[328. 312. 306. 319. 344. 340.]</t>
+  </si>
+  <si>
+    <t>[322. 307. 314. 317. 346. 312.]</t>
+  </si>
+  <si>
+    <t>[301. 321. 342. 329. 320. 323.]</t>
+  </si>
+  <si>
+    <t>[328. 324. 344. 332. 307. 333.]</t>
+  </si>
+  <si>
+    <t>[331. 332. 312. 320. 326. 305.]</t>
+  </si>
+  <si>
+    <t>[309. 344. 326. 318. 332. 304.]</t>
+  </si>
+  <si>
+    <t>[302. 309. 329. 313. 308. 301.]</t>
+  </si>
+  <si>
+    <t>[309. 327. 300. 318. 326. 330.]</t>
+  </si>
+  <si>
+    <t>[335. 307. 333. 319. 310. 306.]</t>
+  </si>
+  <si>
+    <t>[324. 317. 309. 328. 332. 308.]</t>
+  </si>
+  <si>
+    <t>[315. 328. 321. 317. 332. 304.]</t>
+  </si>
+  <si>
+    <t>[346. 335. 333. 302. 322. 327.]</t>
+  </si>
+  <si>
+    <t>[312. 328. 342. 314. 321. 315.]</t>
+  </si>
+  <si>
+    <t>[342. 314. 323. 308. 309. 317.]</t>
+  </si>
+  <si>
+    <t>[346. 308. 348. 331. 344. 312.]</t>
+  </si>
+  <si>
+    <t>[323. 304. 317. 312. 305. 309.]</t>
+  </si>
+  <si>
+    <t>[335. 344. 301. 312. 324. 321.]</t>
+  </si>
+  <si>
+    <t>[348. 305. 309. 324. 313. 320.]</t>
+  </si>
+  <si>
+    <t>[318. 304. 310. 314. 346. 332.]</t>
+  </si>
+  <si>
+    <t>[315. 321. 304. 313. 312. 331.]</t>
+  </si>
+  <si>
+    <t>[329. 348. 321. 317. 304. 310.]</t>
+  </si>
+  <si>
+    <t>[318. 310. 330. 327. 335. 331.]</t>
+  </si>
+  <si>
+    <t>[306. 315. 304. 342. 324. 308.]</t>
+  </si>
+  <si>
+    <t>[329. 315. 310. 344. 301. 309.]</t>
+  </si>
+  <si>
+    <t>[322. 332. 308. 314. 300. 317.]</t>
+  </si>
+  <si>
+    <t>[342. 328. 329. 300. 327. 313.]</t>
+  </si>
+  <si>
+    <t>[329. 309. 332. 327. 319. 331.]</t>
+  </si>
+  <si>
+    <t>[310. 331. 307. 344. 319. 348.]</t>
+  </si>
+  <si>
+    <t>[301. 309. 321. 333. 302. 324.]</t>
+  </si>
+  <si>
+    <t>[321. 326. 330. 317. 312. 314.]</t>
+  </si>
+  <si>
+    <t>[340. 318. 348. 327. 324. 312.]</t>
+  </si>
+  <si>
+    <t>[315. 302. 319. 320. 333. 322.]</t>
+  </si>
+  <si>
+    <t>[320. 328. 331. 332. 329. 301.]</t>
+  </si>
+  <si>
+    <t>[323. 317. 305. 320. 322. 342.]</t>
+  </si>
+  <si>
+    <t>[342. 319. 346. 320. 335. 301.]</t>
+  </si>
+  <si>
+    <t>[331. 305. 315. 317. 348. 322.]</t>
+  </si>
+  <si>
+    <t>[307. 321. 335. 329. 319. 309.]</t>
+  </si>
+  <si>
+    <t>[305. 301. 317. 326. 332. 346.]</t>
+  </si>
+  <si>
+    <t>[300. 317. 332. 335. 309. 333.]</t>
+  </si>
+  <si>
+    <t>[305. 327. 320. 333. 309. 321.]</t>
+  </si>
+  <si>
+    <t>[344. 340. 348. 312. 332. 319.]</t>
+  </si>
+  <si>
+    <t>[312. 328. 331. 308. 318. 300.]</t>
+  </si>
+  <si>
+    <t>[307. 327. 331. 305. 324. 315.]</t>
+  </si>
+  <si>
+    <t>[319. 308. 326. 302. 320. 312.]</t>
+  </si>
+  <si>
+    <t>[344. 320. 314. 306. 317. 304.]</t>
+  </si>
+  <si>
+    <t>[310. 309. 333. 324. 330. 304.]</t>
+  </si>
+  <si>
+    <t>[346. 332. 333. 329. 304. 315.]</t>
+  </si>
+  <si>
+    <t>[313. 310. 307. 333. 305. 312.]</t>
+  </si>
+  <si>
+    <t>[324. 314. 315. 302. 335. 307.]</t>
+  </si>
+  <si>
+    <t>[328. 324. 322. 320. 317. 346.]</t>
+  </si>
+  <si>
+    <t>[344. 314. 320. 323. 312. 346.]</t>
+  </si>
+  <si>
+    <t>[326. 301. 344. 307. 324. 319.]</t>
+  </si>
+  <si>
+    <t>[329. 309. 327. 324. 322. 323.]</t>
+  </si>
+  <si>
+    <t>[323. 319. 304. 340. 314. 330.]</t>
+  </si>
+  <si>
+    <t>[305. 344. 307. 301. 314. 340.]</t>
+  </si>
+  <si>
+    <t>[340. 346. 300. 330. 328. 324.]</t>
+  </si>
+  <si>
+    <t>[312. 318. 313. 346. 324. 344.]</t>
+  </si>
+  <si>
+    <t>[346. 323. 348. 300. 320. 315.]</t>
+  </si>
+  <si>
+    <t>[327. 344. 321. 302. 312. 342.]</t>
+  </si>
+  <si>
+    <t>[300. 318. 308. 348. 322. 328.]</t>
+  </si>
+  <si>
+    <t>[321. 318. 319. 305. 323. 344.]</t>
+  </si>
+  <si>
+    <t>[324. 304. 332. 327. 340. 307.]</t>
+  </si>
+  <si>
+    <t>[331. 300. 335. 328. 314. 312.]</t>
+  </si>
+  <si>
+    <t>[301. 335. 309. 317. 344. 312.]</t>
+  </si>
+  <si>
+    <t>[330. 309. 327. 332. 306. 317.]</t>
+  </si>
+  <si>
+    <t>[335. 319. 309. 304. 331. 346.]</t>
+  </si>
+  <si>
+    <t>[305. 315. 331. 320. 304. 313.]</t>
+  </si>
+  <si>
+    <t>[329. 301. 330. 346. 324. 321.]</t>
+  </si>
+  <si>
+    <t>[329. 313. 317. 323. 335. 327.]</t>
+  </si>
+  <si>
+    <t>[330. 312. 340. 302. 319. 321.]</t>
+  </si>
+  <si>
+    <t>[326. 335. 304. 307. 328. 306.]</t>
+  </si>
+  <si>
+    <t>[348. 309. 323. 320. 346. 308.]</t>
+  </si>
+  <si>
+    <t>[301. 304. 310. 329. 317. 312.]</t>
+  </si>
+  <si>
+    <t>[331. 340. 307. 320. 348. 310.]</t>
+  </si>
+  <si>
+    <t>[324. 331. 348. 321. 344. 327.]</t>
+  </si>
+  <si>
+    <t>[307. 314. 346. 331. 300. 308.]</t>
+  </si>
+  <si>
+    <t>[340. 332. 300. 309. 335. 315.]</t>
+  </si>
+  <si>
+    <t>[310. 320. 346. 323. 340. 314.]</t>
+  </si>
+  <si>
+    <t>[304. 308. 317. 332. 340. 328.]</t>
+  </si>
+  <si>
+    <t>[312. 301. 342. 305. 346. 304.]</t>
+  </si>
+  <si>
+    <t>[326. 307. 335. 342. 304. 328.]</t>
+  </si>
+  <si>
+    <t>[328. 335. 342. 348. 313. 319.]</t>
+  </si>
+  <si>
+    <t>[300. 326. 324. 301. 312. 305.]</t>
+  </si>
+  <si>
+    <t>[340. 321. 329. 301. 324. 348.]</t>
+  </si>
+  <si>
+    <t>[323. 315. 308. 324. 313. 320.]</t>
+  </si>
+  <si>
+    <t>[348. 315. 313. 346. 301. 342.]</t>
+  </si>
+  <si>
+    <t>[327. 300. 333. 315. 329. 310.]</t>
+  </si>
+  <si>
+    <t>[340. 324. 346. 308. 333. 302.]</t>
+  </si>
+  <si>
+    <t>[0.8284234404563904, 0.8858854174613953, 0.8931692838668823, 0.9053091406822205, 0.9109744429588318, 0.9145354628562927, 0.9223049283027649, 0.9185820817947388, 0.9289414286613464, 0.9341210722923279, 0.9342829585075378, 0.9409193992614746, 0.9438329339027405, 0.9483651518821716, 0.9438329339027405, 0.9443185329437256, 0.9405956864356995, 0.9558109641075134, 0.9611524939537048, 0.9401100873947144, 0.9571058750152588, 0.9661703109741211, 0.9642279148101807, 0.9653609395027161, 0.9679508209228516, 0.9682745337486267, 0.9724829792976379, 0.9742634892463684]</t>
+  </si>
+  <si>
+    <t>[0.8422502279281616, 0.8983616232872009, 0.912425696849823, 0.909670889377594, 0.9186602830886841, 0.9289546012878418, 0.9286646246910095, 0.9299695491790771, 0.936639130115509, 0.9372190833091736, 0.9438886642456055, 0.9534580111503601, 0.9491083025932312, 0.957372784614563, 0.9567928314208984, 0.9566478133201599, 0.9614325165748596, 0.9630274176597595, 0.9670871496200562, 0.96563720703125, 0.9644773006439209, 0.9739016890525818, 0.9752066135406494, 0.9747716188430786, 0.9727417826652527, 0.9714368581771851, 0.9727417826652527]</t>
+  </si>
+  <si>
+    <t>[0.83099764585495, 0.8785452246665955, 0.8825492262840271, 0.8978978991508484, 0.9079079031944275, 0.9099099040031433, 0.9219219088554382, 0.9222555756568909, 0.9339339137077332, 0.9351017475128174, 0.9312645792961121, 0.9434434175491333, 0.9462795853614807, 0.9516183137893677, 0.9414414167404175, 0.9509509801864624, 0.9579579830169678, 0.9552886486053467, 0.9629629850387573, 0.9719719886779785, 0.9626293182373047, 0.9621288180351257, 0.9657991528511047, 0.9703036546707153, 0.9647981524467468, 0.9679679870605469, 0.9781448245048523]</t>
+  </si>
+  <si>
+    <t>[0.8300228118896484, 0.894334077835083, 0.9008466005325317, 0.9096385836601257, 0.9179420471191406, 0.9268967509269714, 0.9290133714675903, 0.9352002739906311, 0.9399218559265137, 0.9386193156242371, 0.943178117275238, 0.9472484588623047, 0.955389142036438, 0.9514815807342529, 0.9571800827980042, 0.9619016647338867]</t>
+  </si>
+  <si>
+    <t>[0.8370441794395447, 0.9007744193077087, 0.9131978154182434, 0.9183607697486877, 0.9323975443840027, 0.9369151592254639, 0.9388512372970581, 0.9407873749732971, 0.9491771459579468, 0.953210711479187, 0.952888011932373, 0.954985499382019, 0.954985499382019, 0.9548241496086121, 0.9640206694602966, 0.9636979699134827, 0.9698289632797241, 0.9717651009559631, 0.9716037511825562, 0.9716037511825562, 0.9720877408981323, 0.9757986664772034, 0.9772507548332214]</t>
+  </si>
+  <si>
+    <t>[0.8432823419570923, 0.8919585347175598, 0.9034698009490967, 0.9074165225028992, 0.9154744148254395, 0.9256701469421387, 0.9266567826271057, 0.9266567826271057, 0.9312613010406494, 0.9380035996437073, 0.9391547441482544, 0.9380035996437073, 0.9353724718093872, 0.9444170594215393, 0.9503371119499207, 0.9503371119499207, 0.9544482827186584, 0.9536260366439819, 0.954777181148529, 0.9475415349006653, 0.9483637809753418, 0.9575727581977844, 0.9585594534873962, 0.9661239981651306, 0.9653017520904541, 0.9577372074127197, 0.9592172503471375, 0.9613550305366516, 0.9672751426696777, 0.9661239981651306, 0.9653017520904541, 0.9695773720741272, 0.9661239981651306, 0.9608616828918457, 0.9697418212890625, 0.9618483781814575, 0.9639861583709717, 0.9628350734710693, 0.973688542842865, 0.9751685857772827, 0.9786219596862793]</t>
+  </si>
+  <si>
+    <t>[0.8383623957633972, 0.884609580039978, 0.9003790616989136, 0.9123578667640686, 0.9138741493225098, 0.925398051738739, 0.9294920563697815, 0.9370735287666321, 0.9351023435592651, 0.9361637830734253, 0.9293404221534729, 0.940561056137085, 0.9445034265518188, 0.951023519039154, 0.9516299962997437, 0.9552691578865051, 0.9525398015975952, 0.9596664309501648, 0.9602729082107544, 0.9595147967338562, 0.9566338062286377, 0.9633055329322815, 0.9731614589691162, 0.9675511717796326, 0.9631538987159729, 0.9684609770774841, 0.9752842783927917, 0.9725549817085266]</t>
+  </si>
+  <si>
+    <t>[0.8189517259597778, 0.8891019225120544, 0.908437192440033, 0.9098753333091736, 0.9154682159423828, 0.9226589798927307, 0.9255353212356567, 0.9325663447380066, 0.9368807673454285, 0.9359220266342163, 0.9423138499259949, 0.9519015550613403, 0.953339695930481, 0.9570150375366211, 0.9506232142448425, 0.9527005553245544, 0.9573346376419067]</t>
+  </si>
+  <si>
+    <t>[0.8407360315322876, 0.8902284502983093, 0.898159921169281, 0.9091053009033203, 0.9200507402420044, 0.9198921322822571, 0.9230647087097168, 0.9290926456451416, 0.9311548471450806, 0.9414657354354858, 0.9384517669677734, 0.9474936723709106, 0.9490799307823181, 0.9535215497016907, 0.9554251432418823, 0.955742359161377, 0.9595494866371155, 0.9625634551048279, 0.9663705825805664, 0.9630393385887146, 0.9676395654678345, 0.9697017669677734, 0.9739847779273987]</t>
+  </si>
+  <si>
+    <t>[0.830754816532135, 0.892795741558075, 0.9002969264984131, 0.9106110334396362, 0.9192061424255371, 0.9257696270942688, 0.9315518140792847, 0.9324894547462463, 0.9379590749740601, 0.9360837340354919, 0.9463979005813599, 0.9482731819152832, 0.9510861039161682, 0.9570245146751404, 0.959524929523468, 0.9609314203262329, 0.9599937200546265, 0.9656196236610413, 0.9646819829940796, 0.9643694162368774]</t>
+  </si>
+  <si>
+    <t>[0.8233243823051453, 0.8800507187843323, 0.8989066481590271, 0.9138013124465942, 0.9164950251579285, 0.917287290096283, 0.9256852865219116, 0.9313896298408508, 0.9307557940483093, 0.9421644806861877, 0.940421462059021, 0.941689133644104, 0.943273663520813, 0.9500871300697327, 0.9554745554924011, 0.9572175741195679, 0.9572175741195679, 0.9586436152458191, 0.9624465107917786, 0.9602281451225281, 0.966249406337738]</t>
+  </si>
+  <si>
+    <t>[0.8377971053123474, 0.8898560404777527, 0.901908278465271, 0.9091061353683472, 0.9139605164527893, 0.9236692190170288, 0.9280214309692383, 0.9365584254264832, 0.9415801763534546, 0.9415801763534546, 0.9455975890159607, 0.9472715258598328, 0.9559758901596069, 0.9551389217376709, 0.9593237638473511, 0.958486795425415, 0.9646802544593811, 0.9671911597251892, 0.967860758304596, 0.9666889905929565]</t>
+  </si>
+  <si>
+    <t>[0.831146776676178, 0.8887174129486084, 0.906775712966919, 0.9114060997962952, 0.9180428981781006, 0.926377534866333, 0.928384006023407, 0.9347121715545654, 0.9402685761451721, 0.9407315850257874, 0.9458249807357788, 0.9473684430122375, 0.9459792971611023, 0.9553943276405334, 0.9567834734916687, 0.9583268761634827, 0.9634202718734741, 0.9618768095970154, 0.9637289643287659, 0.9665071964263916, 0.9666615128517151, 0.9734526872634888, 0.9745330810546875, 0.9709831476211548, 0.9678962826728821]</t>
+  </si>
+  <si>
+    <t>[0.8279809951782227, 0.8843294382095337, 0.8971156477928162, 0.907969057559967, 0.9116860032081604, 0.9269996881484985, 0.9249182343482971, 0.9235801100730896, 0.9332441091537476, 0.9378530979156494, 0.9418673515319824, 0.9405292868614197, 0.9464763402938843, 0.9528694748878479, 0.9493012428283691, 0.9558429718017578, 0.9524234533309937, 0.9568837285041809, 0.9638715386390686, 0.9594112634658813]</t>
+  </si>
+  <si>
+    <t>[0.8450393676757812, 0.8943306803703308, 0.9102362394332886, 0.910078763961792, 0.9181102514266968, 0.9258267879486084, 0.9294488430023193, 0.9377952814102173, 0.9406298995018005, 0.9377952814102173, 0.9445669054985046, 0.9481889605522156, 0.9527559280395508, 0.9574803113937378, 0.9574803113937378, 0.957007884979248, 0.9601574540138245, 0.9596850275993347, 0.9590551257133484, 0.9609448909759521, 0.9664567112922668, 0.9711810946464539, 0.9708661437034607, 0.9735432863235474, 0.9741732478141785, 0.9730708599090576, 0.9768503904342651]</t>
+  </si>
+  <si>
+    <t>[0.8095238208770752, 0.8767813444137573, 0.896072268486023, 0.8976364135742188, 0.9139729142189026, 0.9124087691307068, 0.9219673275947571, 0.9231838583946228, 0.934654176235199, 0.9377824068069458, 0.9407368898391724, 0.9431699514389038, 0.9426485896110535, 0.9482099413871765, 0.9534236788749695, 0.9532499313354492, 0.9548140168190002, 0.9560306072235107, 0.9582898616790771]</t>
+  </si>
+  <si>
+    <t>[0.8260079026222229, 0.8798744082450867, 0.8902841806411743, 0.9010244607925415, 0.9089556932449341, 0.912756085395813, 0.9216787815093994, 0.9244877696037292, 0.9319233298301697, 0.9340713620185852, 0.9429940581321716, 0.9434897303581238, 0.9515862464904785, 0.9484468102455139, 0.9491077065467834, 0.9505948424339294, 0.9505948424339294, 0.9608393907546997, 0.957534670829773, 0.966292142868042]</t>
+  </si>
+  <si>
+    <t>[0.8262062072753906, 0.8817169666290283, 0.8955946564674377, 0.904469907283783, 0.9141520261764526, 0.9223818182945251, 0.9267387390136719, 0.9310957193374634, 0.9356139898300171, 0.9386799931526184, 0.9419073462486267, 0.9452961087226868, 0.9533645510673523, 0.9559464454650879, 0.9561077952384949, 0.9570760130882263, 0.9562691450119019, 0.9612715840339661, 0.9690172672271729, 0.9651443958282471, 0.9709537029266357]</t>
+  </si>
+  <si>
+    <t>[0.8365944623947144, 0.8948469161987305, 0.9120239019393921, 0.921284556388855, 0.9247199296951294, 0.9318894743919373, 0.9339805841445923, 0.9359223246574402, 0.9411501288414001, 0.9478715658187866, 0.9481703042984009, 0.9496639370918274, 0.9532486796379089, 0.949215829372406, 0.9593726396560669, 0.9604182243347168]</t>
+  </si>
+  <si>
+    <t>[0.8330767154693604, 0.8926701545715332, 0.898367702960968, 0.9083769917488098, 0.9193101525306702, 0.9253156781196594, 0.9220819473266602, 0.9371727705001831, 0.935016930103302, 0.943332314491272, 0.9464120864868164, 0.9451801776885986, 0.9562672972679138, 0.9553433656692505, 0.9602710008621216, 0.964428722858429, 0.9598090648651123, 0.963350772857666, 0.966122567653656, 0.971666157245636, 0.9724360704421997, 0.9732060432434082, 0.9769017696380615]</t>
+  </si>
+  <si>
+    <t>[0.8436331152915955, 0.8943588137626648, 0.909172534942627, 0.9129133820533752, 0.9218913912773132, 0.9325153231620789, 0.9275774359703064, 0.9332634806632996, 0.9398473501205444, 0.9450845718383789, 0.9465808868408203, 0.9536136388778687, 0.9507706165313721, 0.9534640312194824, 0.9581026434898376, 0.9654346704483032, 0.9618434906005859, 0.9628909230232239, 0.9634894728660583, 0.9645369052886963]</t>
+  </si>
+  <si>
+    <t>[0.8384221792221069, 0.8960224390029907, 0.9095560312271118, 0.912856936454773, 0.9136821031570435, 0.9212741255760193, 0.9263904690742493, 0.9296913743019104, 0.9379435777664185, 0.9399240612983704, 0.944545328617096, 0.9503218531608582, 0.9481762647628784, 0.9513121247291565, 0.954943060874939, 0.9582439064979553, 0.9562634229660034, 0.9612147212028503]</t>
+  </si>
+  <si>
+    <t>[0.8376516699790955, 0.8930796980857849, 0.9096425175666809, 0.9188258647918701, 0.9214496612548828, 0.9244014620780945, 0.9304689764976501, 0.9360446333885193, 0.9311249852180481, 0.9403082728385925, 0.9450639486312866, 0.9462118744850159, 0.9503116011619568, 0.9557231664657593, 0.958674967288971, 0.959166944026947]</t>
+  </si>
+  <si>
+    <t>[0.8501413464546204, 0.8886270523071289, 0.9013509154319763, 0.9112472534179688, 0.9198868870735168, 0.9269556999206543, 0.9249135851860046, 0.9304115772247314, 0.934967041015625, 0.9473766684532166, 0.9403079152107239, 0.9476908445358276, 0.9555450677871704, 0.9528746604919434, 0.9590009450912476, 0.9555450677871704, 0.9599434733390808, 0.960100531578064, 0.9671693444252014, 0.9666981101036072, 0.9641847610473633, 0.9690543413162231, 0.9681118726730347, 0.9699968695640564, 0.9723531007766724, 0.9740810394287109, 0.971567690372467, 0.9737668633460999, 0.97455233335495, 0.9794219136238098, 0.9753377437591553, 0.9762802124023438, 0.977222740650177, 0.9789506793022156, 0.9776939749717712, 0.9776939749717712, 0.9803644418716431, 0.9820923805236816, 0.9791077375411987, 0.9786365032196045, 0.982877790927887, 0.9816210865974426]</t>
+  </si>
+  <si>
+    <t>[0.832238495349884, 0.8802425265312195, 0.8996126055717468, 0.9043287634849548, 0.9171298742294312, 0.9194879531860352, 0.9236988425254822, 0.9250463247299194, 0.9321206212043762, 0.9348155856132507, 0.9407107830047607, 0.9467744827270508, 0.9440795183181763, 0.9508169293403625, 0.9519959688186646, 0.9525012373924255, 0.9610914587974548, 0.9578911662101746, 0.9597439765930176, 0.9594070911407471]</t>
+  </si>
+  <si>
+    <t>[0.8424339294433594, 0.8943154811859131, 0.9117693901062012, 0.9108086228370667, 0.9224979877471924, 0.9265012145042419, 0.9322658181190491, 0.9300240278244019, 0.9421937465667725, 0.9447557926177979, 0.9510008096694946, 0.9532425999641418, 0.9526020884513855, 0.959007203578949, 0.9574059247970581, 0.9615692496299744, 0.9612489938735962, 0.9708566665649414, 0.9654123187065125, 0.9678142666816711, 0.9690952897071838, 0.9714971780776978, 0.9782225489616394, 0.9771016836166382, 0.9695756435394287]</t>
+  </si>
+  <si>
+    <t>[0.8469340205192566, 0.8875019550323486, 0.9063816666603088, 0.9138711094856262, 0.9204244017601013, 0.9233889579772949, 0.9344671368598938, 0.9330628514289856, 0.9405523538589478, 0.9432048797607422, 0.9466375112533569, 0.9472616910934448, 0.9516305327415466, 0.9577156901359558, 0.9563114643096924, 0.9619285464286804]</t>
+  </si>
+  <si>
+    <t>[0.8278011679649353, 0.8892005681991577, 0.9026024341583252, 0.9099267721176147, 0.914913535118103, 0.9208352565765381, 0.928627073764801, 0.9357955455780029, 0.9345488548278809, 0.9353280067443848, 0.9442107081413269, 0.9491974711418152, 0.9468598961830139, 0.9509116411209106, 0.9543400406837463, 0.9596384763717651, 0.9544958472251892]</t>
+  </si>
+  <si>
+    <t>[0.821750819683075, 0.8828557729721069, 0.897261381149292, 0.9116669297218323, 0.9156244993209839, 0.91910719871521, 0.925597608089447, 0.9235396385192871, 0.9352540969848633, 0.9384201169013977, 0.9385784268379211, 0.9452271461486816, 0.9510843753814697, 0.9495013356208801, 0.9544087648391724, 0.9540921449661255, 0.9529840350151062, 0.9572581648826599, 0.958999514579773, 0.9618489742279053, 0.9637486338615417, 0.9675478935241699, 0.9683393836021423]</t>
+  </si>
+  <si>
+    <t>[0.8319453001022339, 0.8837001919746399, 0.9019928574562073, 0.9098750948905945, 0.9109161496162415, 0.9180546998977661, 0.9202855229377747, 0.925044596195221, 0.9287626147270203, 0.9375371932983398, 0.9376859068870544, 0.94095778465271, 0.9363474249839783, 0.9452706575393677, 0.9549375176429749, 0.949286162853241, 0.9538964629173279, 0.9567221999168396]</t>
+  </si>
+  <si>
+    <t>[0.8082984685897827, 0.8858153820037842, 0.891926646232605, 0.9043100476264954, 0.9120295643806458, 0.9166934490203857, 0.9221614599227905, 0.9300417900085449, 0.9285944104194641, 0.9293985366821289, 0.9342232346534729, 0.9380829930305481, 0.9469282627105713, 0.9445159435272217, 0.9482148885726929, 0.9527179002761841, 0.9548085927963257, 0.9535220265388489, 0.9557735323905945, 0.9570601582527161, 0.9652621150016785, 0.9679961204528809, 0.9655838012695312, 0.9678353071212769, 0.966709554195404, 0.9681569933891296, 0.9625281691551208, 0.9707301259040833, 0.9749115705490112, 0.97587651014328, 0.9745898842811584, 0.976519763469696, 0.9728208184242249, 0.9773238897323608, 0.981183648109436, 0.9768414497375488, 0.9823094010353088, 0.98054039478302, 0.9781280159950256]</t>
+  </si>
+  <si>
+    <t>[0.8352281451225281, 0.8926958441734314, 0.9043762683868408, 0.9137206077575684, 0.9193271994590759, 0.9216632843017578, 0.9285157918930054, 0.9294502139091492, 0.9408192038536072, 0.9425323009490967, 0.9447126388549805, 0.9506307244300842, 0.952811062335968, 0.957794725894928, 0.9509422183036804, 0.9607537984848022, 0.9591963887214661, 0.9595078825950623, 0.9652702212333679, 0.964180052280426]</t>
+  </si>
+  <si>
+    <t>[0.843835175037384, 0.8901715278625488, 0.9050825834274292, 0.9079685807228088, 0.9207952618598938, 0.924803614616394, 0.9315375685691833, 0.9355459213256836, 0.9341029524803162, 0.9406766295433044, 0.9435626268386841, 0.9456469416618347, 0.9509379267692566, 0.9494949579238892, 0.948853611946106, 0.9595959782600403, 0.9631233215332031, 0.9613596200942993, 0.9655283093452454]</t>
+  </si>
+  <si>
+    <t>[0.8381271958351135, 0.8940556049346924, 0.9028443694114685, 0.9137104749679565, 0.9189836978912354, 0.932246744632721, 0.9293704032897949, 0.9338446855545044, 0.9451901316642761, 0.9464685320854187, 0.947267472743988, 0.9507830142974854, 0.952221155166626, 0.9557366371154785, 0.9610099196434021, 0.9608501195907593, 0.9634068608283997, 0.9618088603019714, 0.9654842019081116, 0.9715564250946045, 0.9645254015922546, 0.9720357656478882, 0.9664429426193237, 0.9683604836463928, 0.9793863892555237]</t>
+  </si>
+  <si>
+    <t>[0.8401334881782532, 0.8950402140617371, 0.9092977643013, 0.9118762612342834, 0.9197633862495422, 0.9197633862495422, 0.9281055927276611, 0.9326558709144592, 0.9334142208099365, 0.93841952085495, 0.9317457675933838, 0.9414530396461487, 0.9450932741165161, 0.9431214928627014, 0.939481258392334, 0.9485818147659302]</t>
+  </si>
+  <si>
+    <t>[0.8363401889801025, 0.8811211585998535, 0.891591489315033, 0.9054445624351501, 0.9160760045051575, 0.9201030731201172, 0.9204252362251282, 0.9271907210350037, 0.9317010045051575, 0.9355670213699341, 0.9431378841400146, 0.9405605792999268, 0.9494200944900513, 0.9513530731201172, 0.953447163105011, 0.9561855792999268, 0.953125, 0.9629510045051575]</t>
+  </si>
+  <si>
+    <t>[0.8358368873596191, 0.8954629302024841, 0.9091048240661621, 0.9141631126403809, 0.923206627368927, 0.9359288811683655, 0.9322501420974731, 0.9388412237167358, 0.9431330561637878, 0.9402207136154175, 0.948651134967804, 0.9481912851333618, 0.9575414061546326, 0.9563151597976685, 0.9550889134407043, 0.9630594849586487, 0.9648988246917725, 0.9648988246917725, 0.9671980142593384, 0.971030056476593, 0.9705702066421509, 0.9728693962097168, 0.9767014384269714, 0.9747087955474854, 0.9770079851150513, 0.9806867241859436, 0.9794604778289795, 0.9786940813064575, 0.9820662140846252, 0.9791538715362549]</t>
+  </si>
+  <si>
+    <t>[0.8365322947502136, 0.884996771812439, 0.9014715552330017, 0.9096289277076721, 0.9200255870819092, 0.924184262752533, 0.9296225309371948, 0.93282151222229, 0.9400191903114319, 0.9416186809539795, 0.9483365416526794, 0.9507357478141785, 0.9460972547531128, 0.9531350135803223, 0.956653892993927, 0.9606525897979736, 0.9595329761505127, 0.9632117748260498, 0.967530369758606]</t>
+  </si>
+  <si>
+    <t>[0.8426437377929688, 0.8959077596664429, 0.9113348722457886, 0.9157193899154663, 0.9168561100959778, 0.9275738596916199, 0.9269243478775024, 0.9345566630363464, 0.9391036033630371, 0.9417018294334412, 0.9472231268882751, 0.9452744126319885, 0.9477102756500244, 0.9532315731048584, 0.9561545848846436, 0.960051953792572, 0.9645988941192627, 0.9663851857185364, 0.9645988941192627, 0.9598895907402039, 0.9644365310668945, 0.9693081974983215, 0.9707697033882141, 0.973692774772644, 0.9727184176445007, 0.9769405722618103, 0.9748294949531555, 0.9754790663719177, 0.9758038520812988, 0.9790516495704651, 0.9779149293899536, 0.984085738658905, 0.9800260066986084]</t>
+  </si>
+  <si>
+    <t>[0.8421741724014282, 0.8903077840805054, 0.9016044735908508, 0.9097904562950134, 0.9133922457695007, 0.9246889352798462, 0.9317288994789124, 0.9296005368232727, 0.939423680305481, 0.942861795425415, 0.949410617351532, 0.9484282732009888, 0.9482645988464355, 0.9598886966705322, 0.9577603340148926, 0.9618533253669739, 0.964963972568512, 0.9705304503440857, 0.9680746793746948, 0.9644728302955627, 0.9690569639205933, 0.9739685654640198, 0.9692206978797913, 0.968565821647644, 0.974787175655365]</t>
+  </si>
+  <si>
+    <t>[0.8252683877944946, 0.8811265230178833, 0.8987085819244385, 0.9043099284172058, 0.9086665511131287, 0.9145790934562683, 0.9206472635269165, 0.9301384687423706, 0.9274933934211731, 0.9321612119674683, 0.9351174831390381, 0.9419636130332947, 0.9424303770065308, 0.9477205276489258, 0.9526995420455933, 0.9525439739227295, 0.956122636795044, 0.95658940076828, 0.9587677121162415, 0.9625019431114197, 0.9646802544593811, 0.9674809575080872, 0.9671697616577148]</t>
+  </si>
+  <si>
+    <t>[0.8361681699752808, 0.8862323760986328, 0.9078947305679321, 0.9106225967407227, 0.9180038571357727, 0.9223363399505615, 0.9281129837036133, 0.9340500831604004, 0.9379011392593384, 0.9414313435554504, 0.9486520886421204, 0.9550706148147583, 0.9494544267654419, 0.9520218372344971, 0.9563543200492859, 0.9545891880989075, 0.9621309638023376, 0.9637355804443359, 0.9693517088890076, 0.9701540470123291, 0.971598207950592, 0.9674261808395386, 0.9699935913085938, 0.9741656184196472, 0.9679075479507446, 0.9776957631111145, 0.9754493236541748, 0.974967896938324, 0.9754493236541748, 0.9780166745185852, 0.978498101234436, 0.9765725135803223, 0.9817073345184326, 0.9752888083457947, 0.9791399240493774, 0.985718846321106, 0.9836328625679016, 0.9797817468643188, 0.9825096130371094, 0.9833119511604309, 0.983793318271637, 0.9855583906173706, 0.9873234629631042]</t>
+  </si>
+  <si>
+    <t>[0.8185120820999146, 0.8839045763015747, 0.8948033452033997, 0.8998578190803528, 0.9118622541427612, 0.9151792526245117, 0.9180224537849426, 0.9232348799705505, 0.9237087368965149, 0.9317643046379089, 0.9402937889099121, 0.9399778842926025, 0.9409255981445312, 0.9477176070213318, 0.9467698335647583, 0.9442425966262817, 0.9537197947502136]</t>
+  </si>
+  <si>
+    <t>[0.8255097270011902, 0.8757705092430115, 0.8988462090492249, 0.908645510673523, 0.9141773581504822, 0.9181286692619324, 0.9200252890586853, 0.9309309124946594, 0.9296665191650391, 0.9333017468452454, 0.9367789030075073, 0.9412043690681458, 0.9462620615959167, 0.9530583024024963, 0.9522680640220642, 0.9516358375549316, 0.9555871486663818, 0.956851601600647, 0.9604868292808533, 0.9592223763465881, 0.9666508436203003, 0.9713924527168274, 0.9694958329200745, 0.9699699878692627, 0.9691796898841858, 0.9756598472595215, 0.9724988341331482, 0.9723407626152039, 0.9729729890823364, 0.9785048365592957, 0.9796112179756165, 0.9759759902954102, 0.9792950749397278, 0.9773984551429749, 0.9783467650413513, 0.979769229888916, 0.9788209199905396, 0.9808756113052368, 0.9826142191886902, 0.9800853729248047, 0.9840366840362549]</t>
+  </si>
+  <si>
+    <t>[0.8398281335830688, 0.8847236633300781, 0.8996888399124146, 0.9019113779067993, 0.9156911969184875, 0.9173210859298706, 0.9287301898002625, 0.9290265440940857, 0.9302119016647339, 0.9385094046592712, 0.9337679743766785, 0.9419173002243042, 0.9465106129646301, 0.950807511806488, 0.9543635845184326, 0.9562898278236389, 0.9577715396881104, 0.9585123658180237, 0.9602904319763184, 0.9623647928237915, 0.9656245112419128, 0.966365396976471, 0.9708104729652405, 0.9727367162704468]</t>
+  </si>
+  <si>
+    <t>[0.8667874932289124, 0.9015254378318787, 0.9119468331336975, 0.9170820116996765, 0.9306751489639282, 0.934148907661438, 0.9383779168128967, 0.9445703029632568, 0.9497054815292358, 0.9436640739440918, 0.9475910067558289, 0.954689621925354, 0.9552937746047974, 0.9558979272842407, 0.9626944661140442, 0.9634496569633484, 0.9699441194534302, 0.9652620553970337, 0.9690378904342651, 0.9753813743591309]</t>
+  </si>
+  <si>
+    <t>[0.8253788948059082, 0.889068067073822, 0.9000322222709656, 0.9087390899658203, 0.916317343711853, 0.9190583825111389, 0.9297000765800476, 0.9326024055480957, 0.9369558095932007, 0.9405030608177185, 0.9463076591491699, 0.9475975632667542, 0.9529184103012085, 0.9596904516220093, 0.9611415863037109, 0.9621089696884155, 0.9621089696884155, 0.9593679308891296]</t>
+  </si>
+  <si>
+    <t>[0.8241950869560242, 0.8866751790046692, 0.8963978290557861, 0.9129741787910461, 0.9123366475105286, 0.9161619544029236, 0.9215811491012573, 0.9193496704101562, 0.9301880598068237, 0.9203060269355774, 0.9346509575843811, 0.9459674954414368, 0.940548300743103, 0.946445643901825, 0.9450111389160156, 0.9529805779457092]</t>
+  </si>
+  <si>
+    <t>[0.8458088636398315, 0.8906588554382324, 0.9116919040679932, 0.9214351773262024, 0.921899139881134, 0.9231364130973816, 0.9313331246376038, 0.9274667501449585, 0.9311784505844116, 0.9392205476760864, 0.9395298361778259, 0.9355087876319885, 0.9491184949874878, 0.9427776336669922, 0.9489638209342957, 0.9532941579818726, 0.9593257308006287, 0.9611815810203552, 0.9655119180679321, 0.9435508847236633, 0.9639653563499451]</t>
+  </si>
+  <si>
+    <t>[0.8501816987991333, 0.8989098072052002, 0.9172447919845581, 0.9240171909332275, 0.93194580078125, 0.934093177318573, 0.938883364200592, 0.9451602101325989, 0.9535844326019287, 0.9469771981239319, 0.9520977735519409, 0.9588701725006104, 0.9638255834579468, 0.9651470184326172, 0.9687809944152832, 0.9651470184326172, 0.9722497463226318, 0.9730756282806396, 0.9753881692886353, 0.9748926162719727, 0.9669640064239502, 0.9788569808006287, 0.9780310392379761, 0.9823257327079773, 0.9770399928092957]</t>
+  </si>
+  <si>
+    <t>[0.8154963850975037, 0.880710244178772, 0.8936238884925842, 0.9041162133216858, 0.9144471287727356, 0.9194511771202087, 0.9175141453742981, 0.9275221824645996, 0.9304277896881104, 0.9378530979156494, 0.9389830231666565, 0.9339790344238281, 0.9368845820426941, 0.9536722898483276, 0.9569007158279419, 0.9596448540687561, 0.9562550187110901, 0.958514928817749, 0.9673930406570435, 0.9651331901550293, 0.9615819454193115, 0.9701371788978577]</t>
+  </si>
+  <si>
+    <t>[0.8333333134651184, 0.8865804672241211, 0.8967374563217163, 0.9098184108734131, 0.9110495448112488, 0.9150508046150208, 0.9219759702682495, 0.9225915670394897, 0.9322868585586548, 0.9316712617874146, 0.9362881183624268, 0.9335179924964905, 0.9405971169471741, 0.9456756114959717, 0.9449061155319214, 0.9482917785644531, 0.9538319706916809, 0.9556786417961121, 0.947983980178833, 0.9584487676620483, 0.9587565660476685, 0.9564481377601624, 0.9656817317008972, 0.9706063270568848, 0.9653739333152771, 0.9641427993774414, 0.9590643048286438, 0.9593721032142639, 0.9642966985702515, 0.969221293926239, 0.978762686252594]</t>
+  </si>
+  <si>
+    <t>[0.8345131278038025, 0.8881548047065735, 0.8988516330718994, 0.9040427803993225, 0.9161553978919983, 0.9213465452194214, 0.9213465452194214, 0.9336164593696594, 0.9356614947319031, 0.9358187913894653, 0.9347176551818848, 0.9450998902320862, 0.9471448659896851, 0.9526506066322327, 0.9528079032897949, 0.957212507724762, 0.9594148397445679, 0.9611452221870422, 0.9638193845748901, 0.9628755450248718, 0.9628755450248718, 0.9644486308097839, 0.9778197407722473, 0.9701116681098938, 0.9727858901023865, 0.9751455187797546, 0.9699543714523315, 0.9770331978797913, 0.9801793098449707]</t>
+  </si>
+  <si>
+    <t>[0.837148129940033, 0.8861738443374634, 0.9014846682548523, 0.9090628027915955, 0.9129291772842407, 0.921280562877655, 0.9177234768867493, 0.9266934990882874, 0.9342715740203857, 0.9386019110679626, 0.9393752217292786, 0.9413856863975525, 0.932261049747467, 0.9355087876319885, 0.9450974464416504, 0.946953296661377, 0.9515929222106934, 0.9494277834892273, 0.9486544728279114, 0.9545313715934753]</t>
+  </si>
+  <si>
+    <t>[0.8322358131408691, 0.8861712217330933, 0.9010661840438843, 0.9060834050178528, 0.911884605884552, 0.9142364263534546, 0.9217622876167297, 0.926622748374939, 0.9341486096382141, 0.9448102712631226, 0.9391658902168274, 0.9488868117332458, 0.9443399310112, 0.9476324915885925, 0.9481028318405151, 0.9587644934654236, 0.9612731337547302, 0.9587644934654236, 0.957353413105011, 0.9606459736824036, 0.9680150747299194, 0.9626842141151428, 0.9634681940078735, 0.9669175148010254, 0.9653496146202087]</t>
+  </si>
+  <si>
+    <t>[0.8139127492904663, 0.8847500681877136, 0.8993951082229614, 0.9078319072723389, 0.9191340208053589, 0.9245463013648987, 0.9219993352890015, 0.9313912987709045, 0.9396688938140869, 0.9444444179534912, 0.9461954832077026, 0.9442852735519409, 0.9506526589393616, 0.9536771774291992, 0.9563832879066467, 0.9512894153594971, 0.9613180756568909, 0.9659343957901001, 0.9641833901405334, 0.9645017385482788, 0.9676854610443115, 0.9737344980239868, 0.9702324271202087, 0.968322217464447, 0.9718242883682251, 0.970391571521759, 0.9740528464317322, 0.976122260093689, 0.9770773649215698, 0.979624330997467, 0.9823304414749146, 0.979624330997467]</t>
+  </si>
+  <si>
+    <t>[0.8252379298210144, 0.8813587427139282, 0.9007220268249512, 0.9028552770614624, 0.9168034195899963, 0.9148342609405518, 0.9269773364067078, 0.9319002032279968, 0.9345257878303528, 0.9368231296539307, 0.9460124969482422, 0.947489321231842, 0.940761387348175, 0.9491302967071533, 0.9548736214637756, 0.9571709632873535, 0.9586478471755981, 0.9574992060661316, 0.9606170058250427, 0.9625861644744873, 0.9637348055839539, 0.9594683051109314, 0.9661962389945984, 0.9691500067710876, 0.9721037149429321, 0.9693140983581543, 0.9725959897041321, 0.9737446904182434, 0.9755496978759766, 0.9773547649383545]</t>
+  </si>
+  <si>
+    <t>[0.8229183554649353, 0.8826489448547363, 0.9032624363899231, 0.9018016457557678, 0.9190066456794739, 0.917708158493042, 0.922252893447876, 0.9272845387458801, 0.9337769746780396, 0.9375101327896118, 0.9401071071624756, 0.9405940771102905, 0.9436779618263245, 0.9491965770721436, 0.9550397396087646, 0.9558513164520264, 0.9540659189224243, 0.9590975642204285, 0.95796138048172, 0.9586105942726135, 0.9639669060707092, 0.9681869745254517, 0.9677000641822815, 0.9701347351074219, 0.970621645450592, 0.9667261838912964, 0.9737055897712708, 0.96883624792099, 0.971108615398407]</t>
+  </si>
+  <si>
+    <t>[0.8411043882369995, 0.898295521736145, 0.9098464846611023, 0.9204113483428955, 0.9205521941184998, 0.9270319938659668, 0.9281588792800903, 0.9354838728904724, 0.9388646483421326, 0.9415410757064819, 0.9488660097122192, 0.948725163936615, 0.9491477608680725, 0.9521059393882751, 0.9595717787742615, 0.9614030122756958, 0.9616847634315491, 0.9649246335029602, 0.9666150212287903]</t>
+  </si>
+  <si>
+    <t>[0.827464759349823, 0.8786811828613281, 0.9010883569717407, 0.9036491513252258, 0.915012776851654, 0.9182138442993164, 0.9284570813179016, 0.9302176833152771, 0.9302176833152771, 0.9362996220588684, 0.9390205144882202, 0.9425415992736816, 0.9439820647239685, 0.9511843919754028, 0.948463499546051, 0.9564660787582397, 0.9590268731117249, 0.9593470096588135]</t>
+  </si>
+  <si>
+    <t>[0.8544002175331116, 0.9101520776748657, 0.9112271666526794, 0.9230533242225647, 0.9245891571044922, 0.9362617135047913, 0.9371832013130188, 0.9385654926300049, 0.9442481994628906, 0.9460912346839905, 0.9540777206420898, 0.9525418281555176, 0.9534633755683899, 0.9602211713790894, 0.9636000394821167, 0.9586852788925171, 0.9634464979171753, 0.9659038782119751]</t>
+  </si>
+  <si>
+    <t>[0.8298199772834778, 0.8801354169845581, 0.8962917327880859, 0.9122942090034485, 0.9121403098106384, 0.9138329029083252, 0.9229112267494202, 0.9258347153663635, 0.9233728051185608, 0.9326050281524658, 0.9378365874290466, 0.9410678744316101, 0.9361439943313599, 0.9461455345153809, 0.9552238583564758, 0.9555315971374512, 0.9576857686042786, 0.9603015780448914]</t>
+  </si>
+  <si>
+    <t>[0.8272320628166199, 0.8871956467628479, 0.8969687223434448, 0.9095577001571655, 0.9160178899765015, 0.9247970581054688, 0.9256253242492676, 0.9329137206077576, 0.9398707747459412, 0.9413616061210632, 0.9450057744979858, 0.9498094916343689, 0.9524598121643066, 0.9551101326942444, 0.9605764746665955, 0.9570978879928589, 0.9587543606758118, 0.9600794911384583]</t>
+  </si>
+  <si>
+    <t>[0.845384955406189, 0.8939559459686279, 0.9081680178642273, 0.9141027927398682, 0.9183195233345032, 0.925815999507904, 0.932375431060791, 0.9345619082450867, 0.9359675049781799, 0.9458066821098328, 0.9493986964225769, 0.9512728452682495, 0.9528346061706543, 0.9545525312423706, 0.958300769329071, 0.9503358006477356, 0.9614243507385254, 0.9628299474716187, 0.9668905138969421, 0.9603310823440552, 0.9687646627426147]</t>
+  </si>
+  <si>
+    <t>[0.8353909254074097, 0.895061731338501, 0.9099398255348206, 0.911522626876831, 0.9238682985305786, 0.9300411343574524, 0.9358974099159241, 0.9360557198524475, 0.9433364868164062, 0.9471351504325867, 0.9493510723114014, 0.9577397704124451, 0.9545742273330688, 0.9575815200805664, 0.9632795453071594, 0.9678695797920227, 0.9673947691917419, 0.9670782089233398]</t>
+  </si>
+  <si>
+    <t>[0.8356122970581055, 0.8942570686340332, 0.9120328426361084, 0.9167426228523254, 0.9260103106498718, 0.9295046925544739, 0.9339106678962708, 0.9395320415496826, 0.944089949131012, 0.9453054070472717, 0.952294111251831, 0.9530537724494934, 0.9541172981262207, 0.9597386717796326, 0.9614099264144897, 0.9635369181632996]</t>
+  </si>
+  <si>
+    <t>[0.8418576121330261, 0.8936105370521545, 0.9008954167366028, 0.9118227362632751, 0.9153134226799011, 0.9274548292160034, 0.9323114156723022, 0.9362574219703674, 0.9435422420501709, 0.9455152750015259, 0.9458187818527222, 0.9493094682693481, 0.9509788751602173, 0.954166054725647, 0.955683708190918, 0.9585673213005066, 0.9584155678749084, 0.962513267993927, 0.967521607875824, 0.969494640827179, 0.9708605408668518, 0.9740476608276367, 0.9776901006698608, 0.9755653142929077, 0.9758688807487488, 0.974351167678833, 0.9755653142929077, 0.9770830273628235, 0.976324200630188]</t>
+  </si>
+  <si>
+    <t>[0.8382165431976318, 0.8944267630577087, 0.9025477766990662, 0.9125795960426331, 0.9227706789970398, 0.9302547574043274, 0.9248407483100891, 0.9401273727416992, 0.9388535022735596, 0.9434713125228882, 0.9476114511489868, 0.9517515897750854, 0.9492038488388062, 0.9541401267051697, 0.9527069926261902, 0.9578025341033936, 0.9617834687232971, 0.9574840664863586, 0.9643312096595764]</t>
+  </si>
+  <si>
+    <t>[0.8473421335220337, 0.8942904472351074, 0.9024685621261597, 0.9112524390220642, 0.9220051765441895, 0.9260941743850708, 0.9271543025970459, 0.9306375980377197, 0.9382098913192749, 0.938815712928772, 0.9451764225959778, 0.947296679019928, 0.9469937682151794, 0.9541117548942566, 0.9556262493133545, 0.9582008123397827, 0.9580493569374084, 0.9635014533996582, 0.9642586708068848, 0.9674390554428101, 0.9669846892356873, 0.9701650738716125, 0.9691049456596375, 0.9731940031051636, 0.9713766574859619, 0.9730425477027893, 0.9731940031051636, 0.9688020348548889, 0.977434515953064, 0.9783431887626648, 0.977434515953064, 0.9801605343818665, 0.9803119897842407, 0.9825837016105652, 0.9798576235771179, 0.9775859713554382, 0.9800090789794922, 0.9816749691963196, 0.9845525026321411]</t>
+  </si>
+  <si>
+    <t>[0.845686137676239, 0.8895645141601562, 0.9064913988113403, 0.9107641577720642, 0.9202958345413208, 0.9258832931518555, 0.9239112734794617, 0.9294987916946411, 0.9322925209999084, 0.9395233988761902, 0.9454395771026611, 0.9543138742446899, 0.9539852142333984, 0.9549712538719177, 0.9480690360069275, 0.9556285738945007, 0.961873471736908, 0.9592440724372864, 0.9646672010421753, 0.9613804221153259, 0.9671322703361511, 0.9612160921096802, 0.9631881713867188, 0.9725554585456848, 0.9748561978340149]</t>
+  </si>
+  <si>
+    <t>[0.8295254707336426, 0.8942323327064514, 0.903179407119751, 0.9094104766845703, 0.922831118106842, 0.9263460636138916, 0.9308196306228638, 0.9336954951286316, 0.9336954951286316, 0.9416839480400085, 0.9416839480400085, 0.947595477104187, 0.9487138390541077, 0.9514299631118774, 0.9544655680656433, 0.9546253681182861, 0.9632529020309448, 0.9592586755752563, 0.9666081070899963, 0.962933361530304, 0.9661287665367126, 0.9642115235328674, 0.972998857498169, 0.9710816144943237, 0.9710816144943237, 0.9726793169975281, 0.9728391170501709, 0.9755551815032959, 0.975075900554657]</t>
+  </si>
+  <si>
+    <t>[0.8419630527496338, 0.8835359215736389, 0.9030466675758362, 0.9098004102706909, 0.9138526320457458, 0.9230076670646667, 0.9297613501548767, 0.9258592128753662, 0.9389163851737976, 0.9380159378051758, 0.9476211667060852, 0.9506228566169739, 0.949272096157074, 0.9522737264633179, 0.9482215046882629, 0.9596278071403503, 0.9594777226448059, 0.9596278071403503, 0.9620290994644165, 0.9675821661949158, 0.9728350639343262, 0.9716343879699707, 0.9707338809967041, 0.9692330956459045, 0.9711841344833374, 0.9776377081871033, 0.9704337120056152, 0.9708839654922485]</t>
+  </si>
+  <si>
+    <t>[0.8395576477050781, 0.8934124112129211, 0.9023882150650024, 0.9152107834815979, 0.918897271156311, 0.9277127981185913, 0.9305978417396545, 0.9366885423660278, 0.9368488788604736, 0.9469466209411621, 0.944862961769104, 0.9549607038497925, 0.9515948295593262, 0.9581663608551025, 0.9605706334114075, 0.9533579349517822, 0.9644173979759216, 0.9703478217124939, 0.975476861000061, 0.972752034664154]</t>
+  </si>
+  <si>
+    <t>[0.832882285118103, 0.8770297765731812, 0.8941136598587036, 0.9108592867851257, 0.9110284447669983, 0.9181326031684875, 0.9262517094612122, 0.9272665977478027, 0.9333558678627014, 0.9379228949546814, 0.9433355927467346, 0.9438430070877075, 0.942320704460144, 0.9489174485206604, 0.9550067782402039, 0.9605886340141296, 0.9604194760322571, 0.9594045877456665, 0.9643098711967468, 0.9631258249282837, 0.9692151546478271, 0.9687077403068542, 0.9676928520202637, 0.9675236940383911]</t>
+  </si>
+  <si>
+    <t>[0.81954425573349, 0.8845389485359192, 0.9047254920005798, 0.9048784375190735, 0.9111484885215759, 0.9265942573547363, 0.9272059798240662, 0.9221593737602234, 0.9284294247627258, 0.93806391954422, 0.9408166408538818, 0.9411224722862244, 0.9432634711265564, 0.951521635055542, 0.953662633895874, 0.9527450799942017, 0.9550390243530273]</t>
+  </si>
+  <si>
+    <t>[0.8389157056808472, 0.8982707858085632, 0.9074622392654419, 0.9157189726829529, 0.9213272929191589, 0.9264683127403259, 0.9359713196754456, 0.9300513863563538, 0.942825973033905, 0.9446954131126404, 0.9527963995933533, 0.9495248198509216, 0.9517058730125427, 0.9588720798492432, 0.9568468332290649, 0.9602741599082947, 0.964480459690094, 0.9652593731880188, 0.9708677530288696, 0.9666614532470703, 0.9725813865661621, 0.9714908599853516, 0.9694656729698181, 0.9732045531272888, 0.9738277196884155, 0.9777224063873291, 0.975229799747467, 0.9797476530075073]</t>
+  </si>
+  <si>
+    <t>[0.8419311046600342, 0.898932158946991, 0.9103624820709229, 0.9183335900306702, 0.9189351797103882, 0.9293127059936523, 0.9356294274330139, 0.9440517425537109, 0.9440517425537109, 0.9439013600349426, 0.9509700536727905, 0.9526244401931763, 0.954278826713562, 0.9577379822731018, 0.9619491696357727, 0.9637539386749268, 0.9657091498374939, 0.9654083251953125, 0.9694690704345703, 0.9642051458358765]</t>
+  </si>
+  <si>
+    <t>[0.8285035490989685, 0.8851940035820007, 0.8921615481376648, 0.9062549471855164, 0.9201900362968445, 0.9271575808525085, 0.9306413531303406, 0.9266824722290039, 0.9350752234458923, 0.9404592514038086, 0.9428344964981079, 0.9444180727005005, 0.9461599588394165, 0.9518606662750244, 0.9570863246917725, 0.9482185244560242, 0.9577197432518005, 0.9583531022071838, 0.9569279551506042, 0.9623119831085205, 0.9646872282028198, 0.9688044190406799, 0.9697545766830444, 0.9667458534240723, 0.9697545766830444, 0.971179723739624]</t>
+  </si>
+  <si>
+    <t>[0.8008051514625549, 0.8716266751289368, 0.8936931490898132, 0.899507999420166, 0.9118831157684326, 0.9136722683906555, 0.921127200126648, 0.9233636260032654, 0.9364842772483826, 0.9354405999183655, 0.9345459938049316, 0.9430446028709412, 0.9433428049087524, 0.9516922831535339, 0.9500522017478943, 0.9521395564079285, 0.9518413543701172, 0.9573580026626587]</t>
+  </si>
+  <si>
+    <t>[0.8288931250572205, 0.8921661972999573, 0.8985093832015991, 0.9100856184959412, 0.9165873527526855, 0.9211861491203308, 0.9222962260246277, 0.9324452877044678, 0.9261021018028259, 0.9349825382232666, 0.9406914114952087, 0.9456073641777039, 0.9449730515480042, 0.9397399425506592, 0.9460830688476562, 0.9471931457519531, 0.9560735821723938, 0.9609895348548889, 0.9597209095954895, 0.9609895348548889, 0.9708214402198792, 0.9692356586456299, 0.9712972044944763, 0.9712972044944763, 0.9717729091644287, 0.970345675945282]</t>
+  </si>
+  <si>
+    <t>[0.8355883955955505, 0.8865638971328735, 0.9002517461776733, 0.9076462984085083, 0.9158275723457336, 0.92259281873703, 0.9265261292457581, 0.9299874305725098, 0.9372246861457825, 0.9447765946388245, 0.945405900478363, 0.950597882270813, 0.9518564939498901, 0.9507551789283752, 0.9586217999458313, 0.9545311331748962, 0.9597231149673462, 0.965859055519104, 0.961925745010376, 0.9705789685249329, 0.9647576808929443, 0.9697923064231873, 0.9683763384819031, 0.9718376398086548, 0.973410964012146, 0.9764002561569214, 0.9745122790336609, 0.973410964012146, 0.977186918258667, 0.97702956199646, 0.9787602424621582, 0.9795469045639038, 0.9784455895423889, 0.9798615574836731]</t>
+  </si>
+  <si>
+    <t>[0.8371306657791138, 0.8912424445152283, 0.9022783637046814, 0.9106443524360657, 0.9191883206367493, 0.9243503212928772, 0.9273762702941895, 0.9346742630004883, 0.9389462471008301, 0.9435742497444153, 0.9426842331886292, 0.95069420337677, 0.9480242133140564, 0.9549661874771118, 0.9587041735649109, 0.9585261940956116, 0.9681380987167358, 0.9636881351470947, 0.9656461477279663, 0.9683161377906799, 0.9722321033477783]</t>
+  </si>
+  <si>
+    <t>[0.8441022634506226, 0.906493067741394, 0.9120495319366455, 0.9207810759544373, 0.928242564201355, 0.9330052137374878, 0.9379266500473022, 0.9395142197608948, 0.946023166179657, 0.9469757080078125, 0.9503095746040344, 0.9599936604499817, 0.9561834931373596, 0.9620574712753296, 0.9606286883354187, 0.9607874155044556]</t>
+  </si>
+  <si>
+    <t>[0.8454129099845886, 0.8855202794075012, 0.9057318568229675, 0.9161534905433655, 0.91883784532547, 0.9279962182044983, 0.9314700961112976, 0.9338386058807373, 0.9392073154449463, 0.9399968385696411, 0.9453655481338501, 0.9461550712585449, 0.9549976587295532, 0.9557871222496033, 0.9605242609977722, 0.9584714770317078, 0.9617874622344971, 0.9628927707672119, 0.9651034474372864, 0.9673140645027161, 0.9655771255493164, 0.966840386390686, 0.9701563119888306, 0.9679456949234009, 0.972524881362915, 0.9695247411727905, 0.9755250215530396, 0.9758408069610596, 0.9736301898956299, 0.9764724373817444, 0.9744197130203247, 0.977893590927124, 0.977893590927124]</t>
+  </si>
+  <si>
+    <t>[0.8435013294219971, 0.9041972160339355, 0.9196442365646362, 0.9229208827018738, 0.9296302199363708, 0.9333749413490295, 0.9403963088989258, 0.9411764740943909, 0.9483538866043091, 0.9486659169197083, 0.9586519002914429, 0.9563114643096924, 0.958963930606842, 0.9575597047805786, 0.9667654633522034, 0.9678577184677124, 0.9678577184677124]</t>
+  </si>
+  <si>
+    <t>[0.8265731930732727, 0.880703866481781, 0.9032210111618042, 0.906948983669281, 0.9112734794616699, 0.9154488444328308, 0.9187294840812683, 0.9320011734962463, 0.9357292056083679, 0.937965989112854, 0.9452728629112244, 0.9507903456687927, 0.944527268409729, 0.949299156665802, 0.9554130434989929, 0.9595884084701538, 0.9543692469596863, 0.9549657106399536, 0.9631673097610474, 0.9549657106399536, 0.9648076295852661, 0.9680882692337036, 0.9698777198791504, 0.9694303870201111, 0.9761407971382141, 0.9715180397033691, 0.9706233143806458, 0.9733074903488159, 0.9685356616973877, 0.9749478101730347, 0.9749478101730347, 0.9786758422851562, 0.9770354628562927, 0.975544273853302, 0.9780793190002441, 0.9818073511123657, 0.9812108278274536, 0.982105553150177, 0.980017900466919]</t>
+  </si>
+  <si>
+    <t>[0.8479435443878174, 0.9045331478118896, 0.9103872776031494, 0.9193935990333557, 0.9234464168548584, 0.9276493787765503, 0.9306514263153076, 0.9344040751457214, 0.938006579875946, 0.9404082894325256, 0.9417592287063599, 0.9501650929450989, 0.9527168869972229, 0.9539177417755127, 0.9518162608146667, 0.9602221846580505, 0.9647253155708313, 0.9639747738838196, 0.9650255441665649, 0.9665265679359436, 0.9710296988487244, 0.9698289036750793, 0.9716301560401917, 0.9564695358276367, 0.9731311798095703, 0.9776343703269958]</t>
+  </si>
+  <si>
+    <t>[0.8149305582046509, 0.8812500238418579, 0.8939236402511597, 0.9078124761581421, 0.9135416746139526, 0.918749988079071, 0.9243055582046509, 0.9279513955116272, 0.9312499761581421, 0.9392361044883728, 0.9468749761581421, 0.9458333253860474, 0.9505208134651184, 0.9494791626930237, 0.9583333134651184, 0.9583333134651184, 0.9621527791023254, 0.9597222208976746, 0.965624988079071, 0.9651041626930237, 0.9638888835906982]</t>
+  </si>
+  <si>
+    <t>[0.8397165536880493, 0.8871266841888428, 0.9018052816390991, 0.9070355892181396, 0.9185085296630859, 0.9271132349967957, 0.9336932897567749, 0.9389235973358154, 0.9308250546455383, 0.9370676279067993, 0.9466846585273743, 0.9438164234161377, 0.9475282430648804, 0.9517462253570557, 0.9637253284454346, 0.9628817439079285, 0.955289363861084, 0.9647376537322998, 0.955964207649231, 0.9645689129829407, 0.9714863896369934, 0.9741859436035156, 0.9672684073448181, 0.9762105345726013]</t>
+  </si>
+  <si>
+    <t>[0.8558412194252014, 0.894240140914917, 0.9139277338981628, 0.9194598197937012, 0.925805389881134, 0.924503743648529, 0.9264562129974365, 0.9324764013290405, 0.9419134259223938, 0.9319882988929749, 0.9409372210502625, 0.9493979811668396, 0.9497234225273132, 0.95248943567276, 0.9650179147720337, 0.9521639943122864]</t>
+  </si>
+  <si>
+    <t>[0.8500593900680542, 0.8980106711387634, 0.900534451007843, 0.9187945127487183, 0.9180522561073303, 0.9207244515419006, 0.9272565245628357, 0.9357185363769531, 0.9303740859031677, 0.9422506093978882, 0.9474465847015381, 0.9458135366439819, 0.9471496343612671, 0.9504156708717346, 0.9559085369110107, 0.9569477438926697, 0.9553147554397583, 0.9619952440261841]</t>
+  </si>
+  <si>
+    <t>[0.840139627456665, 0.8823734521865845, 0.8956369757652283, 0.9050610661506653, 0.9099476337432861, 0.9094240665435791, 0.9191972017288208, 0.9240837693214417, 0.9223385453224182, 0.9176265001296997, 0.9275741577148438, 0.9335078597068787, 0.9382199048995972, 0.9438045620918274, 0.9434555172920227, 0.9378708600997925, 0.9429319500923157, 0.9458987712860107, 0.9509598612785339, 0.9570680856704712, 0.9553228616714478]</t>
+  </si>
+  <si>
+    <t>[0.7995932698249817, 0.887515664100647, 0.8981539607048035, 0.905037522315979, 0.9123904705047607, 0.9217772483825684, 0.9261577129364014, 0.9352315664291382, 0.9336670637130737, 0.9414893388748169, 0.9477471709251404, 0.9505631923675537, 0.9515019059181213, 0.957446813583374, 0.9536921381950378, 0.9596370458602905]</t>
+  </si>
+  <si>
+    <t>[0.8356966972351074, 0.8928791880607605, 0.9067509174346924, 0.9106041789054871, 0.9144574403762817, 0.9232429265975952, 0.9355733394622803, 0.9287916421890259, 0.9338779449462891, 0.9397348761558533, 0.947749674320221, 0.9460542798042297, 0.9497534036636353, 0.9522194862365723, 0.9586929678916931, 0.9549938440322876, 0.9603884220123291, 0.9622379541397095, 0.9645499587059021, 0.9677866697311401, 0.9687114953994751, 0.9659371376037598, 0.9685573577880859, 0.9707151651382446]</t>
+  </si>
+  <si>
+    <t>[0.8471973538398743, 0.8904293179512024, 0.905485987663269, 0.9145796298980713, 0.9211389422416687, 0.9260584115982056, 0.9263566136360168, 0.9355992674827576, 0.9344066977500916, 0.9397733807563782, 0.9437984228134155, 0.9469290375709534, 0.9491651654243469, 0.9497614502906799, 0.9554263353347778, 0.9567680358886719, 0.9597495794296265, 0.9642218351364136, 0.9596004486083984, 0.9646690487861633, 0.9676505923271179, 0.9679487347602844, 0.9712283611297607, 0.970781147480011]</t>
+  </si>
+  <si>
+    <t>[0.8414536118507385, 0.8943560123443604, 0.8956423997879028, 0.9197620153427124, 0.9152596592903137, 0.9213699698448181, 0.9258723258972168, 0.9345554113388062, 0.9358417987823486, 0.9395401477813721, 0.9427560567855835, 0.9480623602867126, 0.9495095610618591, 0.9511175155639648, 0.9499919414520264, 0.9506351351737976, 0.9596397876739502, 0.959479033946991, 0.9663932919502258, 0.9675188660621643, 0.9708956480026245, 0.9715388417243958]</t>
+  </si>
+  <si>
+    <t>[0.8124904036521912, 0.8780113458633423, 0.8999539613723755, 0.9083934426307678, 0.9157587885856628, 0.9186742305755615, 0.9217431545257568, 0.9332515001296997, 0.931717038154602, 0.9361669421195984, 0.9404634237289429, 0.9447598457336426, 0.9449133276939392, 0.9499769806861877, 0.9507442116737366, 0.9548872113227844, 0.9533527493476868, 0.9582629799842834, 0.9597974419593811, 0.9628663659095764, 0.9634801149368286, 0.9668559432029724, 0.9682369232177734]</t>
+  </si>
+  <si>
+    <t>[0.8423571586608887, 0.8915644884109497, 0.9009871482849121, 0.912503719329834, 0.9186359643936157, 0.9216272830963135, 0.9262638092041016, 0.9352378249168396, 0.9374812841415405, 0.9338917136192322, 0.9374812841415405, 0.9425665736198425, 0.9513909816741943, 0.9540831446647644, 0.9554292559623718, 0.9593179821968079, 0.958570122718811, 0.9603649377822876, 0.9672449827194214, 0.963655412197113, 0.9751719832420349, 0.9675441384315491, 0.973676323890686, 0.9730780720710754, 0.9685910940170288]</t>
+  </si>
+  <si>
+    <t>[0.8443202376365662, 0.8970902562141418, 0.9097484946250916, 0.9182968735694885, 0.9248725771903992, 0.9316126704216003, 0.9362156987190247, 0.9427914023399353, 0.9422982335090637, 0.94427090883255, 0.9473943710327148, 0.9372020363807678, 0.9536412954330444, 0.9605457782745361, 0.9628472924232483, 0.9528193473815918, 0.9621897339820862, 0.9654775857925415, 0.964326798915863]</t>
+  </si>
+  <si>
+    <t>[0.8309565782546997, 0.8953693509101868, 0.9014580845832825, 0.9081878066062927, 0.9176414012908936, 0.9213266968727112, 0.9254927039146423, 0.9264540672302246, 0.9389520883560181, 0.9375100135803223, 0.9452010989189148, 0.9397532343864441, 0.9472841024398804, 0.9543342590332031, 0.9461624622344971, 0.9500080347061157, 0.9601025581359863, 0.9535331130027771, 0.9556161165237427]</t>
+  </si>
+  <si>
+    <t>[0.8419557213783264, 0.8898026347160339, 0.9005681872367859, 0.9134270548820496, 0.9168660044670105, 0.9235944747924805, 0.9270334839820862, 0.926734447479248, 0.9363038539886475, 0.9354066848754883, 0.9433313608169556, 0.9452751278877258, 0.9454246163368225, 0.9527512192726135, 0.9529007077217102, 0.9542464017868042, 0.9614234566688538, 0.9614234566688538, 0.9590311050415039, 0.9669557213783264, 0.9671052694320679]</t>
+  </si>
+  <si>
+    <t>[0.8202580213546753, 0.8892184495925903, 0.8990063667297363, 0.9068663716316223, 0.9105738997459412, 0.9205101728439331, 0.9259973168373108, 0.9294082522392273, 0.9338573217391968, 0.9452765583992004, 0.9448316693305969, 0.943793535232544, 0.9472045302391052, 0.9482426047325134, 0.9543229937553406, 0.9624795913696289, 0.9602550864219666, 0.9658905267715454, 0.9601067900657654, 0.9693015217781067, 0.9700430035591125, 0.9615898132324219, 0.9694498181343079, 0.9704878926277161, 0.972564160823822, 0.9698947072029114, 0.9728607535362244, 0.9758267998695374, 0.9722675085067749, 0.9773098230361938, 0.9776064157485962, 0.9798309206962585, 0.975530207157135]</t>
+  </si>
+  <si>
+    <t>[0.8360357284545898, 0.8876571655273438, 0.8921244144439697, 0.9046988487243652, 0.9093315601348877, 0.915453314781189, 0.917438805103302, 0.9202514886856079, 0.9300132393836975, 0.9348113536834717, 0.9424222111701965, 0.9394440650939941, 0.942918598651886, 0.9417604207992554, 0.9478821754455566, 0.9540039896965027, 0.9546657800674438, 0.9541694521903992, 0.9589675664901733, 0.9621111750602722, 0.960125744342804, 0.9632693529129028]</t>
+  </si>
+  <si>
+    <t>[0.8546178340911865, 0.9038216471672058, 0.9106687903404236, 0.925000011920929, 0.9310509562492371, 0.9315286874771118, 0.9431528449058533, 0.9449044466018677, 0.9461783170700073, 0.9520700573921204, 0.9535031914710999, 0.9578025341033936, 0.9598726034164429, 0.9641719460487366, 0.959554135799408, 0.9708598852157593, 0.9695860147476196, 0.9692674875259399, 0.9716560244560242, 0.9703821539878845, 0.9792993664741516, 0.9756369590759277, 0.9761146306991577, 0.9785031676292419, 0.9767515659332275]</t>
+  </si>
+  <si>
+    <t>[0.8325483202934265, 0.8923177123069763, 0.9046613574028015, 0.9127821922302246, 0.9215527176856995, 0.9272372722625732, 0.9316225647926331, 0.9348708987236023, 0.9373071193695068, 0.9431541562080383, 0.9416924118995667, 0.9498132467269897, 0.953548789024353, 0.9503004550933838, 0.9548481106758118, 0.9577716588973999, 0.957446813583374, 0.966379702091217, 0.9675166606903076, 0.9675166606903076, 0.9714146256446838, 0.970440149307251, 0.9735260605812073, 0.9736884832382202, 0.9717394709587097, 0.9735260605812073, 0.974338173866272, 0.9764495491981506]</t>
+  </si>
+  <si>
+    <t>[0.838724672794342, 0.8969199657440186, 0.9122427105903625, 0.9212196469306946, 0.928648829460144, 0.9308156371116638, 0.9377805590629578, 0.938399612903595, 0.9472218155860901, 0.9495434165000916, 0.9544962048530579, 0.9540318846702576, 0.9543414115905762, 0.9619253873825073, 0.9611515402793884, 0.9667234420776367, 0.9661043286323547, 0.9662591218948364, 0.9746169447898865, 0.9726048707962036, 0.9739978313446045, 0.9739978313446045, 0.9733787178993225]</t>
+  </si>
+  <si>
+    <t>[0.8435908555984497, 0.8946602940559387, 0.9093554615974426, 0.9157572984695435, 0.9198312163352966, 0.9269605875015259, 0.9282700419425964, 0.9319074749946594, 0.935253918170929, 0.9416557550430298, 0.9438381791114807, 0.949367105960846, 0.9521315097808838, 0.9575149416923523, 0.95562344789505, 0.9604248404502869, 0.9621708393096924, 0.9642077684402466, 0.9658082127571106, 0.9688636660575867, 0.9701731204986572, 0.9668267369270325, 0.9704641103744507]</t>
+  </si>
+  <si>
+    <t>[0.8191254138946533, 0.8822528719902039, 0.89348304271698, 0.9030117392539978, 0.9067551493644714, 0.919176459312439, 0.9218989014625549, 0.9261528253555298, 0.9361919164657593, 0.9344903826713562, 0.9407861232757568, 0.9498043060302734, 0.9525268077850342, 0.9462310671806335, 0.9520163536071777, 0.9567806720733643, 0.951846182346344, 0.9591628313064575, 0.9601837396621704]</t>
+  </si>
+  <si>
+    <t>[0.8342168927192688, 0.8809638619422913, 0.9013654589653015, 0.9044176936149597, 0.9124497771263123, 0.9130923748016357, 0.9254618287086487, 0.9296385645866394, 0.9373493790626526, 0.9391164779663086, 0.9378313422203064, 0.9447389841079712, 0.9495582580566406, 0.9487550258636475, 0.9575903415679932, 0.9596787095069885, 0.9545381665229797, 0.9609638452529907, 0.9686747193336487, 0.9665863513946533, 0.9646586179733276, 0.9649799466133118, 0.9628915786743164, 0.9718875288963318, 0.9701204895973206, 0.9741365313529968, 0.9752610325813293]</t>
+  </si>
+  <si>
+    <t>[0.8444725871086121, 0.9049730896949768, 0.911149799823761, 0.9242952466011047, 0.9195438623428345, 0.9355400800704956, 0.9390243887901306, 0.9414000511169434, 0.9450427889823914, 0.9497941136360168, 0.9562876224517822, 0.9543870687484741, 0.9578713774681091, 0.9640481472015381, 0.9651567935943604, 0.9640481472015381, 0.9686411023139954]</t>
+  </si>
+  <si>
+    <t>[0.8243005871772766, 0.8808952569961548, 0.8917666077613831, 0.8988009691238403, 0.9091926217079163, 0.9199040532112122, 0.9234212636947632, 0.9298161268234253, 0.9285371899604797, 0.9306154847145081, 0.9400479793548584, 0.9453237652778625, 0.9469224810600281, 0.9453237652778625, 0.9549160599708557, 0.9581134915351868, 0.9568345546722412, 0.9542765617370605, 0.9617905616760254, 0.9657873511314392, 0.9664268493652344, 0.9723421335220337, 0.9696242809295654, 0.9720223546028137, 0.9728217720985413, 0.9744204878807068, 0.9780974984169006]</t>
+  </si>
+  <si>
+    <t>[0.8115280866622925, 0.8749154806137085, 0.8960446119308472, 0.9033130407333374, 0.912609875202179, 0.9168357253074646, 0.9192021489143372, 0.9322177171707153, 0.9335699677467346, 0.9337390065193176, 0.9371196627616882, 0.9464164972305298, 0.9475997090339661, 0.953346848487854, 0.9440500140190125, 0.9496281147003174, 0.9565584659576416, 0.9612914323806763, 0.9648411273956299, 0.9694049954414368]</t>
+  </si>
+  <si>
+    <t>[0.8349419236183167, 0.8784557580947876, 0.895632266998291, 0.9036479592323303, 0.904465913772583, 0.9061017632484436, 0.9191886186599731, 0.9224603176116943, 0.9234418272972107, 0.9345656633377075, 0.9342384934425354, 0.9296581149101257, 0.9327662587165833, 0.9368558526039124, 0.9362015128135681, 0.942090630531311, 0.9468346238136292, 0.9533780217170715, 0.9371830821037292, 0.9484704732894897, 0.9501063227653503, 0.9604122638702393, 0.9630296230316162, 0.9581220149993896, 0.9636839628219604, 0.9597578644752502, 0.965319812297821, 0.9599214792251587, 0.9684279561042786]</t>
+  </si>
+  <si>
+    <t>[0.8358644247055054, 0.8840312957763672, 0.8982973098754883, 0.9044331908226013, 0.9137904644012451, 0.9176254272460938, 0.9254487156867981, 0.9297438263893127, 0.9366466999053955, 0.9363399147987366, 0.9426292181015015, 0.9526001214981079, 0.9473845958709717, 0.9518331289291382, 0.9535204768180847, 0.9582757949829102, 0.9561282396316528, 0.9625709652900696, 0.9627243280410767, 0.9667127132415771]</t>
+  </si>
+  <si>
+    <t>[0.8348962068557739, 0.9000334739685059, 0.907066285610199, 0.920629620552063, 0.9318486452102661, 0.9295043349266052, 0.9363697171211243, 0.9383791089057922, 0.9457468390464783, 0.9475887417793274, 0.9506028294563293, 0.9579704999923706, 0.9551239013671875, 0.9576356410980225, 0.9626590609550476, 0.9663429260253906, 0.9678499698638916, 0.9680173993110657, 0.9717012643814087, 0.9757200479507446, 0.9768921732902527, 0.9733757376670837, 0.9767247438430786]</t>
+  </si>
+  <si>
+    <t>[0.8399556875228882, 0.897261381149292, 0.9075510501861572, 0.9159411191940308, 0.922114908695221, 0.9254392981529236, 0.9330378174781799, 0.9325629472732544, 0.9433275461196899, 0.9441190361976624, 0.9495013356208801, 0.9520341753959656, 0.9499762654304504, 0.953933835029602, 0.962482213973999, 0.9634320139884949, 0.9645401239395142, 0.9661231637001038, 0.9670729637145996, 0.9697641134262085, 0.9708722233772278, 0.9756213426589966, 0.9721387028694153, 0.9653316736221313, 0.972296953201294, 0.9779958724975586, 0.9797372221946716, 0.9784708023071289, 0.9767294526100159, 0.9762545228004456, 0.978154182434082, 0.9832198619842529, 0.9803704023361206, 0.9775210022926331, 0.9827449917793274]</t>
+  </si>
+  <si>
+    <t>[0.8426544666290283, 0.8976031541824341, 0.909342885017395, 0.9158650040626526, 0.9202674031257629, 0.9253220558166504, 0.9377139806747437, 0.9341268539428711, 0.941301167011261, 0.9434208273887634, 0.954834520816803, 0.9549975395202637, 0.951084315776825, 0.9608674645423889, 0.9592369198799133, 0.9608674645423889, 0.9682047963142395, 0.9667373299598694, 0.9701614379882812, 0.9708136320114136, 0.9657589793205261, 0.9713028073310852]</t>
+  </si>
+  <si>
+    <t>[0.847984790802002, 0.8944779634475708, 0.9065375924110413, 0.9193906784057617, 0.9197080135345459, 0.931609034538269, 0.9320850372314453, 0.9370041489601135, 0.934465229511261, 0.9433513283729553, 0.9466835856437683, 0.9460488557815552, 0.9533481597900391, 0.9516026377677917, 0.9585845470428467, 0.960330069065094, 0.9589019417762756, 0.9614408016204834, 0.9722310304641724, 0.9665185809135437, 0.9654077887535095, 0.9692161083221436, 0.9682640433311462, 0.9676293134689331, 0.9717550277709961, 0.9763566851615906, 0.9742938876152039, 0.9765154123306274]</t>
+  </si>
+  <si>
+    <t>[0.8377589583396912, 0.8896994590759277, 0.9032681584358215, 0.9131893515586853, 0.9099795818328857, 0.923256516456604, 0.9258826971054077, 0.9301137924194336, 0.9330317974090576, 0.936971127986908, 0.9466004967689514, 0.9439743161201477, 0.9466004967689514, 0.9489349126815796, 0.9482054114341736, 0.9585643410682678, 0.9604610204696655, 0.965275764465332, 0.9626495242118835, 0.9627954363822937]</t>
+  </si>
+  <si>
+    <t>[0.8362736105918884, 0.8943051695823669, 0.907459020614624, 0.9179820418357849, 0.9182915687561035, 0.9289693832397461, 0.9336118698120117, 0.9345403909683228, 0.9441349506378174, 0.9436706900596619, 0.9459919333457947, 0.9515630006790161, 0.9552770256996155, 0.9617765545845032, 0.9569792747497559, 0.9552770256996155, 0.9611575603485107, 0.9654905796051025, 0.9682760834693909, 0.967038094997406, 0.9710615873336792]</t>
+  </si>
+  <si>
+    <t>[0.9139297604560852, 0.9144960641860962, 0.9139297604560852, 0.9207248091697693, 0.9286523461341858, 0.9218572974205017, 0.9297848343849182, 0.92582106590271, 0.9173272848129272, 0.9212910532951355, 0.9077010154724121, 0.9212910532951355, 0.9303510785102844, 0.9190260767936707, 0.9207248091697693, 0.9020385146141052, 0.9224235415458679, 0.9280860424041748, 0.8674971461296082, 0.9139297604560852, 0.9263873100280762, 0.9246885776519775, 0.9190260767936707, 0.9275197982788086, 0.9224235415458679, 0.9246885776519775, 0.92582106590271, 0.9122310280799866]</t>
+  </si>
+  <si>
+    <t>[0.8785648345947266, 0.8988040685653687, 0.8969641327857971, 0.899724006652832, 0.8877645134925842, 0.8969641327857971, 0.9015639424324036, 0.896044135093689, 0.899724006652832, 0.8978840708732605, 0.8988040685653687, 0.9034038782119751, 0.9015639424324036, 0.8951241970062256, 0.8978840708732605, 0.896044135093689, 0.8978840708732605, 0.8942042589187622, 0.889604389667511, 0.8850045800209045, 0.9024838805198669, 0.8942042589187622, 0.883164644241333, 0.8850045800209045, 0.8822447061538696, 0.8804047703742981, 0.8712051510810852]</t>
+  </si>
+  <si>
+    <t>[0.9154460430145264, 0.9320905208587646, 0.9320905208587646, 0.9354194402694702, 0.9260985255241394, 0.9387483596801758, 0.9347536563873291, 0.9320905208587646, 0.9380825757980347, 0.9300932288169861, 0.9267643094062805, 0.9394141435623169, 0.9327563047409058, 0.9300932288169861, 0.934087872505188, 0.9314247965812683, 0.9327563047409058, 0.9314247965812683, 0.9300932288169861, 0.9280958771705627, 0.9074566960334778, 0.9141145348548889, 0.919440746307373, 0.919440746307373, 0.9141145348548889, 0.9260985255241394, 0.9280958771705627]</t>
+  </si>
+  <si>
+    <t>[0.9127324819564819, 0.9005722403526306, 0.8905579447746277, 0.8869814276695251, 0.8962804079055786, 0.8876966834068298, 0.8927038908004761, 0.8919885754585266, 0.9020028710365295, 0.8905579447746277, 0.8848354816436768, 0.8919885754585266, 0.8712446093559265, 0.8905579447746277, 0.8927038908004761, 0.8941344618797302]</t>
+  </si>
+  <si>
+    <t>[0.8430089950561523, 0.8560915589332581, 0.8258380889892578, 0.8462796211242676, 0.8503679633140564, 0.8315617442131042, 0.8356500267982483, 0.8618152141571045, 0.852003276348114, 0.8340147137641907, 0.8495503067970276, 0.8511856198310852, 0.8503679633140564, 0.8552739024162292, 0.8511856198310852, 0.8479149341583252, 0.8593622446060181, 0.8274734020233154, 0.8462796211242676, 0.8585445880889893, 0.8569092154502869, 0.8487326502799988, 0.8528209328651428]</t>
+  </si>
+  <si>
+    <t>[0.867132842540741, 0.8868404030799866, 0.8817546367645264, 0.8900190591812134, 0.8925619721412659, 0.8919262290000916, 0.8792117238044739, 0.8887476325035095, 0.8836618065834045, 0.8798474073410034, 0.8766688108444214, 0.8989192843437195, 0.8931977152824402, 0.8951048851013184, 0.8906548023223877, 0.8881118893623352, 0.8881118893623352, 0.8830260634422302, 0.8626827597618103, 0.8626827597618103, 0.8785759806632996, 0.8849332332611084, 0.8842975497245789, 0.8817546367645264, 0.8849332332611084, 0.9027336239814758, 0.8684043288230896, 0.8855689764022827, 0.8836618065834045, 0.8779402375221252, 0.8817546367645264, 0.8893833160400391, 0.8798474073410034, 0.8976477980613708, 0.8906548023223877, 0.8855689764022827, 0.8830260634422302, 0.8773044943809509, 0.886204719543457, 0.8925619721412659, 0.8951048851013184]</t>
+  </si>
+  <si>
+    <t>[0.9050235748291016, 0.9026687741279602, 0.8940345644950867, 0.9113029837608337, 0.9105180501937866, 0.9105180501937866, 0.9097331166267395, 0.9081632494926453, 0.9026687741279602, 0.912872850894928, 0.8799058198928833, 0.9073783159255981, 0.9152276515960693, 0.9042386412620544, 0.9097331166267395, 0.906593382358551, 0.9089481830596924, 0.9089481830596924, 0.8971742391586304, 0.8877550959587097, 0.8924646973609924, 0.9034537076950073, 0.9026687741279602, 0.8995290398597717, 0.9034537076950073, 0.9026687741279602, 0.8932496309280396, 0.8979591727256775]</t>
+  </si>
+  <si>
+    <t>[0.8779411911964417, 0.8999999761581421, 0.8911764621734619, 0.8897058963775635, 0.8860294222831726, 0.8948529362678528, 0.8772059082984924, 0.8882352709770203, 0.8852941393852234, 0.883088231086731, 0.8823529481887817, 0.8698529601097107, 0.8705882430076599, 0.8794117569923401, 0.8610293865203857, 0.8720588088035583, 0.875]</t>
+  </si>
+  <si>
+    <t>[0.8474576473236084, 0.876140832901001, 0.8878748416900635, 0.8800521492958069, 0.8898305296897888, 0.8846153616905212, 0.8826597332954407, 0.8924380540847778, 0.8885267376899719, 0.8715775609016418, 0.8722294569015503, 0.8748370409011841, 0.8572359681129456, 0.8800521492958069, 0.8924380540847778, 0.8774445652961731, 0.8722294569015503, 0.887222945690155, 0.8826597332954407, 0.8911342620849609, 0.8676662445068359, 0.8748370409011841, 0.876140832901001]</t>
+  </si>
+  <si>
+    <t>[0.8956692814826965, 0.8897637724876404, 0.8858267664909363, 0.8838582634925842, 0.8963254690170288, 0.8707349300384521, 0.8956692814826965, 0.8930445909500122, 0.862860918045044, 0.883202075958252, 0.8845144510269165, 0.8858267664909363, 0.8910760879516602, 0.8582677245140076, 0.8779527544975281, 0.8772965669631958, 0.885170578956604, 0.8818897604942322, 0.8779527544975281, 0.8654855489730835]</t>
+  </si>
+  <si>
+    <t>[0.8605414032936096, 0.8597210645675659, 0.8547990322113037, 0.8547990322113037, 0.8556193709373474, 0.8695651888847351, 0.8572600483894348, 0.8523379564285278, 0.8547990322113037, 0.8662838339805603, 0.8662838339805603, 0.8392124772071838, 0.8531583547592163, 0.8523379564285278, 0.8498769402503967, 0.844134509563446, 0.8580803871154785, 0.8498769402503967, 0.8556193709373474, 0.8564397096633911, 0.8433141708374023]</t>
+  </si>
+  <si>
+    <t>[0.9220489859580994, 0.929287314414978, 0.9281737208366394, 0.9309576749801636, 0.9365255832672119, 0.9342984557151794, 0.9270601272583008, 0.9326280355453491, 0.9320712685585022, 0.9309576749801636, 0.9242761731147766, 0.9331848621368408, 0.9287304878234863, 0.9315145015716553, 0.9348552227020264, 0.9337416291236877, 0.9354120492935181, 0.9309576749801636, 0.929287314414978, 0.9315145015716553]</t>
+  </si>
+  <si>
+    <t>[0.8709677457809448, 0.8743633031845093, 0.8658743500709534, 0.8760611414909363, 0.8667232394218445, 0.8718166351318359, 0.8667232394218445, 0.8718166351318359, 0.8624787926673889, 0.8794566988945007, 0.8752122521400452, 0.8769100308418274, 0.8675721287727356, 0.8786078095436096, 0.8760611414909363, 0.872665524482727, 0.8658743500709534, 0.8667232394218445, 0.872665524482727, 0.853989839553833, 0.8471986651420593, 0.8684210777282715, 0.8709677457809448, 0.8310695886611938, 0.8735144138336182]</t>
+  </si>
+  <si>
+    <t>[0.9296210408210754, 0.9350348114967346, 0.9319412112236023, 0.9396751523017883, 0.9412219524383545, 0.9373549818992615, 0.924980640411377, 0.9373549818992615, 0.9327146410942078, 0.9288476705551147, 0.9334880113601685, 0.9327146410942078, 0.9412219524383545, 0.9365816116333008, 0.9242072701454163, 0.9342613816261292, 0.9048724174499512, 0.9288476705551147, 0.9226604700088501, 0.924980640411377]</t>
+  </si>
+  <si>
+    <t>[0.8659710884094238, 0.9012840986251831, 0.9060994982719421, 0.910914957523346, 0.910914957523346, 0.9141252040863037, 0.9069020748138428, 0.9141252040863037, 0.9173354506492615, 0.9117174744606018, 0.9173354506492615, 0.9229534268379211, 0.9149277806282043, 0.9093098044395447, 0.9052969217300415, 0.8956661224365234, 0.910914957523346, 0.9149277806282043, 0.9149277806282043, 0.903691828250885, 0.9101123809814453, 0.898876428604126, 0.9149277806282043, 0.9093098044395447, 0.9165329337120056, 0.9069020748138428, 0.9165329337120056]</t>
+  </si>
+  <si>
+    <t>[0.9274643659591675, 0.9311841130256653, 0.9305641651153564, 0.9398636221885681, 0.9299442172050476, 0.9231246113777161, 0.934283971786499, 0.9299442172050476, 0.934283971786499, 0.9243645668029785, 0.9249845147132874, 0.9268444180488586, 0.917544960975647, 0.9305641651153564, 0.9206447601318359, 0.9380037188529968, 0.9318041205406189, 0.9392436742782593, 0.9367638230323792]</t>
+  </si>
+  <si>
+    <t>[0.908818244934082, 0.9076184630393982, 0.9202159643173218, 0.9160168170928955, 0.9208158254623413, 0.8908218145370483, 0.9064187407493591, 0.9070186018943787, 0.8788242340087891, 0.8956208825111389, 0.8938212394714355, 0.9148170351982117, 0.9178164601325989, 0.9058188199996948, 0.8944211006164551, 0.8764247298240662, 0.9130173921585083, 0.8824235200881958, 0.9040191769599915, 0.8908218145370483]</t>
+  </si>
+  <si>
+    <t>[0.9267643094062805, 0.9260985255241394, 0.929427444934845, 0.9267643094062805, 0.9267643094062805, 0.9307590126991272, 0.9267643094062805, 0.9280958771705627, 0.9167776107788086, 0.9207723140716553, 0.9227696657180786, 0.9221038818359375, 0.90878826379776, 0.9174433946609497, 0.9201065301895142, 0.9174433946609497, 0.9181091785430908, 0.9161118268966675, 0.9201065301895142, 0.9141145348548889, 0.9114513993263245]</t>
+  </si>
+  <si>
+    <t>[0.8663594722747803, 0.8525345325469971, 0.8451613187789917, 0.8202764987945557, 0.8405529856681824, 0.8018433451652527, 0.8396313190460205, 0.8359447121620178, 0.8285714387893677, 0.8119815587997437, 0.8036866188049316, 0.8285714387893677, 0.8129032254219055, 0.8248847723007202, 0.8341013789176941, 0.8313363790512085]</t>
+  </si>
+  <si>
+    <t>[0.8684009313583374, 0.8821729421615601, 0.8898240327835083, 0.8768171668052673, 0.8898240327835083, 0.8852333426475525, 0.8852333426475525, 0.8967100381851196, 0.8844682574272156, 0.8798775672912598, 0.8775822520256042, 0.8768171668052673, 0.8921193480491638, 0.8737567067146301, 0.8852333426475525, 0.8921193480491638, 0.8729915618896484, 0.8844682574272156, 0.8890588879585266, 0.8898240327835083, 0.8821729421615601, 0.8814077973365784, 0.8798775672912598]</t>
+  </si>
+  <si>
+    <t>[0.8756319284439087, 0.8776541948318481, 0.8766430616378784, 0.8796764612197876, 0.882709801197052, 0.8705763220787048, 0.8796764612197876, 0.8725985884666443, 0.8796764612197876, 0.8806875348091125, 0.8806875348091125, 0.8685541152954102, 0.8715874552726746, 0.8715874552726746, 0.8725985884666443, 0.8543983697891235, 0.8776541948318481, 0.8665318489074707, 0.8746208548545837, 0.8554095029830933]</t>
+  </si>
+  <si>
+    <t>[0.8855751752853394, 0.8800973892211914, 0.8971393704414368, 0.8880097270011902, 0.8813146948814392, 0.8928788900375366, 0.8916615843772888, 0.8746196031570435, 0.8971393704414368, 0.8800973892211914, 0.8831406235694885, 0.8807060122489929, 0.8831406235694885, 0.8776628375053406, 0.8825319409370422, 0.8758369088172913, 0.8867924809455872, 0.8898356556892395]</t>
+  </si>
+  <si>
+    <t>[0.9025341272354126, 0.8914879560470581, 0.8869395852088928, 0.8940870761871338, 0.897335946559906, 0.8726446032524109, 0.8849902749061584, 0.890188455581665, 0.890188455581665, 0.8940870761871338, 0.8914879560470581, 0.8719947934150696, 0.8849902749061584, 0.8830409646034241, 0.8622482419013977, 0.8908382058143616]</t>
+  </si>
+  <si>
+    <t>[0.910941481590271, 0.9007633328437805, 0.9045801758766174, 0.9020355939865112, 0.9058524370193481, 0.9083969593048096, 0.9020355939865112, 0.9128498435020447, 0.9141221642494202, 0.8982188105583191, 0.9033079147338867, 0.9052162766456604, 0.9058524370193481, 0.9083969593048096, 0.9096692204475403, 0.9128498435020447, 0.910941481590271, 0.9090330600738525, 0.9128498435020447, 0.9185750484466553, 0.9090330600738525, 0.9147582650184631, 0.9185750484466553, 0.9058524370193481, 0.9052162766456604, 0.910941481590271, 0.9243002533912659, 0.9096692204475403, 0.9064885377883911, 0.9096692204475403, 0.8924936652183533, 0.911577582359314, 0.9090330600738525, 0.9128498435020447, 0.9096692204475403, 0.9204834699630737, 0.9141221642494202, 0.910941481590271, 0.9013994932174683, 0.9083969593048096, 0.9064885377883911, 0.9007633328437805]</t>
+  </si>
+  <si>
+    <t>[0.9283545613288879, 0.9344262480735779, 0.9131754636764526, 0.933819055557251, 0.9429265260696411, 0.9398906826972961, 0.9228901267051697, 0.9319975972175598, 0.9313904047012329, 0.9234972596168518, 0.9289617538452148, 0.9241044521331787, 0.9271402359008789, 0.9283545613288879, 0.9156041145324707, 0.9265331029891968, 0.9052823185920715, 0.9077109694480896, 0.9180327653884888, 0.9277474284172058]</t>
+  </si>
+  <si>
+    <t>[0.9003957509994507, 0.9056728482246399, 0.9116094708442688, 0.9096305966377258, 0.9155672788619995, 0.9129287600517273, 0.9116094708442688, 0.9102902412414551, 0.9116094708442688, 0.9234828352928162, 0.9142480492591858, 0.9089709520339966, 0.9155672788619995, 0.9149076342582703, 0.9142480492591858, 0.9109498858451843, 0.9149076342582703, 0.9096305966377258, 0.9050132036209106, 0.9089709520339966, 0.8984168767929077, 0.9175461530685425, 0.916886568069458, 0.9043535590171814, 0.9162269234657288]</t>
+  </si>
+  <si>
+    <t>[0.8773885369300842, 0.875, 0.8710191249847412, 0.8757961988449097, 0.8638535141944885, 0.8630573153495789, 0.8598726391792297, 0.8519108295440674, 0.8558917045593262, 0.8558917045593262, 0.8614649772644043, 0.8598726391792297, 0.8574841022491455, 0.8590764403343201, 0.8566879034042358, 0.8495222926139832]</t>
+  </si>
+  <si>
+    <t>[0.919747531414032, 0.9368800520896912, 0.9341749548912048, 0.9269612431526184, 0.935978353023529, 0.9305680990219116, 0.935978353023529, 0.9314697980880737, 0.9305680990219116, 0.9251577854156494, 0.9233543872833252, 0.917944073677063, 0.9368800520896912, 0.9215509295463562, 0.9296663403511047, 0.9278629422187805, 0.9305680990219116]</t>
+  </si>
+  <si>
+    <t>[0.8956043720245361, 0.9084249138832092, 0.9120879173278809, 0.9053723812103271, 0.910866916179657, 0.916361391544342, 0.9133089184761047, 0.9230769276618958, 0.9084249138832092, 0.9047619104385376, 0.9078143835067749, 0.910866916179657, 0.9145299196243286, 0.9053723812103271, 0.9139193892478943, 0.9047619104385376, 0.9169719219207764, 0.9072039127349854, 0.9126983880996704, 0.9102563858032227, 0.8980463743209839, 0.9053723812103271, 0.9041513800621033]</t>
+  </si>
+  <si>
+    <t>[0.917711615562439, 0.917711615562439, 0.9216300845146179, 0.9137930870056152, 0.9161441922187805, 0.917711615562439, 0.9098746180534363, 0.9098746180534363, 0.9098746180534363, 0.9130094051361084, 0.9067398309707642, 0.9153605103492737, 0.9130094051361084, 0.9051724076271057, 0.9106582999229431, 0.907523512840271, 0.917711615562439, 0.9137930870056152]</t>
+  </si>
+  <si>
+    <t>[0.9151343703269958, 0.907355010509491, 0.908769428730011, 0.9179632067680359, 0.9144271612167358, 0.9123055338859558, 0.9257425665855408, 0.9052333831787109, 0.9151343703269958, 0.9045261740684509, 0.9271569848060608, 0.894625186920166, 0.905940592288971, 0.9179632067680359, 0.910183846950531, 0.9130127429962158, 0.9052333831787109, 0.9207921028137207, 0.896746814250946, 0.908769428730011, 0.9165487885475159, 0.9108911156654358, 0.893917977809906, 0.9285714030265808, 0.9137199521064758, 0.8896746635437012, 0.9130127429962158, 0.909476637840271, 0.9052333831787109, 0.908062219619751, 0.8995756506919861, 0.9115983247756958, 0.907355010509491, 0.8903818726539612, 0.9009901285171509, 0.905940592288971, 0.9158415794372559, 0.8896746635437012, 0.908062219619751]</t>
+  </si>
+  <si>
+    <t>[0.8632606863975525, 0.8880540728569031, 0.8790383338928223, 0.8835462331771851, 0.8910593390464783, 0.8647633194923401, 0.8760330677032471, 0.8805409669876099, 0.8895567059516907, 0.8715251684188843, 0.8850488066673279, 0.8865514397621155, 0.8850488066673279, 0.8782870173454285, 0.8850488066673279, 0.8685199022293091, 0.8662659525871277, 0.8752817511558533, 0.8730278015136719, 0.8760330677032471]</t>
+  </si>
+  <si>
+    <t>[0.8745275735855103, 0.884353756904602, 0.9009826183319092, 0.906273603439331, 0.8904005885124207, 0.8904005885124207, 0.8866212964057922, 0.9040060639381409, 0.8919123411178589, 0.8775510191917419, 0.8911564350128174, 0.8926681876182556, 0.9002267718315125, 0.896447479724884, 0.8896447420120239, 0.8813303112983704, 0.8972033262252808, 0.8798186182975769, 0.8904005885124207]</t>
+  </si>
+  <si>
+    <t>[0.9103585481643677, 0.9116865992546082, 0.9150066375732422, 0.9070385098457336, 0.9203187227249146, 0.9077025055885315, 0.9163346886634827, 0.9203187227249146, 0.9110226035118103, 0.9269588589668274, 0.9116865992546082, 0.9176626801490784, 0.9249668121337891, 0.9163346886634827, 0.9136786460876465, 0.9183266758918762, 0.892430305480957, 0.9196547269821167, 0.9183266758918762, 0.9010624289512634, 0.9010624289512634, 0.8990703821182251, 0.91567063331604, 0.9256308078765869, 0.9083665609359741]</t>
+  </si>
+  <si>
+    <t>[0.8312447667121887, 0.8078529834747314, 0.8162071704864502, 0.8120300769805908, 0.811194658279419, 0.8120300769805908, 0.8053467273712158, 0.8011695742607117, 0.8187134265899658, 0.7936508059501648, 0.8120300769805908, 0.7811194658279419, 0.7961570620536804, 0.8262322545051575, 0.8203843235969543, 0.8003341555595398]</t>
+  </si>
+  <si>
+    <t>[0.9136690497398376, 0.9201439023017883, 0.931654691696167, 0.9237409830093384, 0.9273381233215332, 0.9244604110717773, 0.9215827584266663, 0.9194244742393494, 0.9287769794464111, 0.9215827584266663, 0.9244604110717773, 0.9251798391342163, 0.9215827584266663, 0.9237409830093384, 0.9223021864891052, 0.9258992671966553, 0.9244604110717773, 0.9230215549468994]</t>
+  </si>
+  <si>
+    <t>[0.8877624869346619, 0.8957277536392212, 0.9029688835144043, 0.9007965326309204, 0.8935554027557373, 0.8971759676933289, 0.895003616809845, 0.9051411747932434, 0.8921071887016296, 0.895003616809845, 0.8884866237640381, 0.8986241817474365, 0.8986241817474365, 0.9029688835144043, 0.9073135256767273, 0.8892107009887695, 0.8899348378181458, 0.8921071887016296, 0.8986241817474365, 0.8942794799804688, 0.8979000449180603, 0.8928312659263611, 0.8913830518722534, 0.9015206098556519, 0.9015206098556519, 0.9000723958015442, 0.9022447466850281, 0.8935554027557373, 0.8892107009887695, 0.8906589150428772]</t>
+  </si>
+  <si>
+    <t>[0.9164619445800781, 0.9201474189758301, 0.9330466985702515, 0.934275209903717, 0.9281326532363892, 0.9262899160385132, 0.914004921913147, 0.9305896759033203, 0.9275184273719788, 0.921990156173706, 0.9336609244346619, 0.921990156173706, 0.9305896759033203, 0.9146191477775574, 0.9201474189758301, 0.9170761704444885, 0.9201474189758301, 0.9213759303092957, 0.9189189076423645]</t>
+  </si>
+  <si>
+    <t>[0.8582145571708679, 0.8709677457809448, 0.8784696459770203, 0.8507126569747925, 0.8634658455848694, 0.858964741230011, 0.8739684820175171, 0.8162040710449219, 0.8702175617218018, 0.8679670095443726, 0.8799700140953064, 0.8694673776626587, 0.8649662137031555, 0.8649662137031555, 0.831207811832428, 0.8619654774665833, 0.8777194023132324, 0.8874718546867371, 0.831207811832428, 0.8537134528160095, 0.8784696459770203, 0.8739684820175171, 0.8529632687568665, 0.8537134528160095, 0.8192048072814941, 0.872468113899231, 0.8582145571708679, 0.8559640049934387, 0.844711184501648, 0.8657164573669434, 0.8342085480690002, 0.8297074437141418, 0.858964741230011]</t>
+  </si>
+  <si>
+    <t>[0.9029896259307861, 0.9029896259307861, 0.9054301381111145, 0.9127516746520996, 0.9158022999763489, 0.9066504240036011, 0.9048200249671936, 0.9103111624717712, 0.9109212756156921, 0.9164124727249146, 0.9060402512550354, 0.9109212756156921, 0.9115314483642578, 0.9078706502914429, 0.9048200249671936, 0.9060402512550354, 0.8883465528488159, 0.9054301381111145, 0.9090909361839294, 0.9054301381111145, 0.8999390006065369, 0.9084807634353638, 0.8987187147140503, 0.9017693996429443, 0.9164124727249146]</t>
+  </si>
+  <si>
+    <t>[0.9050235748291016, 0.9120879173278809, 0.9230769276618958, 0.9199371933937073, 0.918367326259613, 0.9167974591255188, 0.9238618612289429, 0.9270015954971313, 0.9191522598266602, 0.9050235748291016, 0.9222919940948486, 0.9199371933937073, 0.9073783159255981, 0.8979591727256775, 0.9120879173278809, 0.8995290398597717, 0.9105180501937866, 0.9207221269607544, 0.901098906993866, 0.9215070605278015, 0.8932496309280396, 0.901098906993866, 0.9199371933937073]</t>
+  </si>
+  <si>
+    <t>[0.9014454483985901, 0.8942181468009949, 0.9034165740013123, 0.9027595520019531, 0.9047306180000305, 0.8968462347984314, 0.8981603384017944, 0.9073587656021118, 0.900788426399231, 0.9073587656021118, 0.9106438755989075, 0.9034165740013123, 0.9067016839981079, 0.9126150012016296, 0.908015787601471, 0.9198423027992249, 0.9073587656021118, 0.9139290452003479, 0.9113008975982666, 0.9034165740013123, 0.8981603384017944, 0.9191852807998657, 0.908015787601471, 0.9106438755989075, 0.8988173604011536, 0.9191852807998657, 0.9021024703979492, 0.9296977519989014, 0.9086728096008301, 0.9165571331977844, 0.9034165740013123, 0.9034165740013123, 0.9119579792022705, 0.900788426399231, 0.9198423027992249, 0.9178712368011475, 0.9093298316001892, 0.9014454483985901, 0.9021024703979492, 0.8968462347984314, 0.9053876399993896, 0.8988173604011536, 0.9027595520019531]</t>
+  </si>
+  <si>
+    <t>[0.9178674221038818, 0.930115282535553, 0.9193083643913269, 0.909221887588501, 0.9293948411941528, 0.9272334575653076, 0.9193083643913269, 0.9279538989067078, 0.9193083643913269, 0.9164265394210815, 0.9250720739364624, 0.920028805732727, 0.9229106903076172, 0.9250720739364624, 0.9250720739364624, 0.920749306678772, 0.920028805732727]</t>
+  </si>
+  <si>
+    <t>[0.9085502028465271, 0.9152416586875916, 0.9174721240997314, 0.9234200716018677, 0.9182156324386597, 0.9241635799407959, 0.9182156324386597, 0.9182156324386597, 0.9137546420097351, 0.910780668258667, 0.9256505370140076, 0.910780668258667, 0.9063196778297424, 0.910780668258667, 0.921933114528656, 0.8929368257522583, 0.889219343662262, 0.9078066945075989, 0.9122676849365234, 0.8951672911643982, 0.8884758353233337, 0.921933114528656, 0.8973977565765381, 0.9115241765975952, 0.8914498090744019, 0.9278810620307922, 0.9018587470054626, 0.8996282815933228, 0.8877323269844055, 0.8899628520011902, 0.9100371599197388, 0.9167286157608032, 0.9144981503486633, 0.8973977565765381, 0.9137546420097351, 0.9130111336708069, 0.9011152386665344, 0.8929368257522583, 0.9033457040786743, 0.9070631861686707, 0.8899628520011902]</t>
+  </si>
+  <si>
+    <t>[0.8990508913993835, 0.9094046354293823, 0.917169988155365, 0.9094046354293823, 0.9102674722671509, 0.9180327653884888, 0.9232096672058105, 0.9249352812767029, 0.9335634112358093, 0.917169988155365, 0.922346830368042, 0.9232096672058105, 0.9292493462562561, 0.9145815372467041, 0.917169988155365, 0.9214840531349182, 0.9059534072875977, 0.90767902135849, 0.9188956022262573, 0.9137187004089355, 0.9197584390640259, 0.9154443740844727, 0.9050905704498291, 0.9163071513175964]</t>
+  </si>
+  <si>
+    <t>[0.8404351472854614, 0.8322756290435791, 0.843155026435852, 0.8359020948410034, 0.8458749055862427, 0.8413417935371399, 0.8232094049453735, 0.8277425169944763, 0.8186763525009155, 0.8359020948410034, 0.8232094049453735, 0.8204895853996277, 0.8449682593345642, 0.8286491632461548, 0.8223028182983398, 0.8404351472854614, 0.8186763525009155, 0.8286491632461548, 0.8295557498931885, 0.8268359303474426]</t>
+  </si>
+  <si>
+    <t>[0.9114730954170227, 0.9164305925369263, 0.9313031435012817, 0.9157223701477051, 0.9213880896568298, 0.9100566506385803, 0.9128895401954651, 0.9213880896568298, 0.9150141477584839, 0.9249292016029358, 0.919263482093811, 0.9171388149261475, 0.9135977625846863, 0.919263482093811, 0.9206798672676086, 0.9199716448783875, 0.9199716448783875, 0.9171388149261475]</t>
+  </si>
+  <si>
+    <t>[0.8756260275840759, 0.8505843281745911, 0.8597663044929504, 0.8530884981155396, 0.8455759882926941, 0.8522537350654602, 0.8372287154197693, 0.8380634188652039, 0.8447412252426147, 0.8347245454788208, 0.8455759882926941, 0.8430717587471008, 0.8480801582336426, 0.8455759882926941, 0.8322203755378723, 0.8222036957740784]</t>
+  </si>
+  <si>
+    <t>[0.8872727155685425, 0.9003636240959167, 0.8930909037590027, 0.8887272477149963, 0.9018181562423706, 0.9105454683303833, 0.9010909199714661, 0.906181812286377, 0.9054545164108276, 0.8894545435905457, 0.9076363444328308, 0.906181812286377, 0.9047272801399231, 0.8952727317810059, 0.9083636403083801, 0.897454559803009, 0.893818199634552, 0.9090909361839294, 0.8843636512756348, 0.8967272639274597, 0.8880000114440918]</t>
+  </si>
+  <si>
+    <t>[0.8460013270378113, 0.8506278991699219, 0.8499669432640076, 0.8545935153961182, 0.8552544713020325, 0.8539325594902039, 0.8479841351509094, 0.8519497513771057, 0.8360872268676758, 0.8605419993400574, 0.8532716631889343, 0.8585591316223145, 0.8486450910568237, 0.8552544713020325, 0.8486450910568237, 0.8433575630187988, 0.842035710811615, 0.8493059873580933, 0.8433575630187988, 0.808327853679657, 0.8473231792449951, 0.8512888550758362, 0.8413747549057007, 0.845340371131897, 0.8407137989997864]</t>
+  </si>
+  <si>
+    <t>[0.9274672865867615, 0.9304399490356445, 0.9316290020942688, 0.9256837368011475, 0.9239001274108887, 0.9256837368011475, 0.9322235584259033, 0.9233055710792542, 0.9262782335281372, 0.9262782335281372, 0.9197384119033813, 0.9256837368011475, 0.931034505367279, 0.9286563396453857, 0.9161712527275085, 0.9227110743522644, 0.9239001274108887, 0.9239001274108887, 0.9179548025131226, 0.9072532653808594, 0.9239001274108887, 0.9209274649620056]</t>
+  </si>
+  <si>
+    <t>[0.9136212468147278, 0.930232584476471, 0.9161129593849182, 0.9210963249206543, 0.9285714030265808, 0.9260797500610352, 0.9219269156455994, 0.9318937063217163, 0.9260797500610352, 0.9327242374420166, 0.9169435501098633, 0.9161129593849182, 0.9219269156455994, 0.9194352030754089, 0.9078072905540466, 0.9335548281669617, 0.920265793800354, 0.9061461687088013, 0.9186046719551086, 0.9252491593360901, 0.9269102811813354, 0.9177740812301636, 0.9152823686599731, 0.9186046719551086, 0.9277408719062805, 0.9260797500610352, 0.9119601249694824, 0.9136212468147278, 0.9210963249206543, 0.9227574467658997, 0.9227574467658997]</t>
+  </si>
+  <si>
+    <t>[0.8893016576766968, 0.8997028470039368, 0.9011887311935425, 0.9078751802444458, 0.9078751802444458, 0.9101040363311768, 0.9004457592964172, 0.9049034118652344, 0.901931643486023, 0.9041604995727539, 0.8967310786247253, 0.8907875418663025, 0.908618152141571, 0.9130758047103882, 0.9049034118652344, 0.8997028470039368, 0.8945022225379944, 0.9041604995727539, 0.8922734260559082, 0.901931643486023, 0.898216962814331, 0.8900445699691772, 0.8781574964523315, 0.9026746153831482, 0.8989598751068115, 0.8900445699691772, 0.9011887311935425, 0.9011887311935425, 0.9011887311935425]</t>
+  </si>
+  <si>
+    <t>[0.9131437540054321, 0.920061469078064, 0.9192928671836853, 0.9223673939704895, 0.924673318862915, 0.9139123558998108, 0.9239047169685364, 0.9185242056846619, 0.9093005657196045, 0.9185242056846619, 0.9177555441856384, 0.9054573178291321, 0.9177555441856384, 0.9016141295433044, 0.9192928671836853, 0.9231360554695129, 0.9146810173988342, 0.9131437540054321, 0.9108378291130066, 0.9116064310073853]</t>
+  </si>
+  <si>
+    <t>[0.89987713098526, 0.915847659111023, 0.9213759303092957, 0.9287469387054443, 0.9262899160385132, 0.9226044416427612, 0.9281326532363892, 0.9195331931114197, 0.9287469387054443, 0.9318181872367859, 0.9293611645698547, 0.9275184273719788, 0.921990156173706, 0.9244471788406372, 0.9232186675071716, 0.9047911763191223, 0.921990156173706, 0.9164619445800781, 0.9299754500389099, 0.9195331931114197, 0.9146191477775574, 0.9207616448402405, 0.9183046817779541, 0.9238329529762268, 0.9213759303092957]</t>
+  </si>
+  <si>
+    <t>[0.8627132177352905, 0.8667749762535095, 0.8383427858352661, 0.8432168960571289, 0.8602762222290039, 0.8261575698852539, 0.8480910062789917, 0.8415921926498413, 0.8415921926498413, 0.8610885739326477, 0.8537774085998535, 0.8651502728462219, 0.8602762222290039, 0.8529650568962097, 0.8692120313644409, 0.8700243830680847, 0.8740860819816589, 0.8675873279571533, 0.8424045443534851, 0.8700243830680847, 0.8724614381790161, 0.8692120313644409, 0.8602762222290039, 0.8562144637107849, 0.8562144637107849, 0.8651502728462219, 0.8659626245498657, 0.8708367347717285, 0.8602762222290039, 0.8724614381790161, 0.8651502728462219, 0.8521527051925659]</t>
+  </si>
+  <si>
+    <t>[0.9235900640487671, 0.9290478825569153, 0.9223771691322327, 0.9108550548553467, 0.9163129329681396, 0.9205579161643982, 0.9248028993606567, 0.9272286295890808, 0.9169193506240845, 0.9260157942771912, 0.9290478825569153, 0.9241964817047119, 0.9235900640487671, 0.9205579161643982, 0.932686448097229, 0.9114614725112915, 0.9163129329681396, 0.9290478825569153, 0.909642219543457, 0.9248028993606567, 0.9223771691322327, 0.9241964817047119, 0.9108550548553467, 0.9108550548553467, 0.9041843414306641, 0.8993329405784607, 0.9078229069709778, 0.9102486371994019, 0.9144936203956604, 0.9157065153121948]</t>
+  </si>
+  <si>
+    <t>[0.9147516489028931, 0.9132691025733948, 0.9103039503097534, 0.9095626473426819, 0.9095626473426819, 0.9088213443756104, 0.9110451936721802, 0.9080800414085388, 0.8999258875846863, 0.9073387980461121, 0.9036323428153992, 0.9103039503097534, 0.9125277996063232, 0.9221645593643188, 0.919940710067749, 0.9132691025733948, 0.9095626473426819, 0.8954781293869019, 0.9147516489028931, 0.9080800414085388, 0.9006671905517578, 0.9043735861778259, 0.891771674156189, 0.8991845846176147, 0.9006671905517578, 0.905856192111969, 0.893254280090332, 0.8991845846176147, 0.9125277996063232]</t>
+  </si>
+  <si>
+    <t>[0.9061277508735657, 0.9087353348731995, 0.9061277508735657, 0.9256845116615295, 0.916558027267456, 0.9217731356620789, 0.9126466512680054, 0.9113429188728333, 0.9191655516624451, 0.917861819267273, 0.916558027267456, 0.920469343662262, 0.9087353348731995, 0.9113429188728333, 0.9113429188728333, 0.916558027267456, 0.9113429188728333, 0.9113429188728333, 0.9113429188728333]</t>
+  </si>
+  <si>
+    <t>[0.9067524075508118, 0.9131832718849182, 0.9172025918960571, 0.9107717275619507, 0.9083601236343384, 0.9035369753837585, 0.8874598145484924, 0.897909939289093, 0.9019292593002319, 0.9035369753837585, 0.8834404945373535, 0.901125431060791, 0.9067524075508118, 0.9115755558013916, 0.8954983949661255, 0.9027331471443176, 0.8922829627990723, 0.8963022232055664]</t>
+  </si>
+  <si>
+    <t>[0.853715181350708, 0.8722910284996033, 0.8815789222717285, 0.8738390207290649, 0.8645510673522949, 0.8808049559593201, 0.8668730854988098, 0.8730649948120117, 0.8753870129585266, 0.8691950440406799, 0.8792569637298584, 0.8591331243515015, 0.8769350051879883, 0.8475232124328613, 0.87151700258255, 0.8506191968917847, 0.8622291088104248, 0.8544891476631165]</t>
+  </si>
+  <si>
+    <t>[0.8893871307373047, 0.9043348431587219, 0.9118086695671082, 0.9043348431587219, 0.9110612869262695, 0.908071756362915, 0.902092695236206, 0.8998505473136902, 0.9058296084403992, 0.9073243737220764, 0.9058296084403992, 0.8983557820320129, 0.902092695236206, 0.9073243737220764, 0.902092695236206, 0.9110612869262695, 0.9035874605178833, 0.902092695236206]</t>
+  </si>
+  <si>
+    <t>[0.8920327425003052, 0.9024571776390076, 0.9099032282829285, 0.8942665457725525, 0.8979895710945129, 0.8905435800552368, 0.9024571776390076, 0.8726730942726135, 0.8823529481887817, 0.8868205547332764, 0.891288161277771, 0.8905435800552368, 0.8786299228668213, 0.8853313326835632, 0.8823529481887817, 0.8890543580055237, 0.8830975294113159, 0.8801191449165344]</t>
+  </si>
+  <si>
+    <t>[0.897735595703125, 0.9050402045249939, 0.9028487801551819, 0.9013878703117371, 0.9006574153900146, 0.9057706594467163, 0.897735595703125, 0.8984660506248474, 0.8926223516464233, 0.8882395625114441, 0.8962746262550354, 0.8948137164115906, 0.8889700770378113, 0.8897005319595337, 0.8407596945762634, 0.9006574153900146, 0.8918918967247009, 0.8911614418029785, 0.8882395625114441, 0.8765522241592407, 0.8904309868812561]</t>
+  </si>
+  <si>
+    <t>[0.8685015439987183, 0.8700305819511414, 0.8830274939537048, 0.8746177554130554, 0.8746177554130554, 0.860856294631958, 0.8776758313179016, 0.8600917458534241, 0.8700305819511414, 0.8600917458534241, 0.856269121170044, 0.8677369952201843, 0.8616207838058472, 0.8707951307296753, 0.8340978622436523, 0.8547400832176208, 0.8394495248794556, 0.8746177554130554]</t>
+  </si>
+  <si>
+    <t>[0.8664406538009644, 0.8576270937919617, 0.849491536617279, 0.849491536617279, 0.8515254259109497, 0.8474576473236084, 0.8399999737739563, 0.8535593152046204, 0.8372881412506104, 0.835932195186615, 0.826440691947937, 0.812881350517273, 0.832542359828949, 0.8454237580299377, 0.8454237580299377, 0.8569491505622864]</t>
+  </si>
+  <si>
+    <t>[0.8645204305648804, 0.8718980550765991, 0.8678739070892334, 0.8799463510513306, 0.8732394576072693, 0.8718980550765991, 0.8678739070892334, 0.8806170225143433, 0.8604962825775146, 0.8584842681884766, 0.8645204305648804, 0.8665325045585632, 0.8658618330955505, 0.8866532444953918, 0.8712273836135864, 0.8470824956893921, 0.8672032356262207, 0.8698859810829163, 0.8779342770576477, 0.8812877535820007, 0.870556652545929, 0.8725687265396118, 0.8558014631271362, 0.8584842681884766, 0.8712273836135864, 0.8571428656578064, 0.8497652411460876, 0.8584842681884766, 0.863179087638855]</t>
+  </si>
+  <si>
+    <t>[0.8814703822135925, 0.900225043296814, 0.8844711184501648, 0.900975227355957, 0.8979744911193848, 0.8949737548828125, 0.8882220387458801, 0.8994748592376709, 0.8949737548828125, 0.8874718546867371, 0.8792198300361633, 0.8747186660766602, 0.8634658455848694, 0.8582145571708679, 0.8642160296440125, 0.873218297958374, 0.8664666414260864, 0.8679670095443726, 0.8694673776626587]</t>
+  </si>
+  <si>
+    <t>[0.912854015827179, 0.912854015827179, 0.9117646813392639, 0.9237473011016846, 0.9237473011016846, 0.9172113537788391, 0.913943350315094, 0.9193899631500244, 0.9172113537788391, 0.9248365759849548, 0.9041394591331482, 0.9193899631500244, 0.9095860719680786, 0.9095860719680786, 0.9237473011016846, 0.9193899631500244, 0.912854015827179, 0.913943350315094, 0.9204792976379395, 0.9237473011016846, 0.9172113537788391, 0.9281045794487, 0.9226579666137695, 0.9313725233078003, 0.9117646813392639, 0.9248365759849548, 0.9172113537788391, 0.9226579666137695, 0.9237473011016846, 0.9204792976379395, 0.9237473011016846, 0.9161220192909241, 0.9281045794487, 0.9237473011016846, 0.9270152449607849, 0.9248365759849548, 0.9237473011016846, 0.9172113537788391, 0.915032684803009]</t>
+  </si>
+  <si>
+    <t>[0.8786407709121704, 0.8780339956283569, 0.8853155374526978, 0.8598300814628601, 0.8671116232872009, 0.8470873832702637, 0.8792475461959839, 0.8853155374526978, 0.8774271607398987, 0.8901699185371399, 0.8828883767127991, 0.8895630836486816, 0.8889563083648682, 0.8701456189155579, 0.8786407709121704, 0.8786407709121704, 0.8707524538040161, 0.8756067752838135, 0.8834951519966125, 0.8847087621688843, 0.8719660043716431, 0.8756067752838135, 0.8834951519966125, 0.8646844625473022, 0.8574029207229614]</t>
+  </si>
+  <si>
+    <t>[0.902157187461853, 0.8959938287734985, 0.9075500965118408, 0.9044684171676636, 0.9036979675292969, 0.8975346684455872, 0.8882896900177002, 0.8983050584793091, 0.9083204865455627, 0.9052388072013855, 0.8967642784118652, 0.9013867378234863, 0.9036979675292969, 0.91140216588974, 0.902927577495575, 0.91140216588974, 0.8921417593955994, 0.884437620639801, 0.8867488503456116, 0.8990755081176758, 0.8990755081176758, 0.8929121494293213, 0.8859784007072449, 0.8921417593955994, 0.8821263313293457, 0.8975346684455872, 0.902157187461853, 0.8998458981513977, 0.8944529891014099]</t>
+  </si>
+  <si>
+    <t>[0.8296296000480652, 0.8507936596870422, 0.8613756895065308, 0.8539682626724243, 0.8539682626724243, 0.8550264835357666, 0.852910041809082, 0.8582010865211487, 0.8624338507652283, 0.8571428656578064, 0.8666666746139526, 0.8677248954772949, 0.8730158805847168, 0.8518518805503845, 0.8634920716285706, 0.8518518805503845, 0.8656084537506104, 0.852910041809082, 0.8560846447944641, 0.8613756895065308, 0.8571428656578064, 0.8539682626724243, 0.8645502924919128, 0.8613756895065308, 0.8571428656578064, 0.8402116298675537, 0.8507936596870422, 0.8592592477798462]</t>
+  </si>
+  <si>
+    <t>[0.8996655344963074, 0.9272575378417969, 0.920568585395813, 0.9197324514389038, 0.9389632344245911, 0.9372909665107727, 0.9306020140647888, 0.9356187582015991, 0.9306020140647888, 0.9155518412590027, 0.9297658801078796, 0.9130434989929199, 0.9038461446762085, 0.9021739363670349, 0.9113712310791016, 0.9214046597480774, 0.9222407937049866, 0.9147157073020935, 0.9147157073020935, 0.9255852699279785]</t>
+  </si>
+  <si>
+    <t>[0.9197568297386169, 0.92522794008255, 0.9264437556266785, 0.9112461805343628, 0.9185410141944885, 0.9124619960784912, 0.92522794008255, 0.9173251986503601, 0.9276595711708069, 0.9270516633987427, 0.9094225168228149, 0.9161094427108765, 0.911854088306427, 0.9112461805343628, 0.9161094427108765, 0.9082067012786865, 0.9185410141944885, 0.8942249417304993, 0.898480236530304, 0.9088146090507507, 0.9069908857345581, 0.8966565132141113, 0.9003039598464966, 0.8936170339584351]</t>
+  </si>
+  <si>
+    <t>[0.9143968820571899, 0.9163424372673035, 0.9134241342544556, 0.9143968820571899, 0.8978599309921265, 0.8949416279792786, 0.8881322741508484, 0.9027237296104431, 0.8988326787948608, 0.9143968820571899, 0.8861867785453796, 0.9007782340049744, 0.9017509818077087, 0.8978599309921265, 0.9124513864517212, 0.8881322741508484, 0.8968871831893921]</t>
+  </si>
+  <si>
+    <t>[0.9039843082427979, 0.8974526524543762, 0.9020248055458069, 0.9020248055458069, 0.8954931497573853, 0.9026780128479004, 0.9026780128479004, 0.9124755263328552, 0.9026780128479004, 0.9079033136367798, 0.9079033136367798, 0.9137818217277527, 0.9144350290298462, 0.8987590074539185, 0.9046375155448914, 0.894186794757843, 0.896146297454834, 0.9013716578483582, 0.9059438109397888, 0.9059438109397888, 0.9026780128479004, 0.9052906632423401, 0.907250165939331, 0.8974526524543762, 0.9065970182418823, 0.881123423576355, 0.8967995047569275, 0.8967995047569275]</t>
+  </si>
+  <si>
+    <t>[0.8378933072090149, 0.8426812291145325, 0.8590971231460571, 0.8570451140403748, 0.8659370541572571, 0.8529411554336548, 0.8563611507415771, 0.8563611507415771, 0.8645690679550171, 0.8577291369438171, 0.8618330955505371, 0.8399452567100525, 0.8611491322517395, 0.8611491322517395, 0.8625171184539795, 0.8584131598472595, 0.8543091416358948, 0.8474692106246948, 0.8529411554336548, 0.8440492749214172]</t>
+  </si>
+  <si>
+    <t>[0.8914057016372681, 0.8947368264198303, 0.9047302007675171, 0.90739506483078, 0.9040639400482178, 0.9093937277793884, 0.9060626029968262, 0.9120586514472961, 0.9080612659454346, 0.9067288637161255, 0.9153897166252136, 0.9107261896133423, 0.9107261896133423, 0.9093937277793884, 0.9093937277793884, 0.9013990759849548, 0.8980679512023926, 0.8940706253051758, 0.9140573143959045, 0.9113923907279968, 0.9020652770996094, 0.9093937277793884, 0.9060626029968262, 0.90739506483078, 0.9080612659454346, 0.9067288637161255]</t>
+  </si>
+  <si>
+    <t>[0.9314516186714172, 0.9508064389228821, 0.9524193406105042, 0.9427419304847717, 0.9411290287971497, 0.9419354796409607, 0.9379032254219055, 0.9395161271095276, 0.9435483813285828, 0.9387096762657166, 0.9411290287971497, 0.9403225779533386, 0.9338709712028503, 0.9225806593894958, 0.9346774220466614, 0.9209677577018738, 0.925000011920929, 0.9379032254219055]</t>
+  </si>
+  <si>
+    <t>[0.8754833936691284, 0.9010053873062134, 0.9048724174499512, 0.9203402996063232, 0.9187934994697571, 0.9025521874427795, 0.9095127582550049, 0.9180201292037964, 0.9149265289306641, 0.9149265289306641, 0.9211136698722839, 0.9017788171768188, 0.9172466993331909, 0.9118329286575317, 0.9048724174499512, 0.9102861285209656, 0.9118329286575317, 0.9149265289306641, 0.903325617313385, 0.9040989875793457, 0.9149265289306641, 0.9064191579818726, 0.9156998991966248, 0.9126063585281372, 0.8986852169036865, 0.899458646774292]</t>
+  </si>
+  <si>
+    <t>[0.9086459875106812, 0.9127243161201477, 0.9151712656021118, 0.9168025851249695, 0.9070146679878235, 0.9127243161201477, 0.9004893898963928, 0.9070146679878235, 0.8955954313278198, 0.868678629398346, 0.901305079460144, 0.8898857831954956, 0.9070146679878235, 0.8907014727592468, 0.901305079460144, 0.9053833484649658, 0.8670473098754883, 0.9094616770744324, 0.9176182746887207, 0.9053833484649658, 0.8980424404144287, 0.8947798013687134, 0.896411120891571, 0.8980424404144287, 0.9094616770744324, 0.8556280732154846, 0.9094616770744324, 0.9127243161201477, 0.8955954313278198, 0.8972267508506775, 0.8980424404144287, 0.8825448751449585, 0.9151712656021118, 0.9045677185058594]</t>
+  </si>
+  <si>
+    <t>[0.8861746191978455, 0.8877338767051697, 0.8814969062805176, 0.8872141242027283, 0.8851351141929626, 0.8960499167442322, 0.8866943717002869, 0.894490659236908, 0.8955301642417908, 0.8851351141929626, 0.8887733817100525, 0.8892931342124939, 0.8887733817100525, 0.879417896270752, 0.8825364112854004, 0.8809771537780762, 0.8674635887145996, 0.8809771537780762, 0.879417896270752, 0.8726611137390137, 0.8742203712463379]</t>
+  </si>
+  <si>
+    <t>[0.8463878035545349, 0.8258554935455322, 0.8235741257667542, 0.831939160823822, 0.8380228281021118, 0.8380228281021118, 0.8395437002182007, 0.8387832641601562, 0.8349809646606445, 0.8349809646606445, 0.8380228281021118, 0.8357414603233337, 0.831939160823822, 0.8365018963813782, 0.8326995968818665, 0.8410646319389343]</t>
+  </si>
+  <si>
+    <t>[0.9067796468734741, 0.9041721224784851, 0.9009126424789429, 0.8983050584793091, 0.9028683304786682, 0.9035202264785767, 0.9113429188728333, 0.9041721224784851, 0.9009126424789429, 0.9009126424789429, 0.9061277508735657, 0.8924380540847778, 0.8917861580848694, 0.8885267376899719, 0.8976532220840454, 0.8937418460845947, 0.8852672576904297, 0.9185137152671814, 0.9022164344787598, 0.8983050584793091, 0.9009126424789429, 0.9152542352676392, 0.8833116292953491, 0.8839634656906128, 0.8813559412956238, 0.9015645384788513, 0.899608850479126, 0.8917861580848694, 0.8989569544792175, 0.8950456380844116, 0.8904824256896973, 0.8904824256896973, 0.8689700365066528]</t>
+  </si>
+  <si>
+    <t>[0.8610634803771973, 0.8747856020927429, 0.849056601524353, 0.8610634803771973, 0.8559176921844482, 0.8687821626663208, 0.8653516173362732, 0.8696398138999939, 0.8473413586616516, 0.8636363744735718, 0.8627787232398987, 0.8730702996253967, 0.8747856020927429, 0.8644940257072449, 0.8679245114326477, 0.8636363744735718, 0.8593481779098511]</t>
+  </si>
+  <si>
+    <t>[0.8753462433815002, 0.8781163692474365, 0.8753462433815002, 0.8799630403518677, 0.8707294464111328, 0.8688827157020569, 0.8485687971115112, 0.8679593801498413, 0.8541089296340942, 0.8578023910522461, 0.867035984992981, 0.8725761771202087, 0.8762696385383606, 0.861495852470398, 0.882733166217804, 0.8762696385383606, 0.8836565017700195, 0.8698061108589172, 0.8771929740905762, 0.8651893138885498, 0.8587257862091064, 0.8799630403518677, 0.867035984992981, 0.886426568031311, 0.8753462433815002, 0.8661126494407654, 0.8688827157020569, 0.8744229078292847, 0.8771929740905762, 0.8845798969268799, 0.8753462433815002, 0.8753462433815002, 0.8661126494407654, 0.8651893138885498, 0.8679593801498413, 0.8651893138885498, 0.8698061108589172, 0.8716528415679932, 0.8624191880226135]</t>
+  </si>
+  <si>
+    <t>[0.885869562625885, 0.8867753744125366, 0.8695651888847351, 0.8849637508392334, 0.8931159377098083, 0.8541666865348816, 0.8840579986572266, 0.8903985619544983, 0.8876811861991882, 0.8650362491607666, 0.89673912525177, 0.8786231875419617, 0.8740941882133484, 0.8713768124580383, 0.8894927501678467, 0.8632246255874634, 0.8894927501678467, 0.8686594367027283, 0.8505434989929199, 0.8777173757553101, 0.8876811861991882, 0.8885869383811951, 0.8242753744125366, 0.8659420013427734, 0.8804348111152649, 0.8731883764266968]</t>
+  </si>
+  <si>
+    <t>[0.8898630142211914, 0.9013698697090149, 0.9013698697090149, 0.9068493247032166, 0.9095890522003174, 0.9167123436927795, 0.9128767251968384, 0.9041095972061157, 0.8964383602142334, 0.908493161201477, 0.8997260332107544, 0.9068493247032166, 0.8991780877113342, 0.9013698697090149, 0.8942465782165527, 0.9013698697090149, 0.9123287796974182, 0.9030137062072754, 0.9013698697090149, 0.8975342512130737, 0.8909589052200317]</t>
+  </si>
+  <si>
+    <t>[0.9066590666770935, 0.9077973961830139, 0.9157655239105225, 0.9220261573791504, 0.9134889245033264, 0.9203187227249146, 0.9151963591575623, 0.9186112880706787, 0.9254410862922668, 0.9169037938117981, 0.9191803932189941, 0.9157655239105225, 0.9186112880706787, 0.9095048308372498, 0.912350594997406, 0.9083665609359741, 0.9112122654914856, 0.9038133025169373, 0.9060899019241333, 0.9169037938117981, 0.9106431603431702, 0.8890153765678406, 0.9043824672698975, 0.900967538356781]</t>
+  </si>
+  <si>
+    <t>[0.8673158884048462, 0.854534387588501, 0.8587948679924011, 0.8551430106163025, 0.8460133671760559, 0.8508825302124023, 0.8533170819282532, 0.8557516932487488, 0.8539257645606995, 0.8508825302124023, 0.8441874384880066, 0.8472306728363037, 0.849056601524353, 0.8460133671760559, 0.8374924063682556, 0.8484479784965515]</t>
+  </si>
+  <si>
+    <t>[0.9014209508895874, 0.9209591746330261, 0.9262877702713013, 0.9067495465278625, 0.9103019833564758, 0.9200710654258728, 0.9094138741493225, 0.9174067378044128, 0.912966251373291, 0.922735333442688, 0.9067495465278625, 0.9049733281135559, 0.9182948470115662, 0.9182948470115662, 0.9040852785110474, 0.9174067378044128, 0.8987566828727722, 0.9103019833564758]</t>
+  </si>
+  <si>
+    <t>[0.9083704948425293, 0.9113422632217407, 0.9113422632217407, 0.9157999157905579, 0.9148092865943909, 0.919266939163208, 0.9177810549736023, 0.9068846106529236, 0.9093610644340515, 0.9083704948425293, 0.9187716841697693, 0.9044080972671509, 0.9004457592964172, 0.9063892960548401, 0.8954927921295166, 0.9029222130775452, 0.9182763695716858, 0.9143140316009521, 0.9113422632217407, 0.9123328328132629, 0.9133234024047852]</t>
+  </si>
+  <si>
+    <t>[0.8882352709770203, 0.8798319101333618, 0.8722689151763916, 0.86806720495224, 0.8714285492897034, 0.8663865327835083, 0.8663865327835083, 0.8621848821640015, 0.8722689151763916, 0.8714285492897034, 0.8697478771209717, 0.8478991389274597, 0.8714285492897034, 0.8789916038513184, 0.8605042099952698, 0.8714285492897034]</t>
+  </si>
+  <si>
+    <t>[0.9178628325462341, 0.9290271401405334, 0.9290271401405334, 0.939393937587738, 0.9449760913848877, 0.9497607946395874, 0.940191388130188, 0.9425837397575378, 0.9505581855773926, 0.939393937587738, 0.9473684430122375, 0.9449760913848877, 0.9433811902999878, 0.9505581855773926, 0.9250398874282837, 0.9425837397575378, 0.9441786408424377, 0.9457735419273376, 0.9449760913848877, 0.9441786408424377, 0.9489633440971375, 0.9465709924697876, 0.9481658935546875, 0.9290271401405334]</t>
+  </si>
+  <si>
+    <t>[0.9027451276779175, 0.912156879901886, 0.9074509739875793, 0.9098039269447327, 0.9113725423812866, 0.905098021030426, 0.9090195894241333, 0.9003921747207642, 0.9129411578178406, 0.8854901790618896, 0.8988234996795654, 0.9098039269447327, 0.8925490379333496, 0.9098039269447327, 0.886274516582489, 0.9043137431144714, 0.9027451276779175, 0.910588264465332, 0.8886274695396423, 0.9003921747207642, 0.8996078372001648, 0.910588264465332, 0.9027451276779175, 0.8996078372001648]</t>
+  </si>
+  <si>
+    <t>[0.8518224954605103, 0.8724247217178345, 0.8692551255226135, 0.8740094900131226, 0.8843106031417847, 0.8637083768844604, 0.8851029872894287, 0.8835182189941406, 0.8708399534225464, 0.8359746336936951, 0.8645008206367493, 0.8637083768844604, 0.8629159927368164, 0.8335974812507629, 0.8605388402938843, 0.8787638545036316, 0.8645008206367493, 0.8637083768844604, 0.8557844758033752, 0.8486529588699341, 0.8652932047843933, 0.8534072637557983]</t>
+  </si>
+  <si>
+    <t>[0.8657056093215942, 0.886949896812439, 0.9044005870819092, 0.8968133330345154, 0.898330807685852, 0.9036418795585632, 0.9081942439079285, 0.911987841129303, 0.9044005870819092, 0.8998482823371887, 0.9074355363845825, 0.911987841129303, 0.9021244049072266, 0.9081942439079285, 0.8968133330345154, 0.9036418795585632, 0.9059180617332458, 0.9006069898605347, 0.911229133605957, 0.9074355363845825, 0.9081942439079285, 0.911987841129303, 0.9028831720352173]</t>
+  </si>
+  <si>
+    <t>[0.9046052694320679, 0.9095394611358643, 0.9136512875556946, 0.9144737124443054, 0.9177631735801697, 0.9210526347160339, 0.9185855388641357, 0.9070723652839661, 0.9136512875556946, 0.921875, 0.9120065569877625, 0.9095394611358643, 0.9120065569877625, 0.9144737124443054, 0.9136512875556946, 0.9087170958518982, 0.9152960777282715, 0.9037829041481018, 0.9070723652839661, 0.90625, 0.9136512875556946, 0.9087170958518982, 0.9144737124443054, 0.9029605388641357, 0.9169408082962036]</t>
+  </si>
+  <si>
+    <t>[0.8749046325683594, 0.8863462805747986, 0.8878718614578247, 0.8954996466636658, 0.8848207592964172, 0.8916857242584229, 0.8817696571350098, 0.8848207592964172, 0.887109100818634, 0.8848207592964172, 0.8817696571350098, 0.8848207592964172, 0.8916857242584229, 0.8771929740905762, 0.889397382736206, 0.887109100818634, 0.8787185549736023, 0.8840579986572266, 0.8825324177742004]</t>
+  </si>
+  <si>
+    <t>[0.8891075849533081, 0.9015747904777527, 0.9015747904777527, 0.9146981835365295, 0.9107611775398254, 0.9074802994728088, 0.9015747904777527, 0.8897637724876404, 0.8976377844810486, 0.9055117964744568, 0.8937007784843445, 0.8930445909500122, 0.9068241715431213, 0.9009186625480652, 0.8917322754859924, 0.9009186625480652, 0.8976377844810486, 0.902230978012085, 0.8976377844810486]</t>
+  </si>
+  <si>
+    <t>[0.8628081679344177, 0.8617363572120667, 0.8499463796615601, 0.8424437046051025, 0.8681672215461731, 0.8692390322685242, 0.8403000831604004, 0.8510182499885559, 0.866023600101471, 0.8403000831604004, 0.8413718938827515, 0.8478027582168579, 0.8478027582168579, 0.8563773036003113, 0.8456591367721558, 0.8413718938827515, 0.8435155153274536, 0.8585209250450134, 0.8403000831604004, 0.8585209250450134, 0.867095410823822]</t>
+  </si>
+  <si>
+    <t>[0.9086337089538574, 0.8994132280349731, 0.9220452904701233, 0.9145012497901917, 0.915339469909668, 0.9195305705070496, 0.9111483693122864, 0.9253981709480286, 0.9161776900291443, 0.9245599508285522, 0.9270746111869812, 0.9010896682739258, 0.9170159101486206, 0.9170159101486206, 0.921207070350647, 0.9237217307090759, 0.9203687906265259, 0.9287510514259338, 0.921207070350647, 0.9195305705070496, 0.9119865894317627, 0.9178541302680969, 0.9178541302680969, 0.915339469909668, 0.921207070350647, 0.9195305705070496, 0.915339469909668, 0.912824809551239, 0.9203687906265259, 0.9186923503875732, 0.9186923503875732, 0.9069572687149048, 0.9237217307090759]</t>
+  </si>
+  <si>
+    <t>[0.908108115196228, 0.9207206964492798, 0.9309309124946594, 0.9261261224746704, 0.9285285472869873, 0.9243243336677551, 0.9333333373069763, 0.9243243336677551, 0.9303303360939026, 0.9231231212615967, 0.9261261224746704, 0.9189189076423645, 0.9303303360939026, 0.9093093276023865, 0.9267266988754272, 0.9099099040031433, 0.9189189076423645, 0.9159159064292908, 0.9195195436477661, 0.9237236976623535, 0.9171171188354492, 0.9207206964492798]</t>
+  </si>
+  <si>
+    <t>[0.8552278876304626, 0.8471850156784058, 0.8331099152565002, 0.8297587037086487, 0.8424932956695557, 0.8424932956695557, 0.8465147614479065, 0.8525469303131104, 0.8384718298912048, 0.8619303107261658, 0.8518766760826111, 0.8485254645347595, 0.830428957939148, 0.8558981418609619, 0.8384718298912048, 0.8478552103042603, 0.8565683364868164, 0.8478552103042603, 0.8512064218521118, 0.8538873791694641, 0.8411527872085571, 0.8532171845436096, 0.845174252986908, 0.8478552103042603, 0.8532171845436096]</t>
+  </si>
+  <si>
+    <t>[0.8780831694602966, 0.8865398168563843, 0.8893586993217468, 0.8745595216751099, 0.8879492878913879, 0.8830162286758423, 0.8823114633560181, 0.8886539936065674, 0.897110641002655, 0.8844256401062012, 0.8879492878913879, 0.897110641002655, 0.8985201120376587, 0.8801973462104797, 0.876673698425293, 0.8844256401062012, 0.8703312277793884, 0.8611698150634766, 0.8816067576408386, 0.8893586993217468, 0.8794925808906555, 0.8710359334945679, 0.8625792860984802, 0.873150110244751, 0.8689217567443848, 0.8703312277793884, 0.8872445225715637, 0.8653981685638428]</t>
+  </si>
+  <si>
+    <t>[0.8570342063903809, 0.8775665163993835, 0.8768060803413391, 0.8828897476196289, 0.8631178736686707, 0.8661596775054932, 0.872243344783783, 0.8859315514564514, 0.8821292519569397, 0.8699619770050049, 0.874524712562561, 0.8813688158988953, 0.8821292519569397, 0.8638783097267151, 0.8836501836776733, 0.872243344783783, 0.8714829087257385, 0.872243344783783, 0.8585551381111145, 0.872243344783783, 0.8836501836776733, 0.8760456442832947, 0.8676806092262268]</t>
+  </si>
+  <si>
+    <t>[0.8878923654556274, 0.8986546993255615, 0.8923766613006592, 0.9049327373504639, 0.8914798498153687, 0.9085201621055603, 0.8914798498153687, 0.9139013290405273, 0.9067264795303345, 0.9049327373504639, 0.9103139042854309, 0.9013453125953674, 0.8914798498153687, 0.8914798498153687, 0.8950672745704651, 0.9067264795303345, 0.8959641456604004, 0.8995515704154968, 0.8941704034805298, 0.8878923654556274, 0.8860986828804016, 0.8681614398956299, 0.8887892365455627]</t>
+  </si>
+  <si>
+    <t>[0.926183819770813, 0.9150418043136597, 0.9233983159065247, 0.9268802404403687, 0.9213091731071472, 0.9247910976409912, 0.9233983159065247, 0.9206128120422363, 0.9220055937767029, 0.9240947365760803, 0.9094707369804382, 0.9087743759155273, 0.9108635187149048, 0.9032033681869507, 0.9240947365760803, 0.9192200303077698, 0.9164345264434814, 0.9150418043136597, 0.9129526615142822]</t>
+  </si>
+  <si>
+    <t>[0.8860958218574524, 0.8923801779747009, 0.8978790044784546, 0.89552241563797, 0.9175176620483398, 0.9073055982589722, 0.9073055982589722, 0.9096621870994568, 0.9049489498138428, 0.900235652923584, 0.9049489498138428, 0.9206598401069641, 0.908091127872467, 0.9088766574859619, 0.9143754839897156, 0.9057344794273376, 0.9049489498138428, 0.9057344794273376, 0.9065200090408325, 0.9088766574859619, 0.9135899543762207, 0.9010211825370789, 0.9025923013687134, 0.9159466028213501, 0.9057344794273376, 0.900235652923584, 0.9010211825370789]</t>
+  </si>
+  <si>
+    <t>[0.836077868938446, 0.8443113565444946, 0.84356290102005, 0.830089807510376, 0.832335352897644, 0.83757483959198, 0.8308383226394653, 0.8383233547210693, 0.8241018056869507, 0.8383233547210693, 0.8315868377685547, 0.8405688405036926, 0.8293412923812866, 0.832335352897644, 0.8315868377685547, 0.8390718698501587, 0.807634711265564]</t>
+  </si>
+  <si>
+    <t>[0.9026914834976196, 0.920634925365448, 0.9268460869789124, 0.9282263517379761, 0.9268460869789124, 0.933747410774231, 0.9254658222198486, 0.9227052927017212, 0.9309868812561035, 0.9116632342338562, 0.9282263517379761, 0.9378882050514221, 0.9233954548835754, 0.910973072052002, 0.9233954548835754, 0.9164941310882568, 0.9199447631835938, 0.9227052927017212, 0.9102829694747925, 0.910973072052002, 0.9240855574607849, 0.910973072052002, 0.91856449842453, 0.9151138663291931, 0.9144237637519836, 0.9158040285110474, 0.9171842932701111]</t>
+  </si>
+  <si>
+    <t>[0.8709264993667603, 0.890734851360321, 0.9015974402427673, 0.8984025716781616, 0.9105431437492371, 0.9073482155799866, 0.8977635502815247, 0.890734851360321, 0.8958466649055481, 0.9022364020347595, 0.9086261987686157, 0.9060702919960022, 0.8830670714378357, 0.8830670714378357, 0.8913738131523132, 0.8932907581329346, 0.90543133020401, 0.9060702919960022, 0.9009584784507751, 0.9105431437492371]</t>
+  </si>
+  <si>
+    <t>[0.9285714030265808, 0.9317889213562012, 0.9279279112815857, 0.931145429611206, 0.9375804662704468, 0.9305019378662109, 0.9343629479408264, 0.9343629479408264, 0.9324324131011963, 0.9414414167404175, 0.9305019378662109, 0.9395109415054321, 0.9395109415054321, 0.9420849680900574, 0.9401544332504272, 0.9343629479408264, 0.9407979249954224, 0.9305019378662109, 0.9350064396858215, 0.9298584461212158, 0.938867449760437, 0.9375804662704468, 0.9369369149208069, 0.9356499314308167, 0.9343629479408264, 0.9362934231758118, 0.9259974360466003, 0.9272844195365906, 0.9279279112815857]</t>
+  </si>
+  <si>
+    <t>[0.8920289874076843, 0.9021739363670349, 0.9137681126594543, 0.9144927263259888, 0.915217399597168, 0.9137681126594543, 0.9137681126594543, 0.9072463512420654, 0.9115942120552063, 0.9101449251174927, 0.9079710245132446, 0.9079710245132446, 0.8942028880119324, 0.9115942120552063, 0.9050724506378174, 0.9094203114509583, 0.9123188257217407, 0.9050724506378174, 0.8920289874076843, 0.893478274345398]</t>
+  </si>
+  <si>
+    <t>[0.8928369879722595, 0.8928369879722595, 0.8939650058746338, 0.8945290446281433, 0.8900169134140015, 0.8928369879722595, 0.8855047821998596, 0.8967850804328918, 0.879300594329834, 0.8798646330833435, 0.8764805197715759, 0.8770445585250854, 0.8781725764274597, 0.8606880903244019, 0.8860688209533691, 0.8668922781944275, 0.8866328001022339, 0.8747885227203369, 0.890580952167511, 0.877608597278595, 0.867456316947937, 0.8781725764274597, 0.8685843348503113]</t>
+  </si>
+  <si>
+    <t>[0.8509615659713745, 0.8766025900840759, 0.8838140964508057, 0.8774038553237915, 0.8862179517745972, 0.879807710647583, 0.879807710647583, 0.8677884340286255, 0.8533653616905212, 0.8766025900840759, 0.8790063858032227, 0.8766025900840759, 0.8733974099159241, 0.8782051205635071, 0.870192289352417, 0.8774038553237915, 0.870192289352417, 0.8741987347602844, 0.8501602411270142, 0.8878205418586731, 0.8421474099159241, 0.8830128312110901, 0.8589743375778198, 0.8774038553237915, 0.8717948794364929, 0.8733974099159241, 0.8733974099159241, 0.8758012652397156, 0.8645833134651184, 0.8741987347602844, 0.8589743375778198, 0.8677884340286255, 0.8525640964508057, 0.8581730723381042, 0.8597756624221802]</t>
+  </si>
+  <si>
+    <t>[0.8728870749473572, 0.866801917552948, 0.8695064187049866, 0.8654496073722839, 0.8762677311897278, 0.8573360443115234, 0.8769438862800598, 0.8674780130386353, 0.8701825737953186, 0.8519269824028015, 0.866125762462616, 0.8735632300376892, 0.8749154806137085, 0.8640973567962646, 0.8654496073722839, 0.8674780130386353, 0.8688302636146545, 0.8674780130386353, 0.8350236415863037, 0.8532792329788208, 0.866125762462616, 0.8593644499778748]</t>
+  </si>
+  <si>
+    <t>[0.876178503036499, 0.8912633657455444, 0.8918918967247009, 0.8755499720573425, 0.8881206512451172, 0.889377772808075, 0.8843494653701782, 0.8648648858070374, 0.8906348347663879, 0.8717787265777588, 0.8862350583076477, 0.8868635892868042, 0.8956630825996399, 0.8830924034118652, 0.878692626953125, 0.8592080473899841, 0.8692646026611328, 0.8654934167861938, 0.8805782794952393, 0.889377772808075, 0.8698931336402893, 0.8793211579322815, 0.8711501955986023, 0.8692646026611328, 0.8359522223472595, 0.8680075407028198, 0.8711501955986023, 0.8661219477653503]</t>
+  </si>
+  <si>
+    <t>[0.9128888845443726, 0.9111111164093018, 0.9120000004768372, 0.9120000004768372, 0.9146666526794434, 0.9075555801391602, 0.9048888683319092, 0.8942221999168396, 0.8915555477142334, 0.9120000004768372, 0.890666663646698, 0.9057777523994446, 0.8853333592414856, 0.8942221999168396, 0.9120000004768372, 0.9084444642066956, 0.9048888683319092, 0.9120000004768372, 0.9111111164093018, 0.9146666526794434]</t>
+  </si>
+  <si>
+    <t>[0.909217894077301, 0.9168994426727295, 0.9210894107818604, 0.9064245820045471, 0.8987430334091187, 0.9266759753227234, 0.9099162220954895, 0.909217894077301, 0.909217894077301, 0.8987430334091187, 0.9210894107818604, 0.916201114654541, 0.8980447053909302, 0.9099162220954895, 0.8980447053909302, 0.9168994426727295, 0.8924580812454224, 0.923184335231781, 0.9099162220954895, 0.9029329419136047, 0.9168994426727295]</t>
+  </si>
+  <si>
+    <t>[[217   0   7]
+ [  0   0   0]
+ [ 59   2 188]]</t>
+  </si>
+  <si>
+    <t>[[160   3  24]
+ [ 21 101   6]
+ [ 17   0 101]]</t>
+  </si>
+  <si>
+    <t>[[646   5   3]
+ [  8  39   3]
+ [ 25   0 192]]</t>
+  </si>
+  <si>
+    <t>[[532   0  26]
+ [ 21 123   7]
+ [ 33   0 135]]</t>
+  </si>
+  <si>
+    <t>[[616  24  38]
+ [  8  60   4]
+ [ 28   4 214]]</t>
+  </si>
+  <si>
+    <t>[[490   2  10]
+ [ 25  71   0]
+ [ 41   0 124]]</t>
+  </si>
+  <si>
+    <t>[[329   1  18]
+ [  3  12   2]
+ [ 43   0 140]]</t>
+  </si>
+  <si>
+    <t>[[407   0   7]
+ [  3  18   2]
+ [ 37  11 314]]</t>
+  </si>
+  <si>
+    <t>[[345   6  12]
+ [  7  85   6]
+ [ 14   0 104]]</t>
+  </si>
+  <si>
+    <t>[[215   1  24]
+ [  5  15   6]
+ [ 15   0 213]]</t>
+  </si>
+  <si>
+    <t>[[437   0  21]
+ [ 19  83   3]
+ [ 39   0 285]]</t>
+  </si>
+  <si>
+    <t>[[366   1  51]
+ [  0   5   0]
+ [ 51   0 173]]</t>
+  </si>
+  <si>
+    <t>[[468   6   8]
+ [  5  36   3]
+ [ 14   2 218]]</t>
+  </si>
+  <si>
+    <t>[[210   4  13]
+ [  2  38   2]
+ [ 68   1  60]]</t>
+  </si>
+  <si>
+    <t>[[545   0   7]
+ [  9  31   0]
+ [ 63   2 164]]</t>
+  </si>
+  <si>
+    <t>[[664   1  25]
+ [ 52 145   3]
+ [ 20   0 140]]</t>
+  </si>
+  <si>
+    <t>[[301   3   2]
+ [  2  35   0]
+ [ 76   2 277]]</t>
+  </si>
+  <si>
+    <t>[[505   4   9]
+ [ 12  33   5]
+ [ 17   0 133]]</t>
+  </si>
+  <si>
+    <t>[[299   9  41]
+ [  2  19   2]
+ [ 31   1 233]]</t>
+  </si>
+  <si>
+    <t>[[402   3   7]
+ [  3  38   4]
+ [ 19   0 140]]</t>
+  </si>
+  <si>
+    <t>[[364  23  19]
+ [  1   4   8]
+ [ 38   5 283]]</t>
+  </si>
+  <si>
+    <t>[[450   0  10]
+ [  8  62   5]
+ [ 51   0 129]]</t>
+  </si>
+  <si>
+    <t>[[338   2  26]
+ [  9  95   7]
+ [ 49   4 250]]</t>
+  </si>
+  <si>
+    <t>[[245   0  31]
+ [ 20  68   3]
+ [ 29   0  83]]</t>
+  </si>
+  <si>
+    <t>[[516  19  13]
+ [  1   2   1]
+ [ 61  15 205]]</t>
+  </si>
+  <si>
+    <t>[[383   5   7]
+ [  8  43   4]
+ [ 69   1 136]]</t>
+  </si>
+  <si>
+    <t>[[345   1  17]
+ [  4  26   2]
+ [ 26   2 329]]</t>
+  </si>
+  <si>
+    <t>[[489   1  15]
+ [ 10  79   0]
+ [ 59   2 236]]</t>
+  </si>
+  <si>
+    <t>[[232   6  42]
+ [  0  33  10]
+ [ 10   0 129]]</t>
+  </si>
+  <si>
+    <t>[[168   0   6]
+ [ 18  58   0]
+ [  3   1 163]]</t>
+  </si>
+  <si>
+    <t>[[454   6  26]
+ [ 11  70  10]
+ [ 20   0 188]]</t>
+  </si>
+  <si>
+    <t>[[416   3  20]
+ [  6  61   0]
+ [ 20   1 138]]</t>
+  </si>
+  <si>
+    <t>[[496   0  17]
+ [ 12 103   9]
+ [ 41   1 178]]</t>
+  </si>
+  <si>
+    <t>[[359   2  39]
+ [ 22  40   2]
+ [ 35   0 154]]</t>
+  </si>
+  <si>
+    <t>[[317   1   8]
+ [  2  35   2]
+ [ 16   0 246]]</t>
+  </si>
+  <si>
+    <t>[[598   0  17]
+ [ 37  47   3]
+ [ 36   0  81]]</t>
+  </si>
+  <si>
+    <t>[[272   0   6]
+ [  2  39   1]
+ [ 61   0 131]]</t>
+  </si>
+  <si>
+    <t>[[261   1  20]
+ [ 25 138   3]
+ [ 13   0  76]]</t>
+  </si>
+  <si>
+    <t>[[630  13  14]
+ [  8  63   5]
+ [ 40   2 151]]</t>
+  </si>
+  <si>
+    <t>[[377  27  17]
+ [  1  49   7]
+ [ 25   4 163]]</t>
+  </si>
+  <si>
+    <t>[[459   2  10]
+ [  5  19   1]
+ [ 21   0 199]]</t>
+  </si>
+  <si>
+    <t>[[289   6   8]
+ [ 12  80   3]
+ [ 73   5 187]]</t>
+  </si>
+  <si>
+    <t>[[330   0   6]
+ [  2  54   0]
+ [ 38   6 262]]</t>
+  </si>
+  <si>
+    <t>[[372   2  46]
+ [ 12  63   4]
+ [ 15   0 231]]</t>
+  </si>
+  <si>
+    <t>[[268   0  21]
+ [  4  31   4]
+ [ 27   0 154]]</t>
+  </si>
+  <si>
+    <t>[[391   5  37]
+ [ 18  42   2]
+ [ 39   2 157]]</t>
+  </si>
+  <si>
+    <t>[[555   0   4]
+ [  1  10   1]
+ [ 72   0 160]]</t>
+  </si>
+  <si>
+    <t>[[572   2  21]
+ [  5  57   0]
+ [ 39   4 245]]</t>
+  </si>
+  <si>
+    <t>[[264   2  41]
+ [  1  21   0]
+ [ 87   0 160]]</t>
+  </si>
+  <si>
+    <t>[[412  10   8]
+ [  9 128   7]
+ [ 52  12 212]]</t>
+  </si>
+  <si>
+    <t>[[239   1   5]
+ [  3  36   0]
+ [ 52   0 204]]</t>
+  </si>
+  <si>
+    <t>[[421   0  19]
+ [ 27 100  10]
+ [ 14   0 124]]</t>
+  </si>
+  <si>
+    <t>[[409   0   9]
+ [  6  22   4]
+ [ 37   0 227]]</t>
+  </si>
+  <si>
+    <t>[[351   2  51]
+ [  4  13   3]
+ [ 22   0 204]]</t>
+  </si>
+  <si>
+    <t>[[229   2  21]
+ [  0  52  13]
+ [  4   0  90]]</t>
+  </si>
+  <si>
+    <t>[[492   2  15]
+ [  2  15   4]
+ [ 21   3 350]]</t>
+  </si>
+  <si>
+    <t>[[405   6  10]
+ [  3   7   0]
+ [ 50   0 193]]</t>
+  </si>
+  <si>
+    <t>[[663   1  21]
+ [ 29  56   2]
+ [ 35   0 100]]</t>
+  </si>
+  <si>
+    <t>[[270   8  10]
+ [ 19  68   1]
+ [ 30   4 141]]</t>
+  </si>
+  <si>
+    <t>[[623   8  14]
+ [  9  92   5]
+ [ 25   1 148]]</t>
+  </si>
+  <si>
+    <t>[[283   3  29]
+ [ 17  91   0]
+ [ 70   0 121]]</t>
+  </si>
+  <si>
+    <t>[[304   2  10]
+ [  2  13   2]
+ [ 26   0 221]]</t>
+  </si>
+  <si>
+    <t>[[746   2  16]
+ [ 21  90   7]
+ [ 58   2  95]]</t>
+  </si>
+  <si>
+    <t>[[381   2  13]
+ [ 17  75  10]
+ [ 72   1  74]]</t>
+  </si>
+  <si>
+    <t>[[427   2  24]
+ [  6  93   3]
+ [ 14  15 207]]</t>
+  </si>
+  <si>
+    <t>[[156   0  10]
+ [  4  35   1]
+ [  5   0 149]]</t>
+  </si>
+  <si>
+    <t>[[137   1  16]
+ [  1   8   3]
+ [ 13   0 158]]</t>
+  </si>
+  <si>
+    <t>[[455   0   6]
+ [ 10 106   8]
+ [ 44   0 175]]</t>
+  </si>
+  <si>
+    <t>[[521  28  47]
+ [ 20  55   2]
+ [ 32  16 175]]</t>
+  </si>
+  <si>
+    <t>[[330   1  34]
+ [  0  17   3]
+ [ 26   0 273]]</t>
+  </si>
+  <si>
+    <t>[[586   8  11]
+ [  6  33   3]
+ [ 71   1 141]]</t>
+  </si>
+  <si>
+    <t>[[444   1   8]
+ [  1   7   1]
+ [ 15   1 331]]</t>
+  </si>
+  <si>
+    <t>[[564   2  40]
+ [  5  25   2]
+ [ 76   1 267]]</t>
+  </si>
+  <si>
+    <t>[[443  25  32]
+ [  6  64   6]
+ [ 33  29 222]]</t>
+  </si>
+  <si>
+    <t>[[521   8  15]
+ [  6  83   4]
+ [ 49   3 161]]</t>
+  </si>
+  <si>
+    <t>[[260   0   6]
+ [ 18  58   0]
+ [ 12   0 113]]</t>
+  </si>
+  <si>
+    <t>[[124   0   8]
+ [  0   5   0]
+ [ 78   3  88]]</t>
+  </si>
+  <si>
+    <t>[[317   5  28]
+ [  4  17   2]
+ [ 32   0 196]]</t>
+  </si>
+  <si>
+    <t>[[190   1  16]
+ [  2  39   1]
+ [ 12   1 208]]</t>
+  </si>
+  <si>
+    <t>[[473   2   4]
+ [  4  53   2]
+ [ 85  19 176]]</t>
+  </si>
+  <si>
+    <t>[[498   1  11]
+ [  9  81   7]
+ [ 40   1 187]]</t>
+  </si>
+  <si>
+    <t>[[590   2  13]
+ [ 12  42   9]
+ [ 23   2 182]]</t>
+  </si>
+  <si>
+    <t>[[497   3  21]
+ [ 41  95   4]
+ [ 16   0 126]]</t>
+  </si>
+  <si>
+    <t>[[295   3  26]
+ [ 19  42   4]
+ [ 16   0 145]]</t>
+  </si>
+  <si>
+    <t>[[457   3  28]
+ [  9  75   4]
+ [ 70   1 195]]</t>
+  </si>
+  <si>
+    <t>[[334   0   7]
+ [  4   9   3]
+ [ 25   0 246]]</t>
+  </si>
+  <si>
+    <t>[[374  14   9]
+ [  4  72   5]
+ [ 49   1 123]]</t>
+  </si>
+  <si>
+    <t>[[496   4  16]
+ [  5  93   4]
+ [ 28   0 186]]</t>
+  </si>
+  <si>
+    <t>[[458   0   2]
+ [ 27 106   6]
+ [ 39   0  95]]</t>
+  </si>
+  <si>
+    <t>[[340   1  28]
+ [  4  21   3]
+ [ 33   0 198]]</t>
+  </si>
+  <si>
+    <t>[[284   4  17]
+ [ 13  67   2]
+ [ 52   2 114]]</t>
+  </si>
+  <si>
+    <t>[[371   0  29]
+ [ 31  52   5]
+ [ 12   1 167]]</t>
+  </si>
+  <si>
+    <t>[[570   1  16]
+ [  6   5   0]
+ [ 33   1 203]]</t>
+  </si>
+  <si>
+    <t>[[337   0  14]
+ [ 14  77   4]
+ [ 45   9 175]]</t>
+  </si>
+  <si>
+    <t>[[238   9  10]
+ [  1   2   0]
+ [ 26   7 141]]</t>
+  </si>
+  <si>
+    <t>[[552   4  17]
+ [  4  32   2]
+ [ 30   0 295]]</t>
+  </si>
+  <si>
+    <t>[[327   7  17]
+ [  3  28   5]
+ [ 12   0 183]]</t>
+  </si>
+  <si>
+    <t>[[358   0   3]
+ [ 10   6   0]
+ [ 71   5  62]]</t>
+  </si>
+  <si>
+    <t>[[644   8   9]
+ [ 14  68   9]
+ [ 48   4 219]]</t>
+  </si>
+  <si>
+    <t>[[353   6  49]
+ [  1  59   2]
+ [ 29   0 153]]</t>
+  </si>
+  <si>
+    <t>[[399   4  16]
+ [ 13  62   1]
+ [  6   0 295]]</t>
+  </si>
+  <si>
+    <t>[[226   1  12]
+ [  2  50   1]
+ [ 36   0 153]]</t>
+  </si>
+  <si>
+    <t>[[390   1  18]
+ [  1  19   2]
+ [ 32   0 245]]</t>
+  </si>
+  <si>
+    <t>[[371   1  16]
+ [  8  90  13]
+ [ 24   0 122]]</t>
+  </si>
+  <si>
+    <t>[[487   1  19]
+ [ 10  75   3]
+ [ 56   0 190]]</t>
+  </si>
+  <si>
+    <t>[[355  21  17]
+ [ 13  52   0]
+ [ 15  13 155]]</t>
+  </si>
+  <si>
+    <t>[[198   2  25]
+ [ 16  55   3]
+ [ 34   0  96]]</t>
+  </si>
+  <si>
+    <t>[[660   2  21]
+ [ 11  65   1]
+ [ 68   1 275]]</t>
+  </si>
+  <si>
+    <t>[[684  12  28]
+ [ 13  34   3]
+ [ 46   2  97]]</t>
+  </si>
+  <si>
+    <t>[[413   0  16]
+ [  4  13   2]
+ [ 34   0 285]]</t>
+  </si>
+  <si>
+    <t>[[368  25  12]
+ [  1   0   0]
+ [ 44  20 243]]</t>
+  </si>
+  <si>
+    <t>[[541   1  22]
+ [  4  75   0]
+ [ 33   4 256]]</t>
+  </si>
+  <si>
+    <t>[[431   0   6]
+ [ 10  43   4]
+ [ 59   8 189]]</t>
+  </si>
+  <si>
+    <t>[[230   0  11]
+ [  1  38   0]
+ [ 34   0 204]]</t>
+  </si>
+  <si>
+    <t>[[341   1  52]
+ [ 19  68   1]
+ [ 34   3 153]]</t>
+  </si>
+  <si>
+    <t>[[419   2  27]
+ [ 17 142  11]
+ [ 26   1 207]]</t>
+  </si>
+  <si>
+    <t>[[529   7  20]
+ [ 17  90   4]
+ [ 11   0 127]]</t>
+  </si>
+  <si>
+    <t>[[293   4  20]
+ [  7  67   2]
+ [ 15   0 116]]</t>
+  </si>
+  <si>
+    <t>[[229   1  18]
+ [  1  40   1]
+ [ 26   0 122]]</t>
+  </si>
+  <si>
+    <t>[[244   1  36]
+ [  2  31   6]
+ [ 53   0 150]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [ nan  nan  nan]
+ [0.24 0.01 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.02 0.13]
+ [0.16 0.79 0.05]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.01 0.  ]
+ [0.16 0.78 0.06]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.14 0.81 0.05]
+ [0.2  0.   0.8 ]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.04 0.06]
+ [0.11 0.83 0.06]
+ [0.11 0.02 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.26 0.74 0.  ]
+ [0.25 0.   0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.18 0.71 0.12]
+ [0.23 0.   0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.13 0.78 0.09]
+ [0.1  0.03 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.07 0.87 0.06]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.   0.1 ]
+ [0.19 0.58 0.23]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.18 0.79 0.03]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.88 0.   0.12]
+ [0.   1.   0.  ]
+ [0.23 0.   0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.11 0.82 0.07]
+ [0.06 0.01 0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.02 0.06]
+ [0.05 0.9  0.05]
+ [0.53 0.01 0.47]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.22 0.78 0.  ]
+ [0.28 0.01 0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.26 0.72 0.02]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.05 0.95 0.  ]
+ [0.21 0.01 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.24 0.66 0.1 ]
+ [0.11 0.   0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.03 0.12]
+ [0.09 0.83 0.09]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.02]
+ [0.07 0.84 0.09]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.06 0.05]
+ [0.08 0.31 0.62]
+ [0.12 0.02 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.11 0.83 0.07]
+ [0.28 0.   0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.01 0.07]
+ [0.08 0.86 0.06]
+ [0.16 0.01 0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.11]
+ [0.22 0.75 0.03]
+ [0.26 0.   0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.02]
+ [0.25 0.5  0.25]
+ [0.22 0.05 0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.15 0.78 0.07]
+ [0.33 0.   0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.12 0.81 0.06]
+ [0.07 0.01 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.11 0.89 0.  ]
+ [0.2  0.01 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.83 0.02 0.15]
+ [0.   0.77 0.23]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.24 0.76 0.  ]
+ [0.02 0.01 0.98]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.05]
+ [0.12 0.77 0.11]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.09 0.91 0.  ]
+ [0.13 0.01 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.1  0.83 0.07]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.   0.1 ]
+ [0.34 0.62 0.03]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.02]
+ [0.05 0.9  0.05]
+ [0.06 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.43 0.54 0.03]
+ [0.31 0.   0.69]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.05 0.93 0.02]
+ [0.32 0.   0.68]]</t>
   </si>
   <si>
     <t>[[0.93 0.   0.07]
- [0.17 0.8  0.04]
- [0.12 0.   0.87]]</t>
+ [0.15 0.83 0.02]
+ [0.15 0.   0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.11 0.83 0.07]
+ [0.21 0.01 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.06 0.04]
+ [0.02 0.86 0.12]
+ [0.13 0.02 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.02]
+ [0.2  0.76 0.04]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.13 0.84 0.03]
+ [0.28 0.02 0.71]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.04 0.96 0.  ]
+ [0.12 0.02 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.11]
+ [0.15 0.8  0.05]
+ [0.06 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.07]
+ [0.1  0.79 0.1 ]
+ [0.15 0.   0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.01 0.09]
+ [0.29 0.68 0.03]
+ [0.2  0.01 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.08 0.83 0.08]
+ [0.31 0.   0.69]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.08 0.92 0.  ]
+ [0.14 0.01 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.01 0.13]
+ [0.05 0.95 0.  ]
+ [0.35 0.   0.65]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.06 0.89 0.05]
+ [0.19 0.04 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.08 0.92 0.  ]
+ [0.2  0.   0.8 ]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.2  0.73 0.07]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.19 0.69 0.12]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.   0.13]
+ [0.2  0.65 0.15]
+ [0.1  0.   0.9 ]]</t>
   </si>
   <si>
     <t>[[0.91 0.01 0.08]
- [0.09 0.86 0.05]
- [0.17 0.01 0.82]]</t>
+ [0.   0.8  0.2 ]
+ [0.04 0.   0.96]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.1  0.71 0.19]
+ [0.06 0.01 0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.02]
+ [0.3  0.7  0.  ]
+ [0.21 0.   0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.33 0.64 0.02]
+ [0.26 0.   0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.03]
+ [0.22 0.77 0.01]
+ [0.17 0.02 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.08 0.87 0.05]
+ [0.14 0.01 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.01 0.09]
+ [0.16 0.84 0.  ]
+ [0.37 0.   0.63]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.12 0.76 0.12]
+ [0.11 0.   0.89]]</t>
   </si>
   <si>
     <t>[[0.98 0.   0.02]
- [0.1  0.9  0.  ]
- [0.34 0.03 0.62]]</t>
+ [0.18 0.76 0.06]
+ [0.37 0.01 0.61]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.17 0.74 0.1 ]
+ [0.49 0.01 0.5 ]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.05]
+ [0.06 0.91 0.03]
+ [0.06 0.06 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.06]
+ [0.1  0.88 0.02]
+ [0.03 0.   0.97]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.01 0.1 ]
+ [0.08 0.67 0.25]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.08 0.85 0.06]
+ [0.2  0.   0.8 ]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.05 0.08]
+ [0.26 0.71 0.03]
+ [0.14 0.07 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.   0.09]
+ [0.   0.85 0.15]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.14 0.79 0.07]
+ [0.33 0.   0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.11 0.78 0.11]
+ [0.04 0.   0.95]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.07]
+ [0.16 0.78 0.06]
+ [0.22 0.   0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.05 0.06]
+ [0.08 0.84 0.08]
+ [0.12 0.1  0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.06 0.89 0.04]
+ [0.23 0.01 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.24 0.76 0.  ]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.06]
+ [0.   1.   0.  ]
+ [0.46 0.02 0.52]]</t>
   </si>
   <si>
     <t>[[0.91 0.01 0.08]
+ [0.17 0.74 0.09]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.   0.08]
+ [0.05 0.93 0.02]
+ [0.05 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.07 0.9  0.03]
+ [0.3  0.07 0.63]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.09 0.84 0.07]
+ [0.18 0.   0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.19 0.67 0.14]
+ [0.11 0.01 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.29 0.68 0.03]
+ [0.11 0.   0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.01 0.08]
+ [0.29 0.65 0.06]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.01 0.06]
+ [0.1  0.85 0.05]
+ [0.26 0.   0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.25 0.56 0.19]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.04 0.02]
+ [0.05 0.89 0.06]
+ [0.28 0.01 0.71]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.05 0.91 0.04]
+ [0.13 0.   0.87]]</t>
+  </si>
+  <si>
+    <t>[[1.   0.   0.  ]
+ [0.19 0.76 0.04]
+ [0.29 0.   0.71]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.   0.08]
+ [0.14 0.75 0.11]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.06]
+ [0.16 0.82 0.02]
+ [0.31 0.01 0.68]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.07]
+ [0.35 0.59 0.06]
+ [0.07 0.01 0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.55 0.45 0.  ]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.15 0.81 0.04]
+ [0.2  0.04 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.04 0.04]
+ [0.33 0.67 0.  ]
+ [0.15 0.04 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.11 0.84 0.05]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.02 0.05]
+ [0.08 0.78 0.14]
+ [0.06 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.62 0.38 0.  ]
+ [0.51 0.04 0.45]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.01]
+ [0.15 0.75 0.1 ]
+ [0.18 0.01 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.01 0.12]
+ [0.02 0.95 0.03]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.17 0.82 0.01]
+ [0.02 0.   0.98]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.04 0.94 0.02]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.04]
  [0.05 0.86 0.09]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.07 0.81 0.12]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.11 0.85 0.03]
+ [0.23 0.   0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.05 0.04]
+ [0.2  0.8  0.  ]
+ [0.08 0.07 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.88 0.01 0.11]
+ [0.22 0.74 0.04]
+ [0.26 0.   0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.14 0.84 0.01]
  [0.2  0.   0.8 ]]</t>
   </si>
   <si>
-    <t>[[0.91 0.02 0.07]
- [0.04 0.88 0.08]
- [0.06 0.   0.94]]</t>
-  </si>
-  <si>
-    <t>[[0.97 0.   0.03]
- [0.14 0.85 0.01]
- [0.05 0.02 0.93]]</t>
-  </si>
-  <si>
-    <t>[[0.94 0.01 0.05]
- [0.11 0.79 0.11]
- [0.04 0.   0.96]]</t>
-  </si>
-  <si>
-    <t>[[0.98 0.   0.02]
- [0.12 0.79 0.09]
- [0.23 0.   0.77]]</t>
-  </si>
-  <si>
-    <t>[[0.99 0.01 0.01]
- [0.62 0.31 0.06]
- [0.28 0.   0.72]]</t>
+    <t>[[0.94 0.02 0.04]
+ [0.26 0.68 0.06]
+ [0.32 0.01 0.67]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.21 0.68 0.11]
+ [0.11 0.   0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.06 0.03]
+ [1.   0.   0.  ]
+ [0.14 0.07 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.05 0.95 0.  ]
+ [0.11 0.01 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.18 0.75 0.07]
+ [0.23 0.03 0.74]]</t>
   </si>
   <si>
     <t>[[0.95 0.   0.05]
- [0.06 0.9  0.04]
- [0.19 0.   0.81]]</t>
+ [0.03 0.97 0.  ]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.   0.13]
+ [0.22 0.77 0.01]
+ [0.18 0.02 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.   0.06]
+ [0.1  0.84 0.06]
+ [0.11 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.15 0.81 0.04]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.01 0.06]
+ [0.09 0.88 0.03]
+ [0.11 0.   0.89]]</t>
   </si>
   <si>
     <t>[[0.92 0.   0.07]
- [0.26 0.74 0.  ]
- [0.08 0.   0.92]]</t>
+ [0.02 0.95 0.02]
+ [0.18 0.   0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.   0.13]
+ [0.05 0.79 0.15]
+ [0.26 0.   0.74]]</t>
   </si>
 </sst>
 </file>
@@ -679,7 +3404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,37 +3450,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="G2">
-        <v>0.8867595818815331</v>
+        <v>0.8562367864693446</v>
       </c>
       <c r="H2">
-        <v>0.8675899347205656</v>
+        <v>0.5745900267737617</v>
       </c>
       <c r="I2">
-        <v>0.9117210441630071</v>
+        <v>0.5834448160535117</v>
       </c>
       <c r="J2">
-        <v>0.8854819016109339</v>
+        <v>0.5716156156156156</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>611</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -763,37 +3488,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="G3">
-        <v>0.8855780691299165</v>
+        <v>0.836027713625866</v>
       </c>
       <c r="H3">
-        <v>0.8654361479059519</v>
+        <v>0.8335365588839542</v>
       </c>
       <c r="I3">
-        <v>0.8718028085315281</v>
+        <v>0.850075673548956</v>
       </c>
       <c r="J3">
-        <v>0.8683366079737828</v>
+        <v>0.8377011554203079</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>612</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -801,37 +3526,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>493</v>
       </c>
       <c r="G4">
-        <v>0.8075657894736842</v>
+        <v>0.9522258414766558</v>
       </c>
       <c r="H4">
-        <v>0.833479188612484</v>
+        <v>0.8841867369419901</v>
       </c>
       <c r="I4">
-        <v>0.7781500387136656</v>
+        <v>0.935819907469392</v>
       </c>
       <c r="J4">
-        <v>0.7797372064299443</v>
+        <v>0.9081102498131582</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -839,37 +3564,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
       <c r="G5">
-        <v>0.8681592039800995</v>
+        <v>0.9007981755986317</v>
       </c>
       <c r="H5">
-        <v>0.8560961438934734</v>
+        <v>0.8571819943054723</v>
       </c>
       <c r="I5">
-        <v>0.8838121404929464</v>
+        <v>0.9038070859743215</v>
       </c>
       <c r="J5">
-        <v>0.8688651376469307</v>
+        <v>0.8771505258731537</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>614</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -877,37 +3602,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>495</v>
       </c>
       <c r="G6">
-        <v>0.9183673469387755</v>
+        <v>0.893574297188755</v>
       </c>
       <c r="H6">
-        <v>0.913028913028913</v>
+        <v>0.8706022015972371</v>
       </c>
       <c r="I6">
-        <v>0.8936523699185069</v>
+        <v>0.8208469859639337</v>
       </c>
       <c r="J6">
-        <v>0.9022565911454801</v>
+        <v>0.8429684769693156</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>615</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -915,37 +3640,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>496</v>
       </c>
       <c r="G7">
-        <v>0.9403202328966521</v>
+        <v>0.8977719528178244</v>
       </c>
       <c r="H7">
-        <v>0.9158333658659914</v>
+        <v>0.8223980341261218</v>
       </c>
       <c r="I7">
-        <v>0.9413666486978928</v>
+        <v>0.9264236126943874</v>
       </c>
       <c r="J7">
-        <v>0.9277313345238394</v>
+        <v>0.8653147056520621</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -953,37 +3678,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="G8">
-        <v>0.9426086956521739</v>
+        <v>0.8777372262773723</v>
       </c>
       <c r="H8">
-        <v>0.8959061542856254</v>
+        <v>0.8054373247320409</v>
       </c>
       <c r="I8">
-        <v>0.9069092620186652</v>
+        <v>0.8918034188034188</v>
       </c>
       <c r="J8">
-        <v>0.9010501184414229</v>
+        <v>0.8421411164742523</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>617</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -991,37 +3716,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>498</v>
       </c>
       <c r="G9">
-        <v>0.9169329073482428</v>
+        <v>0.9249061326658323</v>
       </c>
       <c r="H9">
-        <v>0.8474179629174651</v>
+        <v>0.8777012660029716</v>
       </c>
       <c r="I9">
-        <v>0.9291296993931596</v>
+        <v>0.834446806489885</v>
       </c>
       <c r="J9">
-        <v>0.8832954819384095</v>
+        <v>0.8515027749138485</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1029,37 +3754,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>499</v>
       </c>
       <c r="G10">
-        <v>0.9125964010282777</v>
+        <v>0.9222797927461139</v>
       </c>
       <c r="H10">
-        <v>0.672957126632595</v>
+        <v>0.8997053647064653</v>
       </c>
       <c r="I10">
-        <v>0.8290229885057472</v>
+        <v>0.9097159670930163</v>
       </c>
       <c r="J10">
-        <v>0.7276065648843684</v>
+        <v>0.9042132079169116</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1067,37 +3792,37 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>500</v>
       </c>
       <c r="G11">
-        <v>0.8926630434782609</v>
+        <v>0.8967611336032388</v>
       </c>
       <c r="H11">
-        <v>0.8841990054210426</v>
+        <v>0.8023223121907331</v>
       </c>
       <c r="I11">
-        <v>0.9168288518025904</v>
+        <v>0.9096456089659398</v>
       </c>
       <c r="J11">
-        <v>0.8986031108795487</v>
+        <v>0.841335823635522</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1105,37 +3830,4179 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12">
+        <v>0.9075535512965051</v>
+      </c>
+      <c r="H12">
+        <v>0.874751430573847</v>
+      </c>
+      <c r="I12">
+        <v>0.9350527933052205</v>
+      </c>
+      <c r="J12">
+        <v>0.9001855131766449</v>
+      </c>
+      <c r="K12" t="s">
+        <v>621</v>
+      </c>
+      <c r="L12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13">
+        <v>0.8408037094281299</v>
+      </c>
+      <c r="H13">
+        <v>0.8826398382319436</v>
+      </c>
+      <c r="I13">
+        <v>0.8277842012104601</v>
+      </c>
+      <c r="J13">
+        <v>0.8526863480830547</v>
+      </c>
+      <c r="K13" t="s">
+        <v>622</v>
+      </c>
+      <c r="L13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14">
+        <v>0.95</v>
+      </c>
+      <c r="H14">
+        <v>0.906920035550741</v>
+      </c>
+      <c r="I14">
+        <v>0.9103775033224565</v>
+      </c>
+      <c r="J14">
+        <v>0.908603585284807</v>
+      </c>
+      <c r="K14" t="s">
+        <v>623</v>
+      </c>
+      <c r="L14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>504</v>
+      </c>
+      <c r="G15">
+        <v>0.7738693467336684</v>
+      </c>
+      <c r="H15">
+        <v>0.7649961053300874</v>
+      </c>
+      <c r="I15">
+        <v>0.8112403100775194</v>
+      </c>
+      <c r="J15">
+        <v>0.770251769346792</v>
+      </c>
+      <c r="K15" t="s">
+        <v>624</v>
+      </c>
+      <c r="L15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16">
+        <v>0.9013398294762485</v>
+      </c>
+      <c r="H16">
+        <v>0.8261586819399617</v>
+      </c>
+      <c r="I16">
+        <v>0.9272548625956457</v>
+      </c>
+      <c r="J16">
+        <v>0.867245313677928</v>
+      </c>
+      <c r="K16" t="s">
+        <v>625</v>
+      </c>
+      <c r="L16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" t="s">
+        <v>506</v>
+      </c>
+      <c r="G17">
+        <v>0.9038095238095238</v>
+      </c>
+      <c r="H17">
+        <v>0.8541062801932368</v>
+      </c>
+      <c r="I17">
+        <v>0.9095526437694396</v>
+      </c>
+      <c r="J17">
+        <v>0.8743617076459701</v>
+      </c>
+      <c r="K17" t="s">
+        <v>626</v>
+      </c>
+      <c r="L17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G18">
+        <v>0.8782234957020058</v>
+      </c>
+      <c r="H18">
+        <v>0.9032959222685818</v>
+      </c>
+      <c r="I18">
+        <v>0.8873422639594229</v>
+      </c>
+      <c r="J18">
+        <v>0.8872466868598484</v>
+      </c>
+      <c r="K18" t="s">
+        <v>627</v>
+      </c>
+      <c r="L18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19">
+        <v>0.9345403899721448</v>
+      </c>
+      <c r="H19">
+        <v>0.8405233805233806</v>
+      </c>
+      <c r="I19">
+        <v>0.9141155601829759</v>
+      </c>
+      <c r="J19">
+        <v>0.8714398769684816</v>
+      </c>
+      <c r="K19" t="s">
+        <v>628</v>
+      </c>
+      <c r="L19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
+        <v>509</v>
+      </c>
+      <c r="G20">
+        <v>0.8649921507064364</v>
+      </c>
+      <c r="H20">
+        <v>0.854021921298636</v>
+      </c>
+      <c r="I20">
+        <v>0.7999925739941274</v>
+      </c>
+      <c r="J20">
+        <v>0.8234191597558507</v>
+      </c>
+      <c r="K20" t="s">
+        <v>629</v>
+      </c>
+      <c r="L20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G21">
+        <v>0.9415584415584416</v>
+      </c>
+      <c r="H21">
+        <v>0.9002252481461127</v>
+      </c>
+      <c r="I21">
+        <v>0.9340315979068824</v>
+      </c>
+      <c r="J21">
+        <v>0.9162230749074829</v>
+      </c>
+      <c r="K21" t="s">
+        <v>630</v>
+      </c>
+      <c r="L21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" t="s">
+        <v>511</v>
+      </c>
+      <c r="G22">
+        <v>0.8738255033557047</v>
+      </c>
+      <c r="H22">
+        <v>0.6907807304464804</v>
+      </c>
+      <c r="I22">
+        <v>0.6470430107526882</v>
+      </c>
+      <c r="J22">
+        <v>0.655863758433901</v>
+      </c>
+      <c r="K22" t="s">
+        <v>631</v>
+      </c>
+      <c r="L22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23">
+        <v>0.8965034965034965</v>
+      </c>
+      <c r="H23">
+        <v>0.8405314009661836</v>
+      </c>
+      <c r="I23">
+        <v>0.9266399257803973</v>
+      </c>
+      <c r="J23">
+        <v>0.8767327850022779</v>
+      </c>
+      <c r="K23" t="s">
+        <v>632</v>
+      </c>
+      <c r="L23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24">
+        <v>0.8756410256410256</v>
+      </c>
+      <c r="H24">
+        <v>0.8681452106220813</v>
+      </c>
+      <c r="I24">
+        <v>0.8925072130299013</v>
+      </c>
+      <c r="J24">
+        <v>0.8788692811750002</v>
+      </c>
+      <c r="K24" t="s">
+        <v>633</v>
+      </c>
+      <c r="L24" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25">
+        <v>0.826722338204593</v>
+      </c>
+      <c r="H25">
+        <v>0.7920017784148219</v>
+      </c>
+      <c r="I25">
+        <v>0.8475783475783477</v>
+      </c>
+      <c r="J25">
+        <v>0.813295288150342</v>
+      </c>
+      <c r="K25" t="s">
+        <v>634</v>
+      </c>
+      <c r="L25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26">
+        <v>0.8679471788715486</v>
+      </c>
+      <c r="H26">
+        <v>0.7237144019880337</v>
+      </c>
+      <c r="I26">
+        <v>0.6281207263100423</v>
+      </c>
+      <c r="J26">
+        <v>0.6121728833629366</v>
+      </c>
+      <c r="K26" t="s">
+        <v>635</v>
+      </c>
+      <c r="L26" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" t="s">
+        <v>516</v>
+      </c>
+      <c r="G27">
+        <v>0.8567073170731707</v>
+      </c>
+      <c r="H27">
+        <v>0.8038775365800067</v>
+      </c>
+      <c r="I27">
+        <v>0.878443261362516</v>
+      </c>
+      <c r="J27">
+        <v>0.831122584432559</v>
+      </c>
+      <c r="K27" t="s">
+        <v>636</v>
+      </c>
+      <c r="L27" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" t="s">
+        <v>517</v>
+      </c>
+      <c r="G28">
+        <v>0.9308510638297872</v>
+      </c>
+      <c r="H28">
+        <v>0.8948272835304921</v>
+      </c>
+      <c r="I28">
+        <v>0.9206513409961685</v>
+      </c>
+      <c r="J28">
+        <v>0.9069172331067573</v>
+      </c>
+      <c r="K28" t="s">
+        <v>637</v>
+      </c>
+      <c r="L28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29">
+        <v>0.9023569023569024</v>
+      </c>
+      <c r="H29">
+        <v>0.8835233585780551</v>
+      </c>
+      <c r="I29">
+        <v>0.9266659213308494</v>
+      </c>
+      <c r="J29">
+        <v>0.9017760353837222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>638</v>
+      </c>
+      <c r="L29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30" t="s">
+        <v>519</v>
+      </c>
+      <c r="G30">
+        <v>0.8528138528138528</v>
+      </c>
+      <c r="H30">
+        <v>0.8413569476644599</v>
+      </c>
+      <c r="I30">
+        <v>0.8391795714749004</v>
+      </c>
+      <c r="J30">
+        <v>0.8333389792231256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>639</v>
+      </c>
+      <c r="L30" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>400</v>
+      </c>
+      <c r="F31" t="s">
+        <v>520</v>
+      </c>
+      <c r="G31">
+        <v>0.9328537170263789</v>
+      </c>
+      <c r="H31">
+        <v>0.9015743467692564</v>
+      </c>
+      <c r="I31">
+        <v>0.9454789259222114</v>
+      </c>
+      <c r="J31">
+        <v>0.9183723964026994</v>
+      </c>
+      <c r="K31" t="s">
+        <v>640</v>
+      </c>
+      <c r="L31" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32">
+        <v>0.9070063694267516</v>
+      </c>
+      <c r="H32">
+        <v>0.8690777672259155</v>
+      </c>
+      <c r="I32">
+        <v>0.8988069400304886</v>
+      </c>
+      <c r="J32">
+        <v>0.8812707194224284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>641</v>
+      </c>
+      <c r="L32" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33">
+        <v>0.924812030075188</v>
+      </c>
+      <c r="H33">
+        <v>0.9086601633171659</v>
+      </c>
+      <c r="I33">
+        <v>0.9176852435229202</v>
+      </c>
+      <c r="J33">
+        <v>0.9130954232000863</v>
+      </c>
+      <c r="K33" t="s">
+        <v>642</v>
+      </c>
+      <c r="L33" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" t="s">
+        <v>523</v>
+      </c>
+      <c r="G34">
+        <v>0.9066511085180864</v>
+      </c>
+      <c r="H34">
+        <v>0.8688658896072591</v>
+      </c>
+      <c r="I34">
+        <v>0.9221314909598419</v>
+      </c>
+      <c r="J34">
+        <v>0.8924060141470473</v>
+      </c>
+      <c r="K34" t="s">
+        <v>643</v>
+      </c>
+      <c r="L34" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>404</v>
+      </c>
+      <c r="F35" t="s">
+        <v>524</v>
+      </c>
+      <c r="G35">
+        <v>0.8468606431852986</v>
+      </c>
+      <c r="H35">
+        <v>0.779104938271605</v>
+      </c>
+      <c r="I35">
+        <v>0.8683684371184371</v>
+      </c>
+      <c r="J35">
+        <v>0.8122340917499075</v>
+      </c>
+      <c r="K35" t="s">
+        <v>644</v>
+      </c>
+      <c r="L35" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G36">
+        <v>0.9537480063795853</v>
+      </c>
+      <c r="H36">
+        <v>0.9362532777275437</v>
+      </c>
+      <c r="I36">
+        <v>0.9598094596462134</v>
+      </c>
+      <c r="J36">
+        <v>0.9474310273099986</v>
+      </c>
+      <c r="K36" t="s">
+        <v>645</v>
+      </c>
+      <c r="L36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G37">
+        <v>0.8864468864468864</v>
+      </c>
+      <c r="H37">
+        <v>0.7349651003141332</v>
+      </c>
+      <c r="I37">
+        <v>0.8977291171740124</v>
+      </c>
+      <c r="J37">
+        <v>0.7915424518226706</v>
+      </c>
+      <c r="K37" t="s">
+        <v>646</v>
+      </c>
+      <c r="L37" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" t="s">
+        <v>527</v>
+      </c>
+      <c r="G38">
+        <v>0.86328125</v>
+      </c>
+      <c r="H38">
+        <v>0.8630934538083818</v>
+      </c>
+      <c r="I38">
+        <v>0.9204052202754344</v>
+      </c>
+      <c r="J38">
+        <v>0.8814470607836568</v>
+      </c>
+      <c r="K38" t="s">
+        <v>647</v>
+      </c>
+      <c r="L38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" t="s">
+        <v>528</v>
+      </c>
+      <c r="G39">
+        <v>0.8845437616387337</v>
+      </c>
+      <c r="H39">
+        <v>0.8702632667893663</v>
+      </c>
+      <c r="I39">
+        <v>0.8777974073563689</v>
+      </c>
+      <c r="J39">
+        <v>0.8706265392428252</v>
+      </c>
+      <c r="K39" t="s">
+        <v>648</v>
+      </c>
+      <c r="L39" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" t="s">
+        <v>529</v>
+      </c>
+      <c r="G40">
+        <v>0.9114470842332614</v>
+      </c>
+      <c r="H40">
+        <v>0.8567449658997376</v>
+      </c>
+      <c r="I40">
+        <v>0.8750437138776546</v>
+      </c>
+      <c r="J40">
+        <v>0.864652655255311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>649</v>
+      </c>
+      <c r="L40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>410</v>
+      </c>
+      <c r="F41" t="s">
+        <v>530</v>
+      </c>
+      <c r="G41">
+        <v>0.8791044776119403</v>
+      </c>
+      <c r="H41">
+        <v>0.8680314640024448</v>
+      </c>
+      <c r="I41">
+        <v>0.8065472083261457</v>
+      </c>
+      <c r="J41">
+        <v>0.8301784407294172</v>
+      </c>
+      <c r="K41" t="s">
+        <v>650</v>
+      </c>
+      <c r="L41" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>411</v>
+      </c>
+      <c r="F42" t="s">
+        <v>531</v>
+      </c>
+      <c r="G42">
+        <v>0.9455307262569832</v>
+      </c>
+      <c r="H42">
+        <v>0.879689249179695</v>
+      </c>
+      <c r="I42">
+        <v>0.9329242349860906</v>
+      </c>
+      <c r="J42">
+        <v>0.9039731326318936</v>
+      </c>
+      <c r="K42" t="s">
+        <v>651</v>
+      </c>
+      <c r="L42" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" t="s">
+        <v>532</v>
+      </c>
+      <c r="G43">
+        <v>0.8386123680241327</v>
+      </c>
+      <c r="H43">
+        <v>0.8338536733514464</v>
+      </c>
+      <c r="I43">
+        <v>0.8654308654308654</v>
+      </c>
+      <c r="J43">
+        <v>0.8405856830543469</v>
+      </c>
+      <c r="K43" t="s">
+        <v>652</v>
+      </c>
+      <c r="L43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" t="s">
+        <v>533</v>
+      </c>
+      <c r="G44">
+        <v>0.9255014326647565</v>
+      </c>
+      <c r="H44">
+        <v>0.9342125739184562</v>
+      </c>
+      <c r="I44">
+        <v>0.9231679440634665</v>
+      </c>
+      <c r="J44">
+        <v>0.9262568871519665</v>
+      </c>
+      <c r="K44" t="s">
+        <v>653</v>
+      </c>
+      <c r="L44" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45" t="s">
+        <v>534</v>
+      </c>
+      <c r="G45">
+        <v>0.8939597315436242</v>
+      </c>
+      <c r="H45">
+        <v>0.8740690101295225</v>
+      </c>
+      <c r="I45">
+        <v>0.90787521774598</v>
+      </c>
+      <c r="J45">
+        <v>0.8866950833269618</v>
+      </c>
+      <c r="K45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" t="s">
+        <v>535</v>
+      </c>
+      <c r="G46">
+        <v>0.8899803536345776</v>
+      </c>
+      <c r="H46">
+        <v>0.857678721430657</v>
+      </c>
+      <c r="I46">
+        <v>0.9188854219216133</v>
+      </c>
+      <c r="J46">
+        <v>0.8842781557067272</v>
+      </c>
+      <c r="K46" t="s">
+        <v>655</v>
+      </c>
+      <c r="L46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" t="s">
+        <v>536</v>
+      </c>
+      <c r="G47">
+        <v>0.8513708513708513</v>
+      </c>
+      <c r="H47">
+        <v>0.7911169857456083</v>
+      </c>
+      <c r="I47">
+        <v>0.8436437074829932</v>
+      </c>
+      <c r="J47">
+        <v>0.8137795890925986</v>
+      </c>
+      <c r="K47" t="s">
+        <v>656</v>
+      </c>
+      <c r="L47" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>537</v>
+      </c>
+      <c r="G48">
+        <v>0.9028642590286425</v>
+      </c>
+      <c r="H48">
+        <v>0.8386109568948382</v>
+      </c>
+      <c r="I48">
+        <v>0.9511516438268032</v>
+      </c>
+      <c r="J48">
+        <v>0.8834222768128918</v>
+      </c>
+      <c r="K48" t="s">
+        <v>657</v>
+      </c>
+      <c r="L48" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>418</v>
+      </c>
+      <c r="F49" t="s">
+        <v>538</v>
+      </c>
+      <c r="G49">
+        <v>0.9248677248677248</v>
+      </c>
+      <c r="H49">
+        <v>0.9104646069897493</v>
+      </c>
+      <c r="I49">
+        <v>0.9181286549707602</v>
+      </c>
+      <c r="J49">
+        <v>0.9137167858608564</v>
+      </c>
+      <c r="K49" t="s">
+        <v>658</v>
+      </c>
+      <c r="L49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>419</v>
+      </c>
+      <c r="F50" t="s">
+        <v>539</v>
+      </c>
+      <c r="G50">
+        <v>0.7725694444444444</v>
+      </c>
+      <c r="H50">
+        <v>0.8207511957726256</v>
+      </c>
+      <c r="I50">
+        <v>0.8196877929194607</v>
+      </c>
+      <c r="J50">
+        <v>0.8162776693884433</v>
+      </c>
+      <c r="K50" t="s">
+        <v>659</v>
+      </c>
+      <c r="L50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>420</v>
+      </c>
+      <c r="F51" t="s">
+        <v>540</v>
+      </c>
+      <c r="G51">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="H51">
+        <v>0.8717147886005318</v>
+      </c>
+      <c r="I51">
+        <v>0.8860966596608436</v>
+      </c>
+      <c r="J51">
+        <v>0.8754014959968606</v>
+      </c>
+      <c r="K51" t="s">
+        <v>660</v>
+      </c>
+      <c r="L51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" t="s">
+        <v>541</v>
+      </c>
+      <c r="G52">
+        <v>0.8870370370370371</v>
+      </c>
+      <c r="H52">
+        <v>0.8984873757195185</v>
+      </c>
+      <c r="I52">
+        <v>0.9206582326883078</v>
+      </c>
+      <c r="J52">
+        <v>0.9038717447157903</v>
+      </c>
+      <c r="K52" t="s">
+        <v>661</v>
+      </c>
+      <c r="L52" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G53">
+        <v>0.9020979020979021</v>
+      </c>
+      <c r="H53">
+        <v>0.8617653045850444</v>
+      </c>
+      <c r="I53">
+        <v>0.9072376425317602</v>
+      </c>
+      <c r="J53">
+        <v>0.8765322288364592</v>
+      </c>
+      <c r="K53" t="s">
+        <v>662</v>
+      </c>
+      <c r="L53" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F54" t="s">
+        <v>543</v>
+      </c>
+      <c r="G54">
+        <v>0.9215686274509803</v>
+      </c>
+      <c r="H54">
+        <v>0.8419391281233386</v>
+      </c>
+      <c r="I54">
+        <v>0.9502335299901672</v>
+      </c>
+      <c r="J54">
+        <v>0.885279450221979</v>
+      </c>
+      <c r="K54" t="s">
+        <v>663</v>
+      </c>
+      <c r="L54" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>544</v>
+      </c>
+      <c r="G55">
+        <v>0.8738461538461538</v>
+      </c>
+      <c r="H55">
+        <v>0.8071555828149187</v>
+      </c>
+      <c r="I55">
+        <v>0.862799607947964</v>
+      </c>
+      <c r="J55">
+        <v>0.8282266602369034</v>
+      </c>
+      <c r="K55" t="s">
+        <v>664</v>
+      </c>
+      <c r="L55" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G12">
-        <v>0.8991769547325102</v>
-      </c>
-      <c r="H12">
-        <v>0.8615547473469675</v>
-      </c>
-      <c r="I12">
-        <v>0.9142458723894996</v>
-      </c>
-      <c r="J12">
-        <v>0.8820747235150505</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56">
+        <v>0.902676399026764</v>
+      </c>
+      <c r="H56">
+        <v>0.8887256557469324</v>
+      </c>
+      <c r="I56">
+        <v>0.8905340108672058</v>
+      </c>
+      <c r="J56">
+        <v>0.881322516711215</v>
+      </c>
+      <c r="K56" t="s">
+        <v>665</v>
+      </c>
+      <c r="L56" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>426</v>
+      </c>
+      <c r="F57" t="s">
+        <v>546</v>
+      </c>
+      <c r="G57">
+        <v>0.9480088495575221</v>
+      </c>
+      <c r="H57">
+        <v>0.8722385900243289</v>
+      </c>
+      <c r="I57">
+        <v>0.8846164303066978</v>
+      </c>
+      <c r="J57">
+        <v>0.8782571104016895</v>
+      </c>
+      <c r="K57" t="s">
+        <v>666</v>
+      </c>
+      <c r="L57" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>427</v>
+      </c>
+      <c r="F58" t="s">
+        <v>547</v>
+      </c>
+      <c r="G58">
+        <v>0.8976261127596439</v>
+      </c>
+      <c r="H58">
+        <v>0.818744644177916</v>
+      </c>
+      <c r="I58">
+        <v>0.7911599769000762</v>
+      </c>
+      <c r="J58">
+        <v>0.7985560702254973</v>
+      </c>
+      <c r="K58" t="s">
+        <v>667</v>
+      </c>
+      <c r="L58" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G59">
+        <v>0.9029768467475193</v>
+      </c>
+      <c r="H59">
+        <v>0.784100704446371</v>
+      </c>
+      <c r="I59">
+        <v>0.9024770860175119</v>
+      </c>
+      <c r="J59">
+        <v>0.8306883535488846</v>
+      </c>
+      <c r="K59" t="s">
+        <v>668</v>
+      </c>
+      <c r="L59" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>429</v>
+      </c>
+      <c r="F60" t="s">
+        <v>549</v>
+      </c>
+      <c r="G60">
+        <v>0.8693284936479129</v>
+      </c>
+      <c r="H60">
+        <v>0.8386471861471861</v>
+      </c>
+      <c r="I60">
+        <v>0.8746755210911291</v>
+      </c>
+      <c r="J60">
+        <v>0.8538434059797965</v>
+      </c>
+      <c r="K60" t="s">
+        <v>669</v>
+      </c>
+      <c r="L60" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>430</v>
+      </c>
+      <c r="F61" t="s">
+        <v>550</v>
+      </c>
+      <c r="G61">
+        <v>0.932972972972973</v>
+      </c>
+      <c r="H61">
+        <v>0.8947969046045939</v>
+      </c>
+      <c r="I61">
+        <v>0.9151227511671957</v>
+      </c>
+      <c r="J61">
+        <v>0.9046377756055176</v>
+      </c>
+      <c r="K61" t="s">
+        <v>670</v>
+      </c>
+      <c r="L61" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>431</v>
+      </c>
+      <c r="F62" t="s">
+        <v>551</v>
+      </c>
+      <c r="G62">
+        <v>0.8061889250814332</v>
+      </c>
+      <c r="H62">
+        <v>0.7915043814694774</v>
+      </c>
+      <c r="I62">
+        <v>0.8465388793048367</v>
+      </c>
+      <c r="J62">
+        <v>0.8123149635425043</v>
+      </c>
+      <c r="K62" t="s">
+        <v>671</v>
+      </c>
+      <c r="L62" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>432</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63">
+        <v>0.9275862068965517</v>
+      </c>
+      <c r="H63">
+        <v>0.8738226803046335</v>
+      </c>
+      <c r="I63">
+        <v>0.9102757237821097</v>
+      </c>
+      <c r="J63">
+        <v>0.8905349794238683</v>
+      </c>
+      <c r="K63" t="s">
+        <v>672</v>
+      </c>
+      <c r="L63" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>433</v>
+      </c>
+      <c r="F64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64">
+        <v>0.8977820636451301</v>
+      </c>
+      <c r="H64">
+        <v>0.7840182935963824</v>
+      </c>
+      <c r="I64">
+        <v>0.8889246595052582</v>
+      </c>
+      <c r="J64">
+        <v>0.8279942058514079</v>
+      </c>
+      <c r="K64" t="s">
+        <v>673</v>
+      </c>
+      <c r="L64" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65">
+        <v>0.8217054263565892</v>
+      </c>
+      <c r="H65">
+        <v>0.7336055634374962</v>
+      </c>
+      <c r="I65">
+        <v>0.8450211191163154</v>
+      </c>
+      <c r="J65">
+        <v>0.7732661105432089</v>
+      </c>
+      <c r="K65" t="s">
+        <v>674</v>
+      </c>
+      <c r="L65" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>435</v>
+      </c>
+      <c r="F66" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66">
+        <v>0.9190897597977244</v>
+      </c>
+      <c r="H66">
+        <v>0.9104960688207636</v>
+      </c>
+      <c r="I66">
+        <v>0.8951090669211474</v>
+      </c>
+      <c r="J66">
+        <v>0.9023661477615712</v>
+      </c>
+      <c r="K66" t="s">
+        <v>675</v>
+      </c>
+      <c r="L66" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L12" t="s">
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>436</v>
+      </c>
+      <c r="F67" t="s">
+        <v>556</v>
+      </c>
+      <c r="G67">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="H67">
+        <v>0.927430501225682</v>
+      </c>
+      <c r="I67">
+        <v>0.9589015151515151</v>
+      </c>
+      <c r="J67">
+        <v>0.9416587022105909</v>
+      </c>
+      <c r="K67" t="s">
+        <v>676</v>
+      </c>
+      <c r="L67" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G68">
+        <v>0.8991097922848664</v>
+      </c>
+      <c r="H68">
+        <v>0.8267512214880636</v>
+      </c>
+      <c r="I68">
+        <v>0.8962763414441492</v>
+      </c>
+      <c r="J68">
+        <v>0.856103798217987</v>
+      </c>
+      <c r="K68" t="s">
+        <v>677</v>
+      </c>
+      <c r="L68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>438</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69">
+        <v>0.9154228855721394</v>
+      </c>
+      <c r="H69">
+        <v>0.8803034277621693</v>
+      </c>
+      <c r="I69">
+        <v>0.9399451842149943</v>
+      </c>
+      <c r="J69">
+        <v>0.9059088658621972</v>
+      </c>
+      <c r="K69" t="s">
+        <v>678</v>
+      </c>
+      <c r="L69" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70">
+        <v>0.8381696428571429</v>
+      </c>
+      <c r="H70">
+        <v>0.7910667171133058</v>
+      </c>
+      <c r="I70">
+        <v>0.7486850397517936</v>
+      </c>
+      <c r="J70">
+        <v>0.7664526332442178</v>
+      </c>
+      <c r="K70" t="s">
+        <v>679</v>
+      </c>
+      <c r="L70" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>440</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71">
+        <v>0.9064327485380117</v>
+      </c>
+      <c r="H71">
+        <v>0.8890510224339884</v>
+      </c>
+      <c r="I71">
+        <v>0.9173519659565329</v>
+      </c>
+      <c r="J71">
+        <v>0.9022279501901725</v>
+      </c>
+      <c r="K71" t="s">
+        <v>680</v>
+      </c>
+      <c r="L71" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72">
+        <v>0.8837209302325582</v>
+      </c>
+      <c r="H72">
+        <v>0.8054270526741717</v>
+      </c>
+      <c r="I72">
+        <v>0.8597509806238458</v>
+      </c>
+      <c r="J72">
+        <v>0.8254362847868539</v>
+      </c>
+      <c r="K72" t="s">
+        <v>681</v>
+      </c>
+      <c r="L72" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>442</v>
+      </c>
+      <c r="F73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73">
+        <v>0.9666254635352287</v>
+      </c>
+      <c r="H73">
+        <v>0.9039335726741494</v>
+      </c>
+      <c r="I73">
+        <v>0.9055081936156105</v>
+      </c>
+      <c r="J73">
+        <v>0.904668473195858</v>
+      </c>
+      <c r="K73" t="s">
+        <v>682</v>
+      </c>
+      <c r="L73" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" t="s">
+        <v>563</v>
+      </c>
+      <c r="G74">
+        <v>0.8716904276985743</v>
+      </c>
+      <c r="H74">
+        <v>0.8293686200015351</v>
+      </c>
+      <c r="I74">
+        <v>0.8771178058037394</v>
+      </c>
+      <c r="J74">
+        <v>0.8509253852660598</v>
+      </c>
+      <c r="K74" t="s">
+        <v>683</v>
+      </c>
+      <c r="L74" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75">
+        <v>0.8476744186046512</v>
+      </c>
+      <c r="H75">
+        <v>0.8365984680009885</v>
+      </c>
+      <c r="I75">
+        <v>0.7717687240438488</v>
+      </c>
+      <c r="J75">
+        <v>0.7927368702956018</v>
+      </c>
+      <c r="K75" t="s">
+        <v>684</v>
+      </c>
+      <c r="L75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76">
+        <v>0.9</v>
+      </c>
+      <c r="H76">
+        <v>0.868687417038601</v>
+      </c>
+      <c r="I76">
+        <v>0.8939790189125295</v>
+      </c>
+      <c r="J76">
+        <v>0.8791320333361196</v>
+      </c>
+      <c r="K76" t="s">
+        <v>685</v>
+      </c>
+      <c r="L76" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>446</v>
+      </c>
+      <c r="F77" t="s">
+        <v>566</v>
+      </c>
+      <c r="G77">
+        <v>0.9229122055674518</v>
+      </c>
+      <c r="H77">
+        <v>0.8815338345864662</v>
+      </c>
+      <c r="I77">
+        <v>0.9487105186902346</v>
+      </c>
+      <c r="J77">
+        <v>0.909050982849639</v>
+      </c>
+      <c r="K77" t="s">
+        <v>686</v>
+      </c>
+      <c r="L77" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>447</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78">
+        <v>0.7091503267973857</v>
+      </c>
+      <c r="H78">
+        <v>0.8200346661885124</v>
+      </c>
+      <c r="I78">
+        <v>0.7185093509350935</v>
+      </c>
+      <c r="J78">
+        <v>0.7252988942289585</v>
+      </c>
+      <c r="K78" t="s">
+        <v>687</v>
+      </c>
+      <c r="L78" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>448</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79">
+        <v>0.8818635607321131</v>
+      </c>
+      <c r="H79">
+        <v>0.834831281101304</v>
+      </c>
+      <c r="I79">
+        <v>0.8460003023541844</v>
+      </c>
+      <c r="J79">
+        <v>0.8402802988474215</v>
+      </c>
+      <c r="K79" t="s">
+        <v>688</v>
+      </c>
+      <c r="L79" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>449</v>
+      </c>
+      <c r="F80" t="s">
+        <v>569</v>
+      </c>
+      <c r="G80">
+        <v>0.9297872340425531</v>
+      </c>
+      <c r="H80">
+        <v>0.9292074317649766</v>
+      </c>
+      <c r="I80">
+        <v>0.9356788352197247</v>
+      </c>
+      <c r="J80">
+        <v>0.932356223799763</v>
+      </c>
+      <c r="K80" t="s">
+        <v>689</v>
+      </c>
+      <c r="L80" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>450</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81">
+        <v>0.8581907090464548</v>
+      </c>
+      <c r="H81">
+        <v>0.8381168057612628</v>
+      </c>
+      <c r="I81">
+        <v>0.8416287313084466</v>
+      </c>
+      <c r="J81">
+        <v>0.8225462792427756</v>
+      </c>
+      <c r="K81" t="s">
+        <v>690</v>
+      </c>
+      <c r="L81" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>331</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" t="s">
+        <v>571</v>
+      </c>
+      <c r="G82">
+        <v>0.9173652694610779</v>
+      </c>
+      <c r="H82">
+        <v>0.8772325244078459</v>
+      </c>
+      <c r="I82">
+        <v>0.9328397372429925</v>
+      </c>
+      <c r="J82">
+        <v>0.902010279357602</v>
+      </c>
+      <c r="K82" t="s">
+        <v>691</v>
+      </c>
+      <c r="L82" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>452</v>
+      </c>
+      <c r="F83" t="s">
+        <v>572</v>
+      </c>
+      <c r="G83">
+        <v>0.9302857142857143</v>
+      </c>
+      <c r="H83">
+        <v>0.8403667771256704</v>
+      </c>
+      <c r="I83">
+        <v>0.9164001136686558</v>
+      </c>
+      <c r="J83">
+        <v>0.8718788547290816</v>
+      </c>
+      <c r="K83" t="s">
+        <v>692</v>
+      </c>
+      <c r="L83" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" t="s">
+        <v>573</v>
+      </c>
+      <c r="G84">
+        <v>0.8941469489414695</v>
+      </c>
+      <c r="H84">
+        <v>0.8399433710387726</v>
+      </c>
+      <c r="I84">
+        <v>0.9003122515173856</v>
+      </c>
+      <c r="J84">
+        <v>0.8610129166358185</v>
+      </c>
+      <c r="K84" t="s">
+        <v>693</v>
+      </c>
+      <c r="L84" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D85">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85">
+        <v>0.8763636363636363</v>
+      </c>
+      <c r="H85">
+        <v>0.8190895971089208</v>
+      </c>
+      <c r="I85">
+        <v>0.8852813852813853</v>
+      </c>
+      <c r="J85">
+        <v>0.8429574248381587</v>
+      </c>
+      <c r="K85" t="s">
+        <v>694</v>
+      </c>
+      <c r="L85" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" t="s">
+        <v>575</v>
+      </c>
+      <c r="G86">
+        <v>0.8634204275534442</v>
+      </c>
+      <c r="H86">
+        <v>0.8406102812919034</v>
+      </c>
+      <c r="I86">
+        <v>0.8870032886368359</v>
+      </c>
+      <c r="J86">
+        <v>0.8606189228414368</v>
+      </c>
+      <c r="K86" t="s">
+        <v>695</v>
+      </c>
+      <c r="L86" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" t="s">
+        <v>576</v>
+      </c>
+      <c r="G87">
+        <v>0.9378980891719745</v>
+      </c>
+      <c r="H87">
+        <v>0.8165737394177461</v>
+      </c>
+      <c r="I87">
+        <v>0.9603492309458218</v>
+      </c>
+      <c r="J87">
+        <v>0.8674833247081825</v>
+      </c>
+      <c r="K87" t="s">
+        <v>696</v>
+      </c>
+      <c r="L87" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>457</v>
+      </c>
+      <c r="F88" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88">
+        <v>0.8740399385560675</v>
+      </c>
+      <c r="H88">
+        <v>0.8473123463441018</v>
+      </c>
+      <c r="I88">
+        <v>0.867091548671723</v>
+      </c>
+      <c r="J88">
+        <v>0.8528194115102979</v>
+      </c>
+      <c r="K88" t="s">
+        <v>697</v>
+      </c>
+      <c r="L88" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>338</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>458</v>
+      </c>
+      <c r="F89" t="s">
+        <v>578</v>
+      </c>
+      <c r="G89">
+        <v>0.9314903846153846</v>
+      </c>
+      <c r="H89">
+        <v>0.9140546314881818</v>
+      </c>
+      <c r="I89">
+        <v>0.933097885135059</v>
+      </c>
+      <c r="J89">
+        <v>0.9232233163997248</v>
+      </c>
+      <c r="K89" t="s">
+        <v>698</v>
+      </c>
+      <c r="L89" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90" t="s">
+        <v>459</v>
+      </c>
+      <c r="F90" t="s">
+        <v>579</v>
+      </c>
+      <c r="G90">
+        <v>0.8990450204638472</v>
+      </c>
+      <c r="H90">
+        <v>0.8223991086170649</v>
+      </c>
+      <c r="I90">
+        <v>0.9321252995380321</v>
+      </c>
+      <c r="J90">
+        <v>0.8659627317017163</v>
+      </c>
+      <c r="K90" t="s">
+        <v>699</v>
+      </c>
+      <c r="L90" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>460</v>
+      </c>
+      <c r="F91" t="s">
+        <v>580</v>
+      </c>
+      <c r="G91">
+        <v>0.8901273885350318</v>
+      </c>
+      <c r="H91">
+        <v>0.842850690411666</v>
+      </c>
+      <c r="I91">
+        <v>0.9070103464772942</v>
+      </c>
+      <c r="J91">
+        <v>0.8707992384504798</v>
+      </c>
+      <c r="K91" t="s">
+        <v>700</v>
+      </c>
+      <c r="L91" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>341</v>
+      </c>
+      <c r="D92">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>461</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="H92">
+        <v>0.808930713428914</v>
+      </c>
+      <c r="I92">
+        <v>0.8629015526609435</v>
+      </c>
+      <c r="J92">
+        <v>0.8301642470469082</v>
+      </c>
+      <c r="K92" t="s">
+        <v>701</v>
+      </c>
+      <c r="L92" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>462</v>
+      </c>
+      <c r="F93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G93">
+        <v>0.8832335329341318</v>
+      </c>
+      <c r="H93">
+        <v>0.8153956228956231</v>
+      </c>
+      <c r="I93">
+        <v>0.9027043707721533</v>
+      </c>
+      <c r="J93">
+        <v>0.841925661325896</v>
+      </c>
+      <c r="K93" t="s">
+        <v>702</v>
+      </c>
+      <c r="L93" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" t="s">
+        <v>583</v>
+      </c>
+      <c r="G94">
+        <v>0.9317365269461078</v>
+      </c>
+      <c r="H94">
+        <v>0.7607082404054779</v>
+      </c>
+      <c r="I94">
+        <v>0.8590623148960419</v>
+      </c>
+      <c r="J94">
+        <v>0.7996945634245405</v>
+      </c>
+      <c r="K94" t="s">
+        <v>703</v>
+      </c>
+      <c r="L94" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" t="s">
+        <v>584</v>
+      </c>
+      <c r="G95">
+        <v>0.8725925925925926</v>
+      </c>
+      <c r="H95">
+        <v>0.8449441385471417</v>
+      </c>
+      <c r="I95">
+        <v>0.8843648965049135</v>
+      </c>
+      <c r="J95">
+        <v>0.8608294617611137</v>
+      </c>
+      <c r="K95" t="s">
+        <v>704</v>
+      </c>
+      <c r="L95" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>465</v>
+      </c>
+      <c r="F96" t="s">
+        <v>585</v>
+      </c>
+      <c r="G96">
+        <v>0.8778801843317973</v>
+      </c>
+      <c r="H96">
+        <v>0.8010271777211265</v>
+      </c>
+      <c r="I96">
+        <v>0.6476663843651224</v>
+      </c>
+      <c r="J96">
+        <v>0.6566819642681713</v>
+      </c>
+      <c r="K96" t="s">
+        <v>705</v>
+      </c>
+      <c r="L96" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>466</v>
+      </c>
+      <c r="F97" t="s">
+        <v>586</v>
+      </c>
+      <c r="G97">
+        <v>0.9391025641025641</v>
+      </c>
+      <c r="H97">
+        <v>0.9043827853968388</v>
+      </c>
+      <c r="I97">
+        <v>0.9234529523110205</v>
+      </c>
+      <c r="J97">
+        <v>0.913575948805445</v>
+      </c>
+      <c r="K97" t="s">
+        <v>706</v>
+      </c>
+      <c r="L97" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>347</v>
+      </c>
+      <c r="D98">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>467</v>
+      </c>
+      <c r="F98" t="s">
+        <v>587</v>
+      </c>
+      <c r="G98">
+        <v>0.9243986254295533</v>
+      </c>
+      <c r="H98">
+        <v>0.8826210826210827</v>
+      </c>
+      <c r="I98">
+        <v>0.8829410925688204</v>
+      </c>
+      <c r="J98">
+        <v>0.8824851126963803</v>
+      </c>
+      <c r="K98" t="s">
+        <v>707</v>
+      </c>
+      <c r="L98" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" t="s">
+        <v>588</v>
+      </c>
+      <c r="G99">
+        <v>0.8271844660194175</v>
+      </c>
+      <c r="H99">
+        <v>0.6053217043371204</v>
+      </c>
+      <c r="I99">
+        <v>0.7715968162437411</v>
+      </c>
+      <c r="J99">
+        <v>0.65009396095603</v>
+      </c>
+      <c r="K99" t="s">
+        <v>708</v>
+      </c>
+      <c r="L99" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>469</v>
+      </c>
+      <c r="F100" t="s">
+        <v>589</v>
+      </c>
+      <c r="G100">
+        <v>0.9100684261974584</v>
+      </c>
+      <c r="H100">
+        <v>0.8432174067547064</v>
+      </c>
+      <c r="I100">
+        <v>0.8954106453425132</v>
+      </c>
+      <c r="J100">
+        <v>0.8665785263668105</v>
+      </c>
+      <c r="K100" t="s">
+        <v>709</v>
+      </c>
+      <c r="L100" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>470</v>
+      </c>
+      <c r="F101" t="s">
+        <v>590</v>
+      </c>
+      <c r="G101">
+        <v>0.8665644171779141</v>
+      </c>
+      <c r="H101">
+        <v>0.8858227741055066</v>
+      </c>
+      <c r="I101">
+        <v>0.8597877753230234</v>
+      </c>
+      <c r="J101">
+        <v>0.8714736864962355</v>
+      </c>
+      <c r="K101" t="s">
+        <v>710</v>
+      </c>
+      <c r="L101" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>471</v>
+      </c>
+      <c r="F102" t="s">
+        <v>591</v>
+      </c>
+      <c r="G102">
+        <v>0.949748743718593</v>
+      </c>
+      <c r="H102">
+        <v>0.9160410739898533</v>
+      </c>
+      <c r="I102">
+        <v>0.9464840714840715</v>
+      </c>
+      <c r="J102">
+        <v>0.9297080210079122</v>
+      </c>
+      <c r="K102" t="s">
+        <v>711</v>
+      </c>
+      <c r="L102" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" t="s">
+        <v>592</v>
+      </c>
+      <c r="G103">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="H103">
+        <v>0.8995089101665243</v>
+      </c>
+      <c r="I103">
+        <v>0.919379836637101</v>
+      </c>
+      <c r="J103">
+        <v>0.9073728808083246</v>
+      </c>
+      <c r="K103" t="s">
+        <v>712</v>
+      </c>
+      <c r="L103" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>473</v>
+      </c>
+      <c r="F104" t="s">
+        <v>593</v>
+      </c>
+      <c r="G104">
+        <v>0.923728813559322</v>
+      </c>
+      <c r="H104">
+        <v>0.9005527100687437</v>
+      </c>
+      <c r="I104">
+        <v>0.9321713724965431</v>
+      </c>
+      <c r="J104">
+        <v>0.9154403151174368</v>
+      </c>
+      <c r="K104" t="s">
+        <v>713</v>
+      </c>
+      <c r="L104" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G105">
+        <v>0.9038759689922481</v>
+      </c>
+      <c r="H105">
+        <v>0.8675376053924282</v>
+      </c>
+      <c r="I105">
+        <v>0.9058511807924328</v>
+      </c>
+      <c r="J105">
+        <v>0.8835636759349486</v>
+      </c>
+      <c r="K105" t="s">
+        <v>714</v>
+      </c>
+      <c r="L105" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>355</v>
+      </c>
+      <c r="D106">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>475</v>
+      </c>
+      <c r="F106" t="s">
+        <v>595</v>
+      </c>
+      <c r="G106">
+        <v>0.8941736028537456</v>
+      </c>
+      <c r="H106">
+        <v>0.861727573031513</v>
+      </c>
+      <c r="I106">
+        <v>0.9212398383108477</v>
+      </c>
+      <c r="J106">
+        <v>0.8877321313379567</v>
+      </c>
+      <c r="K106" t="s">
+        <v>715</v>
+      </c>
+      <c r="L106" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>356</v>
+      </c>
+      <c r="D107">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>476</v>
+      </c>
+      <c r="F107" t="s">
+        <v>596</v>
+      </c>
+      <c r="G107">
+        <v>0.8767550702028081</v>
+      </c>
+      <c r="H107">
+        <v>0.8501008078532793</v>
+      </c>
+      <c r="I107">
+        <v>0.8109023012933388</v>
+      </c>
+      <c r="J107">
+        <v>0.8256432040274234</v>
+      </c>
+      <c r="K107" t="s">
+        <v>716</v>
+      </c>
+      <c r="L107" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>357</v>
+      </c>
+      <c r="D108">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>477</v>
+      </c>
+      <c r="F108" t="s">
+        <v>597</v>
+      </c>
+      <c r="G108">
+        <v>0.8135198135198135</v>
+      </c>
+      <c r="H108">
+        <v>0.7872349272349273</v>
+      </c>
+      <c r="I108">
+        <v>0.8458309752876815</v>
+      </c>
+      <c r="J108">
+        <v>0.8109364902083849</v>
+      </c>
+      <c r="K108" t="s">
+        <v>717</v>
+      </c>
+      <c r="L108" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>478</v>
+      </c>
+      <c r="F109" t="s">
+        <v>598</v>
+      </c>
+      <c r="G109">
+        <v>0.9057971014492754</v>
+      </c>
+      <c r="H109">
+        <v>0.8699664951367426</v>
+      </c>
+      <c r="I109">
+        <v>0.9249690203350424</v>
+      </c>
+      <c r="J109">
+        <v>0.8942853625682928</v>
+      </c>
+      <c r="K109" t="s">
+        <v>718</v>
+      </c>
+      <c r="L109" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>479</v>
+      </c>
+      <c r="F110" t="s">
+        <v>599</v>
+      </c>
+      <c r="G110">
+        <v>0.8868335146898803</v>
+      </c>
+      <c r="H110">
+        <v>0.7645722994856164</v>
+      </c>
+      <c r="I110">
+        <v>0.7955793423807388</v>
+      </c>
+      <c r="J110">
+        <v>0.7790051996888107</v>
+      </c>
+      <c r="K110" t="s">
+        <v>719</v>
+      </c>
+      <c r="L110" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>360</v>
+      </c>
+      <c r="D111">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F111" t="s">
+        <v>600</v>
+      </c>
+      <c r="G111">
+        <v>0.9269882659713168</v>
+      </c>
+      <c r="H111">
+        <v>0.8467771389731462</v>
+      </c>
+      <c r="I111">
+        <v>0.9521122843991717</v>
+      </c>
+      <c r="J111">
+        <v>0.8891783591542434</v>
+      </c>
+      <c r="K111" t="s">
+        <v>720</v>
+      </c>
+      <c r="L111" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112">
+        <v>27</v>
+      </c>
+      <c r="E112" t="s">
+        <v>481</v>
+      </c>
+      <c r="F112" t="s">
+        <v>601</v>
+      </c>
+      <c r="G112">
+        <v>0.8569424964936886</v>
+      </c>
+      <c r="H112">
+        <v>0.5667243066446831</v>
+      </c>
+      <c r="I112">
+        <v>0.6146607795660637</v>
+      </c>
+      <c r="J112">
+        <v>0.5881747281655051</v>
+      </c>
+      <c r="K112" t="s">
+        <v>721</v>
+      </c>
+      <c r="L112" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>482</v>
+      </c>
+      <c r="F113" t="s">
+        <v>602</v>
+      </c>
+      <c r="G113">
+        <v>0.9316239316239316</v>
+      </c>
+      <c r="H113">
+        <v>0.9274356944274649</v>
+      </c>
+      <c r="I113">
+        <v>0.9314498228406894</v>
+      </c>
+      <c r="J113">
+        <v>0.9291764420799876</v>
+      </c>
+      <c r="K113" t="s">
+        <v>722</v>
+      </c>
+      <c r="L113" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" t="s">
+        <v>363</v>
+      </c>
+      <c r="D114">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>483</v>
+      </c>
+      <c r="F114" t="s">
+        <v>603</v>
+      </c>
+      <c r="G114">
+        <v>0.884</v>
+      </c>
+      <c r="H114">
+        <v>0.8263124125985253</v>
+      </c>
+      <c r="I114">
+        <v>0.8849619995401845</v>
+      </c>
+      <c r="J114">
+        <v>0.8490076125437208</v>
+      </c>
+      <c r="K114" t="s">
+        <v>723</v>
+      </c>
+      <c r="L114" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>364</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115" t="s">
+        <v>484</v>
+      </c>
+      <c r="F115" t="s">
+        <v>604</v>
+      </c>
+      <c r="G115">
+        <v>0.9111969111969112</v>
+      </c>
+      <c r="H115">
+        <v>0.9286195593249534</v>
+      </c>
+      <c r="I115">
+        <v>0.9389205792014041</v>
+      </c>
+      <c r="J115">
+        <v>0.9322553825865084</v>
+      </c>
+      <c r="K115" t="s">
+        <v>724</v>
+      </c>
+      <c r="L115" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" t="s">
+        <v>365</v>
+      </c>
+      <c r="D116">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>485</v>
+      </c>
+      <c r="F116" t="s">
+        <v>605</v>
+      </c>
+      <c r="G116">
+        <v>0.8363095238095238</v>
+      </c>
+      <c r="H116">
+        <v>0.8144908880415159</v>
+      </c>
+      <c r="I116">
+        <v>0.8508817081829747</v>
+      </c>
+      <c r="J116">
+        <v>0.8294031687432701</v>
+      </c>
+      <c r="K116" t="s">
+        <v>725</v>
+      </c>
+      <c r="L116" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117">
+        <v>35</v>
+      </c>
+      <c r="E117" t="s">
+        <v>486</v>
+      </c>
+      <c r="F117" t="s">
+        <v>606</v>
+      </c>
+      <c r="G117">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="H117">
+        <v>0.8850591198017668</v>
+      </c>
+      <c r="I117">
+        <v>0.9103782369792222</v>
+      </c>
+      <c r="J117">
+        <v>0.8955890162570749</v>
+      </c>
+      <c r="K117" t="s">
+        <v>726</v>
+      </c>
+      <c r="L117" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>487</v>
+      </c>
+      <c r="F118" t="s">
+        <v>607</v>
+      </c>
+      <c r="G118">
+        <v>0.9267080745341615</v>
+      </c>
+      <c r="H118">
+        <v>0.8941798382680459</v>
+      </c>
+      <c r="I118">
+        <v>0.9062084514583105</v>
+      </c>
+      <c r="J118">
+        <v>0.8982871187121365</v>
+      </c>
+      <c r="K118" t="s">
+        <v>727</v>
+      </c>
+      <c r="L118" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119">
+        <v>28</v>
+      </c>
+      <c r="E119" t="s">
+        <v>488</v>
+      </c>
+      <c r="F119" t="s">
+        <v>608</v>
+      </c>
+      <c r="G119">
+        <v>0.9083969465648855</v>
+      </c>
+      <c r="H119">
+        <v>0.897121783798239</v>
+      </c>
+      <c r="I119">
+        <v>0.9048001373782144</v>
+      </c>
+      <c r="J119">
+        <v>0.9004111157740904</v>
+      </c>
+      <c r="K119" t="s">
+        <v>728</v>
+      </c>
+      <c r="L119" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>489</v>
+      </c>
+      <c r="F120" t="s">
+        <v>609</v>
+      </c>
+      <c r="G120">
+        <v>0.8926940639269406</v>
+      </c>
+      <c r="H120">
+        <v>0.9000307911598234</v>
+      </c>
+      <c r="I120">
+        <v>0.9117964110159719</v>
+      </c>
+      <c r="J120">
+        <v>0.905625412618784</v>
+      </c>
+      <c r="K120" t="s">
+        <v>729</v>
+      </c>
+      <c r="L120" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" t="s">
+        <v>610</v>
+      </c>
+      <c r="G121">
+        <v>0.8126195028680688</v>
+      </c>
+      <c r="H121">
+        <v>0.8007051510548872</v>
+      </c>
+      <c r="I121">
+        <v>0.8553511705685618</v>
+      </c>
+      <c r="J121">
+        <v>0.8247041392835407</v>
+      </c>
+      <c r="K121" t="s">
+        <v>730</v>
+      </c>
+      <c r="L121" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
